--- a/Report/AA/df_ALL.xlsx
+++ b/Report/AA/df_ALL.xlsx
@@ -768,7 +768,7 @@
         <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>117.8439087718394</v>
+        <v>115.57693405884</v>
       </c>
       <c r="M6" t="n">
         <v>-0</v>
@@ -821,10 +821,10 @@
         <v>-0.9204614093785174</v>
       </c>
       <c r="L7" t="n">
-        <v>116.3626964678294</v>
+        <v>114.5130929826855</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.256927336717784</v>
+        <v>-0.9204614093785108</v>
       </c>
       <c r="N7" t="n">
         <v>98.86545431902366</v>
@@ -874,10 +874,10 @@
         <v>-0</v>
       </c>
       <c r="L8" t="n">
-        <v>117.5234348578673</v>
+        <v>115.6553812522232</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.27194779714293</v>
+        <v>-0</v>
       </c>
       <c r="N8" t="n">
         <v>100.0349919511705</v>
@@ -927,10 +927,10 @@
         <v>-0.4966612748599524</v>
       </c>
       <c r="L9" t="n">
-        <v>116.4690040818044</v>
+        <v>115.0809657612518</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.166716807312435</v>
+        <v>-0.4966612748599383</v>
       </c>
       <c r="N9" t="n">
         <v>102.5411228834985</v>
@@ -980,10 +980,10 @@
         <v>-0</v>
       </c>
       <c r="L10" t="n">
-        <v>117.503731742099</v>
+        <v>116.1033618861722</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.2886674697790554</v>
+        <v>-0</v>
       </c>
       <c r="N10" t="n">
         <v>105.1406812449866</v>
@@ -1033,10 +1033,10 @@
         <v>-2.469470833036892</v>
       </c>
       <c r="L11" t="n">
-        <v>116.8559239308423</v>
+        <v>115.4632744299874</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.8383843096294425</v>
+        <v>-0.5513082875346967</v>
       </c>
       <c r="N11" t="n">
         <v>104.9603254936551</v>
@@ -1086,7 +1086,7 @@
         <v>-1.594905999911826</v>
       </c>
       <c r="L12" t="n">
-        <v>120.0208636487152</v>
+        <v>118.590495463432</v>
       </c>
       <c r="M12" t="n">
         <v>-0</v>
@@ -1139,7 +1139,7 @@
         <v>-0</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1147556800297</v>
+        <v>123.6236802070353</v>
       </c>
       <c r="M13" t="n">
         <v>-0</v>
@@ -1192,10 +1192,10 @@
         <v>-1.66728876623128</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8160258870751</v>
+        <v>121.5625164745417</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.038030874852179</v>
+        <v>-1.667288766231284</v>
       </c>
       <c r="N14" t="n">
         <v>115.0327942715795</v>
@@ -1245,10 +1245,10 @@
         <v>-0.8810155336137024</v>
       </c>
       <c r="L15" t="n">
-        <v>124.7827780621066</v>
+        <v>122.5345363811864</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.2653385015370567</v>
+        <v>-0.8810155336137162</v>
       </c>
       <c r="N15" t="n">
         <v>114.7625256610483</v>
@@ -1298,7 +1298,7 @@
         <v>-0</v>
       </c>
       <c r="L16" t="n">
-        <v>126.2702075943135</v>
+        <v>123.9951665335136</v>
       </c>
       <c r="M16" t="n">
         <v>-0</v>
@@ -1351,7 +1351,7 @@
         <v>-0</v>
       </c>
       <c r="L17" t="n">
-        <v>128.433257956144</v>
+        <v>125.8513189529553</v>
       </c>
       <c r="M17" t="n">
         <v>-0</v>
@@ -1404,7 +1404,7 @@
         <v>-2.35518406205645</v>
       </c>
       <c r="L18" t="n">
-        <v>124.6134303284692</v>
+        <v>122.1082826649561</v>
       </c>
       <c r="M18" t="n">
         <v>-2.974173269807687</v>
@@ -1457,10 +1457,10 @@
         <v>-3.418699472839059</v>
       </c>
       <c r="L19" t="n">
-        <v>121.8989328454888</v>
+        <v>120.7783191727732</v>
       </c>
       <c r="M19" t="n">
-        <v>-5.087720435221208</v>
+        <v>-4.03094685251445</v>
       </c>
       <c r="N19" t="n">
         <v>119.4336391923021</v>
@@ -1510,10 +1510,10 @@
         <v>-3.418699472839059</v>
       </c>
       <c r="L20" t="n">
-        <v>121.8989328454888</v>
+        <v>120.7783191727732</v>
       </c>
       <c r="M20" t="n">
-        <v>-5.087720435221208</v>
+        <v>-4.03094685251445</v>
       </c>
       <c r="N20" t="n">
         <v>125.605685553331</v>
@@ -1563,10 +1563,10 @@
         <v>-3.418699472839059</v>
       </c>
       <c r="L21" t="n">
-        <v>121.8989328454888</v>
+        <v>120.7783191727732</v>
       </c>
       <c r="M21" t="n">
-        <v>-5.087720435221208</v>
+        <v>-4.03094685251445</v>
       </c>
       <c r="N21" t="n">
         <v>121.8384273183876</v>
@@ -1616,10 +1616,10 @@
         <v>-3.418699472839059</v>
       </c>
       <c r="L22" t="n">
-        <v>121.8989328454888</v>
+        <v>120.7783191727732</v>
       </c>
       <c r="M22" t="n">
-        <v>-5.087720435221208</v>
+        <v>-4.03094685251445</v>
       </c>
       <c r="N22" t="n">
         <v>125.6941679702657</v>
@@ -1669,10 +1669,10 @@
         <v>-0.1545888650516183</v>
       </c>
       <c r="L23" t="n">
-        <v>125.8102943303469</v>
+        <v>124.6537236147225</v>
       </c>
       <c r="M23" t="n">
-        <v>-2.042277574779518</v>
+        <v>-0.9515953811183703</v>
       </c>
       <c r="N23" t="n">
         <v>130.1859306701576</v>
@@ -1722,7 +1722,7 @@
         <v>-0</v>
       </c>
       <c r="L24" t="n">
-        <v>130.2779778734692</v>
+        <v>129.0803358609357</v>
       </c>
       <c r="M24" t="n">
         <v>-0</v>
@@ -1775,7 +1775,7 @@
         <v>-0</v>
       </c>
       <c r="L25" t="n">
-        <v>130.2779778734692</v>
+        <v>129.0803358609357</v>
       </c>
       <c r="M25" t="n">
         <v>-0</v>
@@ -1828,7 +1828,7 @@
         <v>-0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.2779778734692</v>
+        <v>129.0803358609357</v>
       </c>
       <c r="M26" t="n">
         <v>-0</v>
@@ -1881,7 +1881,7 @@
         <v>-0</v>
       </c>
       <c r="L27" t="n">
-        <v>131.4763253674889</v>
+        <v>129.775040219557</v>
       </c>
       <c r="M27" t="n">
         <v>-0</v>
@@ -1934,10 +1934,10 @@
         <v>-0.4776808021891936</v>
       </c>
       <c r="L28" t="n">
-        <v>127.8823133552515</v>
+        <v>126.2275342169819</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.733581123591496</v>
+        <v>-2.733581123591507</v>
       </c>
       <c r="N28" t="n">
         <v>136.61467762111</v>
@@ -1987,10 +1987,10 @@
         <v>-0</v>
       </c>
       <c r="L29" t="n">
-        <v>129.0168133349055</v>
+        <v>127.3473539265544</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.870688145343883</v>
+        <v>-1.870688145343907</v>
       </c>
       <c r="N29" t="n">
         <v>137.5643618968768</v>
@@ -2040,10 +2040,10 @@
         <v>-0</v>
       </c>
       <c r="L30" t="n">
-        <v>131.2943092581719</v>
+        <v>129.5953793730799</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.1384402163721949</v>
+        <v>-0.1384402163722215</v>
       </c>
       <c r="N30" t="n">
         <v>139.3993918452965</v>
@@ -2093,7 +2093,7 @@
         <v>-0</v>
       </c>
       <c r="L31" t="n">
-        <v>135.3957561760933</v>
+        <v>133.6437541450694</v>
       </c>
       <c r="M31" t="n">
         <v>-0</v>
@@ -2146,7 +2146,7 @@
         <v>-1.683318604546068</v>
       </c>
       <c r="L32" t="n">
-        <v>136.9960464814458</v>
+        <v>135.2233369190753</v>
       </c>
       <c r="M32" t="n">
         <v>-0</v>
@@ -2199,7 +2199,7 @@
         <v>-0</v>
       </c>
       <c r="L33" t="n">
-        <v>142.2254374179389</v>
+        <v>138.5296978462454</v>
       </c>
       <c r="M33" t="n">
         <v>-0</v>
@@ -2252,10 +2252,10 @@
         <v>-1.614479860072371</v>
       </c>
       <c r="L34" t="n">
-        <v>139.4253813751443</v>
+        <v>136.2931637742987</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.968744897979451</v>
+        <v>-1.614479860072377</v>
       </c>
       <c r="N34" t="n">
         <v>141.4430727114422</v>
@@ -2305,7 +2305,7 @@
         <v>-0</v>
       </c>
       <c r="L35" t="n">
-        <v>142.6188459854458</v>
+        <v>138.8323662507379</v>
       </c>
       <c r="M35" t="n">
         <v>-0</v>
@@ -2358,7 +2358,7 @@
         <v>-0</v>
       </c>
       <c r="L36" t="n">
-        <v>145.8736837706521</v>
+        <v>141.2238578889747</v>
       </c>
       <c r="M36" t="n">
         <v>-0</v>
@@ -2411,7 +2411,7 @@
         <v>-0</v>
       </c>
       <c r="L37" t="n">
-        <v>149.0272001218439</v>
+        <v>142.8072696621961</v>
       </c>
       <c r="M37" t="n">
         <v>-0</v>
@@ -2464,7 +2464,7 @@
         <v>-0</v>
       </c>
       <c r="L38" t="n">
-        <v>160.6430306135933</v>
+        <v>151.3137287696547</v>
       </c>
       <c r="M38" t="n">
         <v>-0</v>
@@ -2517,10 +2517,10 @@
         <v>-3.343497876633148</v>
       </c>
       <c r="L39" t="n">
-        <v>152.7455734586871</v>
+        <v>146.2545574611869</v>
       </c>
       <c r="M39" t="n">
-        <v>-4.91615299135043</v>
+        <v>-3.343497876633148</v>
       </c>
       <c r="N39" t="n">
         <v>152.0701213586715</v>
@@ -2570,10 +2570,10 @@
         <v>-4.002033868457704</v>
       </c>
       <c r="L40" t="n">
-        <v>149.1423689193582</v>
+        <v>142.8044732891293</v>
       </c>
       <c r="M40" t="n">
-        <v>-7.159141389643234</v>
+        <v>-5.623584554894631</v>
       </c>
       <c r="N40" t="n">
         <v>149.6817385947932</v>
@@ -2623,10 +2623,10 @@
         <v>-5.680498418147793</v>
       </c>
       <c r="L41" t="n">
-        <v>145.4221174653433</v>
+        <v>140.3076261619253</v>
       </c>
       <c r="M41" t="n">
-        <v>-9.474991283538433</v>
+        <v>-7.273697302433205</v>
       </c>
       <c r="N41" t="n">
         <v>151.1536605621394</v>
@@ -2676,10 +2676,10 @@
         <v>-5.834986159878031</v>
       </c>
       <c r="L42" t="n">
-        <v>140.2544410349292</v>
+        <v>135.3216967492476</v>
       </c>
       <c r="M42" t="n">
-        <v>-12.69186064330808</v>
+        <v>-10.56879118004676</v>
       </c>
       <c r="N42" t="n">
         <v>151.4276784549079</v>
@@ -2729,10 +2729,10 @@
         <v>-8.216125133636677</v>
       </c>
       <c r="L43" t="n">
-        <v>135.6845224429359</v>
+        <v>131.8998338621262</v>
       </c>
       <c r="M43" t="n">
-        <v>-15.53662681494844</v>
+        <v>-12.83022701600483</v>
       </c>
       <c r="N43" t="n">
         <v>147.9830657262671</v>
@@ -2782,10 +2782,10 @@
         <v>-6.09177554853511</v>
       </c>
       <c r="L44" t="n">
-        <v>139.1140349965647</v>
+        <v>134.952672476185</v>
       </c>
       <c r="M44" t="n">
-        <v>-13.40176136792008</v>
+        <v>-10.81267141223928</v>
       </c>
       <c r="N44" t="n">
         <v>143.6562369663004</v>
@@ -2835,10 +2835,10 @@
         <v>-6.359913537188315</v>
       </c>
       <c r="L45" t="n">
-        <v>138.511251894182</v>
+        <v>134.567339472899</v>
       </c>
       <c r="M45" t="n">
-        <v>-13.77699277390161</v>
+        <v>-11.06732973466592</v>
       </c>
       <c r="N45" t="n">
         <v>134.9003618799207</v>
@@ -2888,10 +2888,10 @@
         <v>-5.000329464978215</v>
       </c>
       <c r="L46" t="n">
-        <v>141.0566254419998</v>
+        <v>136.5211566712599</v>
       </c>
       <c r="M46" t="n">
-        <v>-12.19250228085285</v>
+        <v>-9.776093827489778</v>
       </c>
       <c r="N46" t="n">
         <v>137.553717255009</v>
@@ -2941,10 +2941,10 @@
         <v>-5.322207607700548</v>
       </c>
       <c r="L47" t="n">
-        <v>140.3727056788758</v>
+        <v>136.0585953160029</v>
       </c>
       <c r="M47" t="n">
-        <v>-12.61824111341323</v>
+        <v>-10.08179071237798</v>
       </c>
       <c r="N47" t="n">
         <v>136.9913674065552</v>
@@ -2994,10 +2994,10 @@
         <v>-5.855126437171662</v>
       </c>
       <c r="L48" t="n">
-        <v>139.3605839154889</v>
+        <v>135.2927537651686</v>
       </c>
       <c r="M48" t="n">
-        <v>-13.24828510568668</v>
+        <v>-10.58791897784432</v>
       </c>
       <c r="N48" t="n">
         <v>137.4921462031331</v>
@@ -3047,10 +3047,10 @@
         <v>-6.14583902023131</v>
       </c>
       <c r="L49" t="n">
-        <v>138.801651759419</v>
+        <v>134.8749794942193</v>
       </c>
       <c r="M49" t="n">
-        <v>-13.59621937581028</v>
+        <v>-10.86401703870519</v>
       </c>
       <c r="N49" t="n">
         <v>135.1159216419013</v>
@@ -3100,10 +3100,10 @@
         <v>-2.983631343943777</v>
       </c>
       <c r="L50" t="n">
-        <v>144.4649399920007</v>
+        <v>139.4192926183618</v>
       </c>
       <c r="M50" t="n">
-        <v>-10.07083255326958</v>
+        <v>-7.860777900331755</v>
       </c>
       <c r="N50" t="n">
         <v>128.3889236802003</v>
@@ -3153,10 +3153,10 @@
         <v>-1.229933687227619</v>
       </c>
       <c r="L51" t="n">
-        <v>148.1525676799466</v>
+        <v>141.9394785431994</v>
       </c>
       <c r="M51" t="n">
-        <v>-7.775290895557658</v>
+        <v>-6.195241041694134</v>
       </c>
       <c r="N51" t="n">
         <v>132.3509063478913</v>
@@ -3206,10 +3206,10 @@
         <v>-0.9916275955923396</v>
       </c>
       <c r="L52" t="n">
-        <v>148.0277654922172</v>
+        <v>142.2819410284757</v>
       </c>
       <c r="M52" t="n">
-        <v>-7.852980034795594</v>
+        <v>-5.968914925709212</v>
       </c>
       <c r="N52" t="n">
         <v>132.2274189896441</v>
@@ -3259,10 +3259,10 @@
         <v>-0.2496364323301982</v>
       </c>
       <c r="L53" t="n">
-        <v>149.526083436204</v>
+        <v>143.7221004785584</v>
       </c>
       <c r="M53" t="n">
-        <v>-6.920279787381273</v>
+        <v>-5.017144414340035</v>
       </c>
       <c r="N53" t="n">
         <v>132.7485431196186</v>
@@ -3312,10 +3312,10 @@
         <v>-1.348230898048749</v>
       </c>
       <c r="L54" t="n">
-        <v>144.6888294900604</v>
+        <v>139.0726086861476</v>
       </c>
       <c r="M54" t="n">
-        <v>-9.931461740104135</v>
+        <v>-8.089893880113001</v>
       </c>
       <c r="N54" t="n">
         <v>132.2655661216668</v>
@@ -3365,10 +3365,10 @@
         <v>-0</v>
       </c>
       <c r="L55" t="n">
-        <v>152.8698741577877</v>
+        <v>145.1529388479046</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.838776027889348</v>
+        <v>-4.071534005436321</v>
       </c>
       <c r="N55" t="n">
         <v>132.7253141023425</v>
@@ -3418,10 +3418,10 @@
         <v>-0</v>
       </c>
       <c r="L56" t="n">
-        <v>155.6706998281016</v>
+        <v>146.9143640133362</v>
       </c>
       <c r="M56" t="n">
-        <v>-3.095267044265317</v>
+        <v>-2.907445868983713</v>
       </c>
       <c r="N56" t="n">
         <v>137.5659770190437</v>
@@ -3471,10 +3471,10 @@
         <v>-0.1566431687419878</v>
       </c>
       <c r="L57" t="n">
-        <v>157.3053529957562</v>
+        <v>148.4570694214415</v>
       </c>
       <c r="M57" t="n">
-        <v>-2.077698363314274</v>
+        <v>-1.887904931985346</v>
       </c>
       <c r="N57" t="n">
         <v>137.7307313884522</v>
@@ -3524,10 +3524,10 @@
         <v>-0</v>
       </c>
       <c r="L58" t="n">
-        <v>160.4841094400059</v>
+        <v>151.4570236959191</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.09892814707265053</v>
+        <v>-0</v>
       </c>
       <c r="N58" t="n">
         <v>137.7387146996444</v>
@@ -3577,10 +3577,10 @@
         <v>-1.480177668414532</v>
       </c>
       <c r="L59" t="n">
-        <v>158.1454950831613</v>
+        <v>149.2499542776685</v>
       </c>
       <c r="M59" t="n">
-        <v>-1.5547114125601</v>
+        <v>-1.457224871051066</v>
       </c>
       <c r="N59" t="n">
         <v>133.6701026204972</v>
@@ -3630,10 +3630,10 @@
         <v>-5.898047775019939</v>
       </c>
       <c r="L60" t="n">
-        <v>147.8159573729795</v>
+        <v>142.5572208174282</v>
       </c>
       <c r="M60" t="n">
-        <v>-7.984830211195209</v>
+        <v>-5.876124237301229</v>
       </c>
       <c r="N60" t="n">
         <v>138.5942713820524</v>
@@ -3683,10 +3683,10 @@
         <v>-4.348319873328839</v>
       </c>
       <c r="L61" t="n">
-        <v>148.1894116084267</v>
+        <v>144.9049394084316</v>
       </c>
       <c r="M61" t="n">
-        <v>-7.752355615801443</v>
+        <v>-4.326035285522412</v>
       </c>
       <c r="N61" t="n">
         <v>141.4038466213521</v>
@@ -3736,10 +3736,10 @@
         <v>-4.198669008108603</v>
       </c>
       <c r="L62" t="n">
-        <v>148.052061056498</v>
+        <v>145.131648960511</v>
       </c>
       <c r="M62" t="n">
-        <v>-7.837856089369525</v>
+        <v>-4.176349555176529</v>
       </c>
       <c r="N62" t="n">
         <v>143.9342321435211</v>
@@ -3789,10 +3789,10 @@
         <v>-3.706209275885636</v>
       </c>
       <c r="L63" t="n">
-        <v>149.1102513095724</v>
+        <v>145.8776875827742</v>
       </c>
       <c r="M63" t="n">
-        <v>-7.179134544443164</v>
+        <v>-3.683775091438872</v>
       </c>
       <c r="N63" t="n">
         <v>149.5896242618123</v>
@@ -3842,10 +3842,10 @@
         <v>-3.222866668655068</v>
       </c>
       <c r="L64" t="n">
-        <v>152.1325948241384</v>
+        <v>148.834509659818</v>
       </c>
       <c r="M64" t="n">
-        <v>-5.297731097918339</v>
+        <v>-1.731523551767645</v>
       </c>
       <c r="N64" t="n">
         <v>149.7765935687295</v>
@@ -3895,10 +3895,10 @@
         <v>-1.349147092244204</v>
       </c>
       <c r="L65" t="n">
-        <v>156.2812925428476</v>
+        <v>152.893267688659</v>
       </c>
       <c r="M65" t="n">
-        <v>-2.71517416851856</v>
+        <v>-0</v>
       </c>
       <c r="N65" t="n">
         <v>153.9058452610189</v>
@@ -3948,7 +3948,7 @@
         <v>-0</v>
       </c>
       <c r="L66" t="n">
-        <v>162.3719837268554</v>
+        <v>158.85191867275</v>
       </c>
       <c r="M66" t="n">
         <v>-0</v>
@@ -4001,10 +4001,10 @@
         <v>-0</v>
       </c>
       <c r="L67" t="n">
-        <v>158.6083406021159</v>
+        <v>155.1698676326512</v>
       </c>
       <c r="M67" t="n">
-        <v>-2.317914112000226</v>
+        <v>-2.31791411200023</v>
       </c>
       <c r="N67" t="n">
         <v>158.9727159707211</v>
@@ -4054,7 +4054,7 @@
         <v>-0</v>
       </c>
       <c r="L68" t="n">
-        <v>163.1762319418897</v>
+        <v>159.6387315767682</v>
       </c>
       <c r="M68" t="n">
         <v>-0</v>
@@ -4107,7 +4107,7 @@
         <v>-0</v>
       </c>
       <c r="L69" t="n">
-        <v>168.0704254675573</v>
+        <v>164.4268237960263</v>
       </c>
       <c r="M69" t="n">
         <v>-0</v>
@@ -4160,10 +4160,10 @@
         <v>-0.1345703163105762</v>
       </c>
       <c r="L70" t="n">
-        <v>167.2381980445756</v>
+        <v>163.6126382457955</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.49516589290858</v>
+        <v>-0.4951658929085769</v>
       </c>
       <c r="N70" t="n">
         <v>169.6781719256686</v>
@@ -4213,7 +4213,7 @@
         <v>-0</v>
       </c>
       <c r="L71" t="n">
-        <v>170.2046834433059</v>
+        <v>166.5148131560664</v>
       </c>
       <c r="M71" t="n">
         <v>-0</v>
@@ -4266,7 +4266,7 @@
         <v>-0</v>
       </c>
       <c r="L72" t="n">
-        <v>173.5607249129711</v>
+        <v>169.7980989444475</v>
       </c>
       <c r="M72" t="n">
         <v>-0</v>
@@ -4319,7 +4319,7 @@
         <v>-0</v>
       </c>
       <c r="L73" t="n">
-        <v>174.6074489742979</v>
+        <v>170.8221310566769</v>
       </c>
       <c r="M73" t="n">
         <v>-0</v>
@@ -4372,7 +4372,7 @@
         <v>-0</v>
       </c>
       <c r="L74" t="n">
-        <v>189.5542462374786</v>
+        <v>185.4448964425024</v>
       </c>
       <c r="M74" t="n">
         <v>-0</v>
@@ -4425,10 +4425,10 @@
         <v>-2.0649428700967</v>
       </c>
       <c r="L75" t="n">
-        <v>184.8796809003712</v>
+        <v>181.6155652754547</v>
       </c>
       <c r="M75" t="n">
-        <v>-2.466083155558035</v>
+        <v>-2.064942870096703</v>
       </c>
       <c r="N75" t="n">
         <v>176.8952191143112</v>
@@ -4478,10 +4478,10 @@
         <v>-1.093405398910768</v>
       </c>
       <c r="L76" t="n">
-        <v>187.7813540583704</v>
+        <v>183.4172319327955</v>
       </c>
       <c r="M76" t="n">
-        <v>-0.9352954176964875</v>
+        <v>-1.093405398910775</v>
       </c>
       <c r="N76" t="n">
         <v>172.0464401430189</v>
@@ -4531,10 +4531,10 @@
         <v>-0.6989633829407765</v>
       </c>
       <c r="L77" t="n">
-        <v>190.7504452928166</v>
+        <v>184.1487045208368</v>
       </c>
       <c r="M77" t="n">
-        <v>-0</v>
+        <v>-0.6989633829407829</v>
       </c>
       <c r="N77" t="n">
         <v>172.5802947056161</v>
@@ -4584,7 +4584,7 @@
         <v>-0</v>
       </c>
       <c r="L78" t="n">
-        <v>194.2493744552548</v>
+        <v>186.0856273401055</v>
       </c>
       <c r="M78" t="n">
         <v>-0</v>
@@ -4637,10 +4637,10 @@
         <v>-0.3816943100769302</v>
       </c>
       <c r="L79" t="n">
-        <v>192.1546949062967</v>
+        <v>185.3753490886774</v>
       </c>
       <c r="M79" t="n">
-        <v>-1.078345582750159</v>
+        <v>-0.3816943100769359</v>
       </c>
       <c r="N79" t="n">
         <v>173.3405755024429</v>
@@ -4690,10 +4690,10 @@
         <v>-1.843335443216215</v>
       </c>
       <c r="L80" t="n">
-        <v>188.6978507748335</v>
+        <v>182.6554450166141</v>
       </c>
       <c r="M80" t="n">
-        <v>-2.857936452042515</v>
+        <v>-1.843335443216219</v>
       </c>
       <c r="N80" t="n">
         <v>179.7622645483457</v>
@@ -4743,7 +4743,7 @@
         <v>-0</v>
       </c>
       <c r="L81" t="n">
-        <v>199.605842388102</v>
+        <v>193.2141453631089</v>
       </c>
       <c r="M81" t="n">
         <v>-0</v>
@@ -4796,7 +4796,7 @@
         <v>-0</v>
       </c>
       <c r="L82" t="n">
-        <v>203.4775354319274</v>
+        <v>194.865658119157</v>
       </c>
       <c r="M82" t="n">
         <v>-0</v>
@@ -4849,10 +4849,10 @@
         <v>-2.323033704519169</v>
       </c>
       <c r="L83" t="n">
-        <v>195.9689629971204</v>
+        <v>190.3388632025159</v>
       </c>
       <c r="M83" t="n">
-        <v>-3.690123540600377</v>
+        <v>-2.323033704519173</v>
       </c>
       <c r="N83" t="n">
         <v>173.7080062224504</v>
@@ -4902,10 +4902,10 @@
         <v>-5.468480191277473</v>
       </c>
       <c r="L84" t="n">
-        <v>189.7797190763863</v>
+        <v>184.2094682053084</v>
       </c>
       <c r="M84" t="n">
-        <v>-6.731856824619197</v>
+        <v>-5.468480191277472</v>
       </c>
       <c r="N84" t="n">
         <v>176.8124977350382</v>
@@ -4955,10 +4955,10 @@
         <v>-5.410887272621899</v>
       </c>
       <c r="L85" t="n">
-        <v>190.0109640187158</v>
+        <v>184.3216970252766</v>
       </c>
       <c r="M85" t="n">
-        <v>-6.618210400782439</v>
+        <v>-5.410887272621896</v>
       </c>
       <c r="N85" t="n">
         <v>187.1623052578114</v>
@@ -5008,10 +5008,10 @@
         <v>-5.030591661560448</v>
       </c>
       <c r="L86" t="n">
-        <v>190.9038731615038</v>
+        <v>185.0627625705698</v>
       </c>
       <c r="M86" t="n">
-        <v>-6.179385966973268</v>
+        <v>-5.030591661560447</v>
       </c>
       <c r="N86" t="n">
         <v>187.8708449075773</v>
@@ -5061,10 +5061,10 @@
         <v>-3.453042550193064</v>
       </c>
       <c r="L87" t="n">
-        <v>190.1728045039387</v>
+        <v>184.3540625156301</v>
       </c>
       <c r="M87" t="n">
-        <v>-6.538673126616358</v>
+        <v>-5.394278142688048</v>
       </c>
       <c r="N87" t="n">
         <v>193.960882662818</v>
@@ -5114,10 +5114,10 @@
         <v>-0.8899711660782468</v>
       </c>
       <c r="L88" t="n">
-        <v>197.6363010280573</v>
+        <v>191.5891974676629</v>
       </c>
       <c r="M88" t="n">
-        <v>-2.87070235614498</v>
+        <v>-1.681394599293915</v>
       </c>
       <c r="N88" t="n">
         <v>197.471674517971</v>
@@ -5167,7 +5167,7 @@
         <v>-0</v>
       </c>
       <c r="L89" t="n">
-        <v>208.5048634383336</v>
+        <v>202.125213062877</v>
       </c>
       <c r="M89" t="n">
         <v>-0</v>
@@ -5220,10 +5220,10 @@
         <v>-5.886455862040845</v>
       </c>
       <c r="L90" t="n">
-        <v>191.3549651213243</v>
+        <v>185.5000524111333</v>
       </c>
       <c r="M90" t="n">
-        <v>-8.225179036210584</v>
+        <v>-8.22517903621058</v>
       </c>
       <c r="N90" t="n">
         <v>192.4313759795218</v>
@@ -5273,10 +5273,10 @@
         <v>-4.188011857574327</v>
       </c>
       <c r="L91" t="n">
-        <v>193.3433731370647</v>
+        <v>188.8477262739311</v>
       </c>
       <c r="M91" t="n">
-        <v>-7.271528371688561</v>
+        <v>-6.568941394172115</v>
       </c>
       <c r="N91" t="n">
         <v>194.2596845880033</v>
@@ -5326,10 +5326,10 @@
         <v>-4.303868731280575</v>
       </c>
       <c r="L92" t="n">
-        <v>197.8575501250519</v>
+        <v>193.256938994013</v>
       </c>
       <c r="M92" t="n">
-        <v>-5.106505976744625</v>
+        <v>-4.387515013332489</v>
       </c>
       <c r="N92" t="n">
         <v>197.1967862038142</v>
@@ -5379,7 +5379,7 @@
         <v>-0</v>
       </c>
       <c r="L93" t="n">
-        <v>214.9948313981518</v>
+        <v>205.4236097931713</v>
       </c>
       <c r="M93" t="n">
         <v>-0</v>
@@ -5432,10 +5432,10 @@
         <v>-1.540630899196751</v>
       </c>
       <c r="L94" t="n">
-        <v>210.6120215914439</v>
+        <v>202.2587901864524</v>
       </c>
       <c r="M94" t="n">
-        <v>-2.038565196291323</v>
+        <v>-1.540630899196756</v>
       </c>
       <c r="N94" t="n">
         <v>197.6678068571279</v>
@@ -5485,10 +5485,10 @@
         <v>-1.698224528909313</v>
       </c>
       <c r="L95" t="n">
-        <v>209.3615048542446</v>
+        <v>201.9350556634927</v>
       </c>
       <c r="M95" t="n">
-        <v>-2.620214870875091</v>
+        <v>-1.698224528909324</v>
       </c>
       <c r="N95" t="n">
         <v>202.0372096951763</v>
@@ -5538,7 +5538,7 @@
         <v>-1.362485532623693</v>
       </c>
       <c r="L96" t="n">
-        <v>217.8813080102966</v>
+        <v>210.1526452617196</v>
       </c>
       <c r="M96" t="n">
         <v>-0</v>
@@ -5591,7 +5591,7 @@
         <v>-0</v>
       </c>
       <c r="L97" t="n">
-        <v>226.3489625735552</v>
+        <v>218.3199360765295</v>
       </c>
       <c r="M97" t="n">
         <v>-0</v>
@@ -5644,7 +5644,7 @@
         <v>-3.325840488064216</v>
       </c>
       <c r="L98" t="n">
-        <v>233.226406757837</v>
+        <v>224.9534242869928</v>
       </c>
       <c r="M98" t="n">
         <v>-0</v>
@@ -5697,7 +5697,7 @@
         <v>-0</v>
       </c>
       <c r="L99" t="n">
-        <v>244.37799758199</v>
+        <v>232.9614075581985</v>
       </c>
       <c r="M99" t="n">
         <v>-0</v>
@@ -5750,7 +5750,7 @@
         <v>-0</v>
       </c>
       <c r="L100" t="n">
-        <v>249.6251539450168</v>
+        <v>235.9025121245599</v>
       </c>
       <c r="M100" t="n">
         <v>-0</v>
@@ -5803,7 +5803,7 @@
         <v>-0</v>
       </c>
       <c r="L101" t="n">
-        <v>251.8827441854056</v>
+        <v>239.4589905514713</v>
       </c>
       <c r="M101" t="n">
         <v>-0</v>
@@ -5856,10 +5856,10 @@
         <v>-0</v>
       </c>
       <c r="L102" t="n">
-        <v>249.1990723804732</v>
+        <v>240.277786158767</v>
       </c>
       <c r="M102" t="n">
-        <v>-1.065444881351977</v>
+        <v>-0</v>
       </c>
       <c r="N102" t="n">
         <v>201.9234368983388</v>
@@ -5909,10 +5909,10 @@
         <v>-0</v>
       </c>
       <c r="L103" t="n">
-        <v>249.793758479754</v>
+        <v>242.2856287226896</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.8293484781608894</v>
+        <v>-0</v>
       </c>
       <c r="N103" t="n">
         <v>205.5044281030991</v>
@@ -5962,7 +5962,7 @@
         <v>-0</v>
       </c>
       <c r="L104" t="n">
-        <v>268.1449285245648</v>
+        <v>260.0852118634522</v>
       </c>
       <c r="M104" t="n">
         <v>-0</v>
@@ -6015,7 +6015,7 @@
         <v>-0</v>
       </c>
       <c r="L105" t="n">
-        <v>297.4926851381845</v>
+        <v>288.5508537033689</v>
       </c>
       <c r="M105" t="n">
         <v>-0</v>
@@ -6068,10 +6068,10 @@
         <v>-2.541036530997581</v>
       </c>
       <c r="L106" t="n">
-        <v>280.3016954898034</v>
+        <v>271.8765790510626</v>
       </c>
       <c r="M106" t="n">
-        <v>-5.778625998953884</v>
+        <v>-5.778625998953886</v>
       </c>
       <c r="N106" t="n">
         <v>224.0785970456989</v>
@@ -6121,10 +6121,10 @@
         <v>-3.779925869765134</v>
       </c>
       <c r="L107" t="n">
-        <v>271.7667333063318</v>
+        <v>263.5981549169608</v>
       </c>
       <c r="M107" t="n">
-        <v>-8.64759139200452</v>
+        <v>-8.647591392004514</v>
       </c>
       <c r="N107" t="n">
         <v>217.991927345708</v>
@@ -6174,10 +6174,10 @@
         <v>-1.649377891150156</v>
       </c>
       <c r="L108" t="n">
-        <v>278.1979902056748</v>
+        <v>269.4348633294364</v>
       </c>
       <c r="M108" t="n">
-        <v>-6.485771212676153</v>
+        <v>-6.624825443623103</v>
       </c>
       <c r="N108" t="n">
         <v>246.4885818554723</v>
@@ -6227,10 +6227,10 @@
         <v>-0</v>
       </c>
       <c r="L109" t="n">
-        <v>293.8606074230555</v>
+        <v>284.6041142870953</v>
       </c>
       <c r="M109" t="n">
-        <v>-1.220896477989698</v>
+        <v>-1.367779497312043</v>
       </c>
       <c r="N109" t="n">
         <v>263.535421948759</v>
@@ -6280,10 +6280,10 @@
         <v>-0</v>
       </c>
       <c r="L110" t="n">
-        <v>294.6286542883894</v>
+        <v>285.3479679793483</v>
       </c>
       <c r="M110" t="n">
-        <v>-0.9627231165246318</v>
+        <v>-1.109990035695101</v>
       </c>
       <c r="N110" t="n">
         <v>261.8483340151807</v>
@@ -6333,10 +6333,10 @@
         <v>-1.8328503320575</v>
       </c>
       <c r="L111" t="n">
-        <v>289.0910871679495</v>
+        <v>280.1179668007195</v>
       </c>
       <c r="M111" t="n">
-        <v>-2.824135983825134</v>
+        <v>-2.922495911697559</v>
       </c>
       <c r="N111" t="n">
         <v>272.3170866217219</v>
@@ -6386,10 +6386,10 @@
         <v>-2.637022024647</v>
       </c>
       <c r="L112" t="n">
-        <v>287.8944193348944</v>
+        <v>277.8232792168502</v>
       </c>
       <c r="M112" t="n">
-        <v>-3.226387162706809</v>
+        <v>-3.717741378629439</v>
       </c>
       <c r="N112" t="n">
         <v>277.6595772258372</v>
@@ -6439,10 +6439,10 @@
         <v>-0</v>
       </c>
       <c r="L113" t="n">
-        <v>298.1492704586844</v>
+        <v>287.3613906470618</v>
       </c>
       <c r="M113" t="n">
-        <v>-0</v>
+        <v>-0.4122195588892159</v>
       </c>
       <c r="N113" t="n">
         <v>289.5126670238375</v>
@@ -6492,7 +6492,7 @@
         <v>-0</v>
       </c>
       <c r="L114" t="n">
-        <v>304.013310786295</v>
+        <v>292.628878978444</v>
       </c>
       <c r="M114" t="n">
         <v>-0</v>
@@ -6545,7 +6545,7 @@
         <v>-0</v>
       </c>
       <c r="L115" t="n">
-        <v>309.02343469478</v>
+        <v>298.9016388739367</v>
       </c>
       <c r="M115" t="n">
         <v>-0</v>
@@ -6598,7 +6598,7 @@
         <v>-0</v>
       </c>
       <c r="L116" t="n">
-        <v>317.8644395077563</v>
+        <v>307.4530642067795</v>
       </c>
       <c r="M116" t="n">
         <v>-0</v>
@@ -6651,10 +6651,10 @@
         <v>-0.7163656472996118</v>
       </c>
       <c r="L117" t="n">
-        <v>317.1522356152745</v>
+        <v>305.2505760732321</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.2240590025058322</v>
+        <v>-0.7163656472996154</v>
       </c>
       <c r="N117" t="n">
         <v>312.6323304640996</v>
@@ -6704,10 +6704,10 @@
         <v>-4.289128387884235</v>
       </c>
       <c r="L118" t="n">
-        <v>299.127975296364</v>
+        <v>287.9027057832194</v>
       </c>
       <c r="M118" t="n">
-        <v>-5.894482641848053</v>
+        <v>-6.358810725793047</v>
       </c>
       <c r="N118" t="n">
         <v>298.0619532648919</v>
@@ -6757,10 +6757,10 @@
         <v>-1.916017828056659</v>
       </c>
       <c r="L119" t="n">
-        <v>311.7962531123893</v>
+        <v>295.0411315418518</v>
       </c>
       <c r="M119" t="n">
-        <v>-1.909048525454508</v>
+        <v>-4.037017063710224</v>
       </c>
       <c r="N119" t="n">
         <v>318.9750240997905</v>
@@ -6810,10 +6810,10 @@
         <v>-4.535624749049967</v>
       </c>
       <c r="L120" t="n">
-        <v>304.4911724661843</v>
+        <v>287.1612333867195</v>
       </c>
       <c r="M120" t="n">
-        <v>-4.207223388146795</v>
+        <v>-6.599976771222749</v>
       </c>
       <c r="N120" t="n">
         <v>316.4121220360583</v>
@@ -6863,10 +6863,10 @@
         <v>-2.924618534125561</v>
       </c>
       <c r="L121" t="n">
-        <v>312.0825460921681</v>
+        <v>292.0072142089399</v>
       </c>
       <c r="M121" t="n">
-        <v>-1.818980891521565</v>
+        <v>-5.023807467227373</v>
       </c>
       <c r="N121" t="n">
         <v>331.0455007820804</v>
@@ -6916,10 +6916,10 @@
         <v>-2.199304182487271</v>
       </c>
       <c r="L122" t="n">
-        <v>316.0091545948667</v>
+        <v>294.1889931527818</v>
       </c>
       <c r="M122" t="n">
-        <v>-0.5836717425084582</v>
+        <v>-4.314177543885808</v>
       </c>
       <c r="N122" t="n">
         <v>313.5857237488668</v>
@@ -6969,10 +6969,10 @@
         <v>-0</v>
       </c>
       <c r="L123" t="n">
-        <v>330.5356187319612</v>
+        <v>301.3702487390015</v>
       </c>
       <c r="M123" t="n">
-        <v>-0</v>
+        <v>-1.978453356277819</v>
       </c>
       <c r="N123" t="n">
         <v>308.4648051330849</v>
@@ -7022,7 +7022,7 @@
         <v>-0</v>
       </c>
       <c r="L124" t="n">
-        <v>348.686269463006</v>
+        <v>308.702750514896</v>
       </c>
       <c r="M124" t="n">
         <v>-0</v>
@@ -7075,7 +7075,7 @@
         <v>-0</v>
       </c>
       <c r="L125" t="n">
-        <v>359.2614773309421</v>
+        <v>312.2608399244181</v>
       </c>
       <c r="M125" t="n">
         <v>-0</v>
@@ -7128,7 +7128,7 @@
         <v>-0</v>
       </c>
       <c r="L126" t="n">
-        <v>370.3103099753376</v>
+        <v>317.0625205657093</v>
       </c>
       <c r="M126" t="n">
         <v>-0</v>
@@ -7181,10 +7181,10 @@
         <v>-2.474111821725694</v>
       </c>
       <c r="L127" t="n">
-        <v>351.89066147853</v>
+        <v>309.2180392621316</v>
       </c>
       <c r="M127" t="n">
-        <v>-4.974111711346728</v>
+        <v>-2.474111821725705</v>
       </c>
       <c r="N127" t="n">
         <v>256.7609227774375</v>
@@ -7234,10 +7234,10 @@
         <v>-3.10912855075805</v>
       </c>
       <c r="L128" t="n">
-        <v>347.265804835557</v>
+        <v>307.2046392150477</v>
       </c>
       <c r="M128" t="n">
-        <v>-6.223025532644595</v>
+        <v>-3.10912855075806</v>
       </c>
       <c r="N128" t="n">
         <v>263.0028280967178</v>
@@ -7287,10 +7287,10 @@
         <v>-3.528980076004838</v>
       </c>
       <c r="L129" t="n">
-        <v>344.0319986350503</v>
+        <v>305.8734473864666</v>
       </c>
       <c r="M129" t="n">
-        <v>-7.096294818806818</v>
+        <v>-3.528980076004846</v>
       </c>
       <c r="N129" t="n">
         <v>252.2717893830494</v>
@@ -7340,10 +7340,10 @@
         <v>-5.725486627999516</v>
       </c>
       <c r="L130" t="n">
-        <v>328.1286697013708</v>
+        <v>298.9091483483214</v>
       </c>
       <c r="M130" t="n">
-        <v>-11.39089005563363</v>
+        <v>-5.725486627999511</v>
       </c>
       <c r="N130" t="n">
         <v>231.4969406132311</v>
@@ -7393,10 +7393,10 @@
         <v>-4.085357977091472</v>
       </c>
       <c r="L131" t="n">
-        <v>339.3723917258973</v>
+        <v>304.1093815894108</v>
       </c>
       <c r="M131" t="n">
-        <v>-8.354592733726692</v>
+        <v>-4.085357977091462</v>
       </c>
       <c r="N131" t="n">
         <v>217.6894946829434</v>
@@ -7446,10 +7446,10 @@
         <v>-3.235150864748869</v>
       </c>
       <c r="L132" t="n">
-        <v>345.3078335301636</v>
+        <v>306.8050696898332</v>
       </c>
       <c r="M132" t="n">
-        <v>-6.751763526875376</v>
+        <v>-3.235150864748856</v>
       </c>
       <c r="N132" t="n">
         <v>217.385230995857</v>

--- a/Report/AA/df_ALL.xlsx
+++ b/Report/AA/df_ALL.xlsx
@@ -579,49 +579,49 @@
         <v>40968</v>
       </c>
       <c r="B3" t="n">
-        <v>101.6203386245525</v>
+        <v>101.6203525244303</v>
       </c>
       <c r="C3" t="n">
         <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>99.65946683842898</v>
+        <v>99.6594471216838</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3405331615710168</v>
+        <v>-0.3405528783162026</v>
       </c>
       <c r="F3" t="n">
-        <v>101.2158329012345</v>
+        <v>101.2158190410988</v>
       </c>
       <c r="G3" t="n">
         <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.2718757886009</v>
+        <v>105.2718971322197</v>
       </c>
       <c r="I3" t="n">
         <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>102.4126273675003</v>
+        <v>102.412619209152</v>
       </c>
       <c r="K3" t="n">
         <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>106.4100655660814</v>
+        <v>106.4100424037186</v>
       </c>
       <c r="M3" t="n">
         <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>104.3405568114629</v>
+        <v>104.3405419582971</v>
       </c>
       <c r="O3" t="n">
         <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>104.3405568114629</v>
+        <v>104.3405419582971</v>
       </c>
       <c r="Q3" t="n">
         <v>-0</v>
@@ -632,49 +632,49 @@
         <v>40999</v>
       </c>
       <c r="B4" t="n">
-        <v>102.5114430393801</v>
+        <v>102.5114748498651</v>
       </c>
       <c r="C4" t="n">
         <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>99.1273175680341</v>
+        <v>99.12730183114491</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.8726824319658988</v>
+        <v>-0.8726981688550951</v>
       </c>
       <c r="F4" t="n">
-        <v>102.6671203318119</v>
+        <v>102.667141388907</v>
       </c>
       <c r="G4" t="n">
         <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>101.9947659432568</v>
+        <v>101.9947654938071</v>
       </c>
       <c r="I4" t="n">
-        <v>-3.112996534729706</v>
+        <v>-3.113016605273665</v>
       </c>
       <c r="J4" t="n">
-        <v>103.2093197090535</v>
+        <v>103.2093128683493</v>
       </c>
       <c r="K4" t="n">
         <v>-0</v>
       </c>
       <c r="L4" t="n">
-        <v>111.7870227513479</v>
+        <v>111.787018640295</v>
       </c>
       <c r="M4" t="n">
         <v>-0</v>
       </c>
       <c r="N4" t="n">
-        <v>107.6965377598214</v>
+        <v>107.6965508994737</v>
       </c>
       <c r="O4" t="n">
         <v>-0</v>
       </c>
       <c r="P4" t="n">
-        <v>107.6965377598214</v>
+        <v>107.6965508994737</v>
       </c>
       <c r="Q4" t="n">
         <v>-0</v>
@@ -685,52 +685,52 @@
         <v>41029</v>
       </c>
       <c r="B5" t="n">
-        <v>103.3730077564115</v>
+        <v>103.3730283066826</v>
       </c>
       <c r="C5" t="n">
         <v>-0</v>
       </c>
       <c r="D5" t="n">
-        <v>100.0897572106253</v>
+        <v>100.0897324957955</v>
       </c>
       <c r="E5" t="n">
         <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>102.5141766813939</v>
+        <v>102.5142187899102</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1489704297965122</v>
+        <v>-0.1489498947064148</v>
       </c>
       <c r="H5" t="n">
-        <v>101.3138969392751</v>
+        <v>101.3138494871617</v>
       </c>
       <c r="I5" t="n">
-        <v>-3.759768522861605</v>
+        <v>-3.759833111097814</v>
       </c>
       <c r="J5" t="n">
-        <v>101.9341318554513</v>
+        <v>101.93413397408</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.235535567133755</v>
+        <v>-1.235526968284198</v>
       </c>
       <c r="L5" t="n">
-        <v>110.479684168952</v>
+        <v>110.4796595871963</v>
       </c>
       <c r="M5" t="n">
-        <v>-1.169490474134836</v>
+        <v>-1.169508829379817</v>
       </c>
       <c r="N5" t="n">
-        <v>106.9776064135051</v>
+        <v>106.9775698320344</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.66755288635151</v>
+        <v>-0.6675989727009681</v>
       </c>
       <c r="P5" t="n">
-        <v>106.9776064135051</v>
+        <v>106.9775698320344</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.66755288635151</v>
+        <v>-0.6675989727009681</v>
       </c>
     </row>
     <row r="6">
@@ -738,52 +738,52 @@
         <v>41060</v>
       </c>
       <c r="B6" t="n">
-        <v>101.5921503834053</v>
+        <v>101.592185605177</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.722748918366294</v>
+        <v>-1.722734383114236</v>
       </c>
       <c r="D6" t="n">
-        <v>99.18924699125053</v>
+        <v>99.18921991339889</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8997026713530383</v>
+        <v>-0.8997052544170097</v>
       </c>
       <c r="F6" t="n">
-        <v>106.6931679010479</v>
+        <v>106.693199269258</v>
       </c>
       <c r="G6" t="n">
         <v>-0</v>
       </c>
       <c r="H6" t="n">
-        <v>104.2211463855429</v>
+        <v>104.2210880374691</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.9981102694208556</v>
+        <v>-0.9981857678795694</v>
       </c>
       <c r="J6" t="n">
-        <v>106.6371118312218</v>
+        <v>106.6371119030491</v>
       </c>
       <c r="K6" t="n">
         <v>-0</v>
       </c>
       <c r="L6" t="n">
-        <v>115.57693405884</v>
+        <v>115.5769060186097</v>
       </c>
       <c r="M6" t="n">
         <v>-0</v>
       </c>
       <c r="N6" t="n">
-        <v>100.5529907143996</v>
+        <v>100.5529906356798</v>
       </c>
       <c r="O6" t="n">
-        <v>-6.633033144810064</v>
+        <v>-6.633044609257574</v>
       </c>
       <c r="P6" t="n">
-        <v>100.5529907143996</v>
+        <v>100.5529906356798</v>
       </c>
       <c r="Q6" t="n">
-        <v>-6.633033144810064</v>
+        <v>-6.633044609257574</v>
       </c>
     </row>
     <row r="7">
@@ -791,52 +791,52 @@
         <v>41090</v>
       </c>
       <c r="B7" t="n">
-        <v>103.4198359789225</v>
+        <v>103.4198435976939</v>
       </c>
       <c r="C7" t="n">
         <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.2649270963578</v>
+        <v>100.2649320492418</v>
       </c>
       <c r="E7" t="n">
         <v>-0</v>
       </c>
       <c r="F7" t="n">
-        <v>105.8618049047339</v>
+        <v>105.8618386903895</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.7792092152376928</v>
+        <v>-0.7792067203556057</v>
       </c>
       <c r="H7" t="n">
-        <v>103.7893890079758</v>
+        <v>103.789304638605</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.408245810687483</v>
+        <v>-1.408345944172186</v>
       </c>
       <c r="J7" t="n">
-        <v>105.6555583687396</v>
+        <v>105.6555903522655</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.9204614093785174</v>
+        <v>-0.9204314832494542</v>
       </c>
       <c r="L7" t="n">
-        <v>114.5130929826855</v>
+        <v>114.5130997882488</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.9204614093785108</v>
+        <v>-0.9204314832494469</v>
       </c>
       <c r="N7" t="n">
-        <v>98.86545431902366</v>
+        <v>98.86554579803874</v>
       </c>
       <c r="O7" t="n">
-        <v>-8.199969678219666</v>
+        <v>-8.199895936944168</v>
       </c>
       <c r="P7" t="n">
-        <v>104.6335330613968</v>
+        <v>104.6335039312494</v>
       </c>
       <c r="Q7" t="n">
-        <v>-2.844106934296709</v>
+        <v>-2.84414583627981</v>
       </c>
     </row>
     <row r="8">
@@ -844,52 +844,52 @@
         <v>41121</v>
       </c>
       <c r="B8" t="n">
-        <v>104.75473878983</v>
+        <v>104.7547624542051</v>
       </c>
       <c r="C8" t="n">
         <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>101.8218013902144</v>
+        <v>101.821780994944</v>
       </c>
       <c r="E8" t="n">
         <v>-0</v>
       </c>
       <c r="F8" t="n">
-        <v>105.0394520443225</v>
+        <v>105.0394584294213</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.549973526195271</v>
+        <v>-1.549996486339472</v>
       </c>
       <c r="H8" t="n">
-        <v>105.01717476083</v>
+        <v>105.0171036808663</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.2419459384217605</v>
+        <v>-0.2420336844822174</v>
       </c>
       <c r="J8" t="n">
-        <v>107.2736171763326</v>
+        <v>107.2736193946877</v>
       </c>
       <c r="K8" t="n">
         <v>-0</v>
       </c>
       <c r="L8" t="n">
-        <v>115.6553812522232</v>
+        <v>115.6554261047717</v>
       </c>
       <c r="M8" t="n">
         <v>-0</v>
       </c>
       <c r="N8" t="n">
-        <v>100.0349919511705</v>
+        <v>100.0350981220103</v>
       </c>
       <c r="O8" t="n">
-        <v>-7.114013103872721</v>
+        <v>-7.113925853219556</v>
       </c>
       <c r="P8" t="n">
-        <v>105.8713046909582</v>
+        <v>105.8712896198861</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.694792708131181</v>
+        <v>-1.694818695996394</v>
       </c>
     </row>
     <row r="9">
@@ -897,49 +897,49 @@
         <v>41152</v>
       </c>
       <c r="B9" t="n">
-        <v>106.0201264464482</v>
+        <v>106.0201404823073</v>
       </c>
       <c r="C9" t="n">
         <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>103.2692133952225</v>
+        <v>103.2692252771975</v>
       </c>
       <c r="E9" t="n">
         <v>-0</v>
       </c>
       <c r="F9" t="n">
-        <v>104.5067984522871</v>
+        <v>104.5068133175013</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.049212233334826</v>
+        <v>-2.049227098569777</v>
       </c>
       <c r="H9" t="n">
-        <v>104.9607427950705</v>
+        <v>104.9605890076791</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.2955518662507516</v>
+        <v>-0.2957181669763533</v>
       </c>
       <c r="J9" t="n">
-        <v>106.7408306616762</v>
+        <v>106.7408354987529</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4966612748599524</v>
+        <v>-0.4966588234284856</v>
       </c>
       <c r="L9" t="n">
-        <v>115.0809657612518</v>
+        <v>115.0810132262486</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.4966612748599383</v>
+        <v>-0.4966588234284816</v>
       </c>
       <c r="N9" t="n">
-        <v>102.5411228834985</v>
+        <v>102.5412384394635</v>
       </c>
       <c r="O9" t="n">
-        <v>-4.786982927733628</v>
+        <v>-4.786887246577026</v>
       </c>
       <c r="P9" t="n">
-        <v>108.5236500988676</v>
+        <v>108.5236417678647</v>
       </c>
       <c r="Q9" t="n">
         <v>-0</v>
@@ -950,49 +950,49 @@
         <v>41182</v>
       </c>
       <c r="B10" t="n">
-        <v>107.2155140406922</v>
+        <v>107.2155249919533</v>
       </c>
       <c r="C10" t="n">
         <v>-0</v>
       </c>
       <c r="D10" t="n">
-        <v>104.413729944119</v>
+        <v>104.4137365612255</v>
       </c>
       <c r="E10" t="n">
         <v>-0</v>
       </c>
       <c r="F10" t="n">
-        <v>105.7976189142852</v>
+        <v>105.7976228121801</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8393686347313486</v>
+        <v>-0.8393941349698961</v>
       </c>
       <c r="H10" t="n">
-        <v>107.6216418459901</v>
+        <v>107.6214702174568</v>
       </c>
       <c r="I10" t="n">
         <v>-0</v>
       </c>
       <c r="J10" t="n">
-        <v>107.739314313019</v>
+        <v>107.7393062816694</v>
       </c>
       <c r="K10" t="n">
         <v>-0</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1033618861722</v>
+        <v>116.1033527794721</v>
       </c>
       <c r="M10" t="n">
         <v>-0</v>
       </c>
       <c r="N10" t="n">
-        <v>105.1406812449866</v>
+        <v>105.1407861094079</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.373202117727023</v>
+        <v>-2.373116658537573</v>
       </c>
       <c r="P10" t="n">
-        <v>111.2748737455429</v>
+        <v>111.2748507876201</v>
       </c>
       <c r="Q10" t="n">
         <v>-0</v>
@@ -1003,52 +1003,52 @@
         <v>41213</v>
       </c>
       <c r="B11" t="n">
-        <v>105.998679169023</v>
+        <v>105.9987221878338</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.134942906870137</v>
+        <v>-1.134912881516796</v>
       </c>
       <c r="D11" t="n">
-        <v>103.0164597983831</v>
+        <v>103.0164505005911</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.338205374411671</v>
+        <v>-1.338220531754497</v>
       </c>
       <c r="F11" t="n">
-        <v>103.818107466524</v>
+        <v>103.8181313323052</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.694699661734946</v>
+        <v>-2.694705901260973</v>
       </c>
       <c r="H11" t="n">
-        <v>107.1529267711443</v>
+        <v>107.1527680971456</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.4355212081939137</v>
+        <v>-0.4355098656096557</v>
       </c>
       <c r="J11" t="n">
-        <v>105.0787233703451</v>
+        <v>105.0787353693719</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.469470833036892</v>
+        <v>-2.469452425600188</v>
       </c>
       <c r="L11" t="n">
-        <v>115.4632744299874</v>
+        <v>115.4632863781006</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.5513082875346967</v>
+        <v>-0.5512901962333429</v>
       </c>
       <c r="N11" t="n">
-        <v>104.9603254936551</v>
+        <v>104.9604422037471</v>
       </c>
       <c r="O11" t="n">
-        <v>-2.540668737437423</v>
+        <v>-2.540572258697961</v>
       </c>
       <c r="P11" t="n">
-        <v>109.2497773780512</v>
+        <v>109.2498187671469</v>
       </c>
       <c r="Q11" t="n">
-        <v>-1.819904439633461</v>
+        <v>-1.819846988011839</v>
       </c>
     </row>
     <row r="12">
@@ -1056,52 +1056,52 @@
         <v>41243</v>
       </c>
       <c r="B12" t="n">
-        <v>106.8108846056151</v>
+        <v>106.810910047231</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.3773982139595132</v>
+        <v>-0.3773846602464188</v>
       </c>
       <c r="D12" t="n">
-        <v>103.363663950592</v>
+        <v>103.3636719316615</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.005678079012157</v>
+        <v>-1.005676708972363</v>
       </c>
       <c r="F12" t="n">
-        <v>104.5447358511918</v>
+        <v>104.5447348924132</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.013654756083951</v>
+        <v>-2.013684463076944</v>
       </c>
       <c r="H12" t="n">
-        <v>110.0550693619216</v>
+        <v>110.0548891728502</v>
       </c>
       <c r="I12" t="n">
         <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>106.0209735247768</v>
+        <v>106.0209834928379</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.594905999911826</v>
+        <v>-1.594889412355342</v>
       </c>
       <c r="L12" t="n">
-        <v>118.590495463432</v>
+        <v>118.5904891822708</v>
       </c>
       <c r="M12" t="n">
         <v>-0</v>
       </c>
       <c r="N12" t="n">
-        <v>106.354998738506</v>
+        <v>106.3551049531813</v>
       </c>
       <c r="O12" t="n">
-        <v>-1.245665876750155</v>
+        <v>-1.245579301369227</v>
       </c>
       <c r="P12" t="n">
-        <v>109.8681293699189</v>
+        <v>109.8681350828013</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1.264206669729273</v>
+        <v>-1.264181164802105</v>
       </c>
     </row>
     <row r="13">
@@ -1109,52 +1109,52 @@
         <v>41274</v>
       </c>
       <c r="B13" t="n">
-        <v>106.813874968846</v>
+        <v>106.813907463994</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3746090996623833</v>
+        <v>-0.3745889673994925</v>
       </c>
       <c r="D13" t="n">
-        <v>102.3649222660139</v>
+        <v>102.3649062333064</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.96220140703866</v>
+        <v>-1.962222975056294</v>
       </c>
       <c r="F13" t="n">
-        <v>109.2213739404125</v>
+        <v>109.2213999734848</v>
       </c>
       <c r="G13" t="n">
         <v>-0</v>
       </c>
       <c r="H13" t="n">
-        <v>114.7259959307328</v>
+        <v>114.7257911976676</v>
       </c>
       <c r="I13" t="n">
         <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>110.0232763297807</v>
+        <v>110.0232802540121</v>
       </c>
       <c r="K13" t="n">
         <v>-0</v>
       </c>
       <c r="L13" t="n">
-        <v>123.6236802070353</v>
+        <v>123.6236554523815</v>
       </c>
       <c r="M13" t="n">
         <v>-0</v>
       </c>
       <c r="N13" t="n">
-        <v>111.6545450557662</v>
+        <v>111.6546451170283</v>
       </c>
       <c r="O13" t="n">
         <v>-0</v>
       </c>
       <c r="P13" t="n">
-        <v>110.8497656481824</v>
+        <v>110.8497427507749</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.3820342212497898</v>
+        <v>-0.3820342456864146</v>
       </c>
     </row>
     <row r="14">
@@ -1162,49 +1162,49 @@
         <v>41305</v>
       </c>
       <c r="B14" t="n">
-        <v>108.8572120316114</v>
+        <v>108.8571927142718</v>
       </c>
       <c r="C14" t="n">
         <v>-0</v>
       </c>
       <c r="D14" t="n">
-        <v>102.8471863593506</v>
+        <v>102.847190148187</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.500323363226991</v>
+        <v>-1.500325976860223</v>
       </c>
       <c r="F14" t="n">
-        <v>110.3933776130934</v>
+        <v>110.3934023206854</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
       </c>
       <c r="H14" t="n">
-        <v>114.3896610454466</v>
+        <v>114.3894930620131</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2931636222092293</v>
+        <v>-0.2931321127915302</v>
       </c>
       <c r="J14" t="n">
-        <v>108.1888706032947</v>
+        <v>108.188882128641</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.66728876623128</v>
+        <v>-1.667281798121328</v>
       </c>
       <c r="L14" t="n">
-        <v>121.5625164745417</v>
+        <v>121.5625007468517</v>
       </c>
       <c r="M14" t="n">
-        <v>-1.667288766231284</v>
+        <v>-1.667281798121316</v>
       </c>
       <c r="N14" t="n">
-        <v>115.0327942715795</v>
+        <v>115.0329342279175</v>
       </c>
       <c r="O14" t="n">
         <v>-0</v>
       </c>
       <c r="P14" t="n">
-        <v>114.9827681992418</v>
+        <v>114.9827341710189</v>
       </c>
       <c r="Q14" t="n">
         <v>-0</v>
@@ -1215,49 +1215,49 @@
         <v>41333</v>
       </c>
       <c r="B15" t="n">
-        <v>110.1704626904055</v>
+        <v>110.1704774286387</v>
       </c>
       <c r="C15" t="n">
         <v>-0</v>
       </c>
       <c r="D15" t="n">
-        <v>102.3312337269781</v>
+        <v>102.3312635725287</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.994465879396744</v>
+        <v>-1.994443506459215</v>
       </c>
       <c r="F15" t="n">
-        <v>109.7297154025989</v>
+        <v>109.7297154286179</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.6011793685853657</v>
+        <v>-0.6012015918664592</v>
       </c>
       <c r="H15" t="n">
-        <v>114.4587259919344</v>
+        <v>114.4586143097502</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2329637120428601</v>
+        <v>-0.2328830205729966</v>
       </c>
       <c r="J15" t="n">
-        <v>109.0539541747246</v>
+        <v>109.0539930495296</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.8810155336137024</v>
+        <v>-0.8809837356646396</v>
       </c>
       <c r="L15" t="n">
-        <v>122.5345363811864</v>
+        <v>122.5345511544119</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.8810155336137162</v>
+        <v>-0.8809837356646258</v>
       </c>
       <c r="N15" t="n">
-        <v>114.7625256610483</v>
+        <v>114.7626653168625</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.2349491831808732</v>
+        <v>-0.2349491585770783</v>
       </c>
       <c r="P15" t="n">
-        <v>116.4497843503663</v>
+        <v>116.4497641141765</v>
       </c>
       <c r="Q15" t="n">
         <v>-0</v>
@@ -1268,49 +1268,49 @@
         <v>41364</v>
       </c>
       <c r="B16" t="n">
-        <v>112.4823103906956</v>
+        <v>112.4823351443511</v>
       </c>
       <c r="C16" t="n">
         <v>-0</v>
       </c>
       <c r="D16" t="n">
-        <v>103.5683217517927</v>
+        <v>103.5683146353403</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.8096714797744774</v>
+        <v>-0.8096845814817535</v>
       </c>
       <c r="F16" t="n">
-        <v>114.4225573823606</v>
+        <v>114.4225795521156</v>
       </c>
       <c r="G16" t="n">
         <v>-0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.8048696300056</v>
+        <v>118.8047813206651</v>
       </c>
       <c r="I16" t="n">
         <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>112.8715800224657</v>
+        <v>112.8716459006036</v>
       </c>
       <c r="K16" t="n">
         <v>-0</v>
       </c>
       <c r="L16" t="n">
-        <v>123.9951665335136</v>
+        <v>123.9952077188096</v>
       </c>
       <c r="M16" t="n">
         <v>-0</v>
       </c>
       <c r="N16" t="n">
-        <v>116.027834731871</v>
+        <v>116.0279757946391</v>
       </c>
       <c r="O16" t="n">
         <v>-0</v>
       </c>
       <c r="P16" t="n">
-        <v>120.8715310107718</v>
+        <v>120.8715381001187</v>
       </c>
       <c r="Q16" t="n">
         <v>-0</v>
@@ -1321,49 +1321,49 @@
         <v>41394</v>
       </c>
       <c r="B17" t="n">
-        <v>114.4316537658173</v>
+        <v>114.4316604610922</v>
       </c>
       <c r="C17" t="n">
         <v>-0</v>
       </c>
       <c r="D17" t="n">
-        <v>103.6238181558595</v>
+        <v>103.6238033865488</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.756520994587805</v>
+        <v>-0.7565414290230538</v>
       </c>
       <c r="F17" t="n">
-        <v>118.3979583178093</v>
+        <v>118.3979898790481</v>
       </c>
       <c r="G17" t="n">
         <v>-0</v>
       </c>
       <c r="H17" t="n">
-        <v>120.6169325452806</v>
+        <v>120.6168631567202</v>
       </c>
       <c r="I17" t="n">
         <v>-0</v>
       </c>
       <c r="J17" t="n">
-        <v>114.5612173059343</v>
+        <v>114.5612980616904</v>
       </c>
       <c r="K17" t="n">
         <v>-0</v>
       </c>
       <c r="L17" t="n">
-        <v>125.8513189529553</v>
+        <v>125.8513760152389</v>
       </c>
       <c r="M17" t="n">
         <v>-0</v>
       </c>
       <c r="N17" t="n">
-        <v>118.2570333984437</v>
+        <v>118.257122716966</v>
       </c>
       <c r="O17" t="n">
         <v>-0</v>
       </c>
       <c r="P17" t="n">
-        <v>123.1937897720292</v>
+        <v>123.1937402699617</v>
       </c>
       <c r="Q17" t="n">
         <v>-0</v>
@@ -1374,52 +1374,52 @@
         <v>41425</v>
       </c>
       <c r="B18" t="n">
-        <v>114.1662889673572</v>
+        <v>114.1663546370378</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2318980716674454</v>
+        <v>-0.2318465213082984</v>
       </c>
       <c r="D18" t="n">
-        <v>101.2459119821186</v>
+        <v>101.2458798118545</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.033909394574633</v>
+        <v>-3.033946350069938</v>
       </c>
       <c r="F18" t="n">
-        <v>115.1575148841759</v>
+        <v>115.1575376964463</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.736908203210073</v>
+        <v>-2.736914863091962</v>
       </c>
       <c r="H18" t="n">
-        <v>117.029575978657</v>
+        <v>117.0295479747371</v>
       </c>
       <c r="I18" t="n">
-        <v>-2.974173269807683</v>
+        <v>-2.97414066996753</v>
       </c>
       <c r="J18" t="n">
-        <v>111.8630897746471</v>
+        <v>111.863158647457</v>
       </c>
       <c r="K18" t="n">
-        <v>-2.35518406205645</v>
+        <v>-2.355192774422366</v>
       </c>
       <c r="L18" t="n">
-        <v>122.1082826649561</v>
+        <v>122.1083790574559</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.974173269807687</v>
+        <v>-2.974140669967525</v>
       </c>
       <c r="N18" t="n">
-        <v>121.04902985807</v>
+        <v>121.0491219220694</v>
       </c>
       <c r="O18" t="n">
         <v>-0</v>
       </c>
       <c r="P18" t="n">
-        <v>119.474527711191</v>
+        <v>119.4744699008476</v>
       </c>
       <c r="Q18" t="n">
-        <v>-3.019033725418118</v>
+        <v>-3.019041682608099</v>
       </c>
     </row>
     <row r="19">
@@ -1427,52 +1427,52 @@
         <v>41455</v>
       </c>
       <c r="B19" t="n">
-        <v>112.0054658221052</v>
+        <v>112.0055364466515</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.120207009047722</v>
+        <v>-2.120151018227644</v>
       </c>
       <c r="D19" t="n">
-        <v>97.80754775520241</v>
+        <v>97.80756244672888</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.326928644778929</v>
+        <v>-6.326920510715474</v>
       </c>
       <c r="F19" t="n">
-        <v>115.1366581145288</v>
+        <v>115.1366554076768</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.754524021880844</v>
+        <v>-2.754552230745601</v>
       </c>
       <c r="H19" t="n">
-        <v>116.9143682042304</v>
+        <v>116.9144209425153</v>
       </c>
       <c r="I19" t="n">
-        <v>-3.069688693716631</v>
+        <v>-3.069589207766297</v>
       </c>
       <c r="J19" t="n">
-        <v>110.6447135738183</v>
+        <v>110.644777786962</v>
       </c>
       <c r="K19" t="n">
-        <v>-3.418699472839059</v>
+        <v>-3.418711502919038</v>
       </c>
       <c r="L19" t="n">
-        <v>120.7783191727732</v>
+        <v>120.7784102478093</v>
       </c>
       <c r="M19" t="n">
-        <v>-4.03094685251445</v>
+        <v>-4.030917998715665</v>
       </c>
       <c r="N19" t="n">
-        <v>119.4336391923021</v>
+        <v>119.4338105722794</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.334492864306245</v>
+        <v>-1.334426325562204</v>
       </c>
       <c r="P19" t="n">
-        <v>116.2750556578714</v>
+        <v>116.2750196115051</v>
       </c>
       <c r="Q19" t="n">
-        <v>-5.616138708745771</v>
+        <v>-5.616130043048635</v>
       </c>
     </row>
     <row r="20">
@@ -1480,52 +1480,52 @@
         <v>41486</v>
       </c>
       <c r="B20" t="n">
-        <v>114.9640506147207</v>
+        <v>114.9640564239639</v>
       </c>
       <c r="C20" t="n">
         <v>-0</v>
       </c>
       <c r="D20" t="n">
-        <v>100.2495163291843</v>
+        <v>100.2495050192682</v>
       </c>
       <c r="E20" t="n">
-        <v>-3.988185861345334</v>
+        <v>-3.988202777816975</v>
       </c>
       <c r="F20" t="n">
-        <v>115.1679772930936</v>
+        <v>115.1679660817951</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.728071556813215</v>
+        <v>-2.728106955660837</v>
       </c>
       <c r="H20" t="n">
-        <v>117.1044846898463</v>
+        <v>117.1045144143234</v>
       </c>
       <c r="I20" t="n">
-        <v>-2.912068630261164</v>
+        <v>-2.91198813372647</v>
       </c>
       <c r="J20" t="n">
-        <v>110.6447135738183</v>
+        <v>110.644777786962</v>
       </c>
       <c r="K20" t="n">
-        <v>-3.418699472839059</v>
+        <v>-3.418711502919038</v>
       </c>
       <c r="L20" t="n">
-        <v>120.7783191727732</v>
+        <v>120.7784102478093</v>
       </c>
       <c r="M20" t="n">
-        <v>-4.03094685251445</v>
+        <v>-4.030917998715665</v>
       </c>
       <c r="N20" t="n">
-        <v>125.605685553331</v>
+        <v>125.6057686139891</v>
       </c>
       <c r="O20" t="n">
         <v>-0</v>
       </c>
       <c r="P20" t="n">
-        <v>122.283873935577</v>
+        <v>122.2837414207022</v>
       </c>
       <c r="Q20" t="n">
-        <v>-0.7386052804577204</v>
+        <v>-0.7386729611953915</v>
       </c>
     </row>
     <row r="21">
@@ -1533,52 +1533,52 @@
         <v>41517</v>
       </c>
       <c r="B21" t="n">
-        <v>112.3213044942484</v>
+        <v>112.3213415469826</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.298758704430962</v>
+        <v>-2.298731411525204</v>
       </c>
       <c r="D21" t="n">
-        <v>99.90415592845066</v>
+        <v>99.90415781531428</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.318947343497634</v>
+        <v>-4.318951600076969</v>
       </c>
       <c r="F21" t="n">
-        <v>115.1679772930936</v>
+        <v>115.1679660817951</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.728071556813215</v>
+        <v>-2.728106955660837</v>
       </c>
       <c r="H21" t="n">
-        <v>116.9906733033497</v>
+        <v>116.9907260685228</v>
       </c>
       <c r="I21" t="n">
-        <v>-3.006426349442779</v>
+        <v>-3.006326804806648</v>
       </c>
       <c r="J21" t="n">
-        <v>110.6447135738183</v>
+        <v>110.644777786962</v>
       </c>
       <c r="K21" t="n">
-        <v>-3.418699472839059</v>
+        <v>-3.418711502919038</v>
       </c>
       <c r="L21" t="n">
-        <v>120.7783191727732</v>
+        <v>120.7784102478093</v>
       </c>
       <c r="M21" t="n">
-        <v>-4.03094685251445</v>
+        <v>-4.030917998715665</v>
       </c>
       <c r="N21" t="n">
-        <v>121.8384273183876</v>
+        <v>121.8385606108585</v>
       </c>
       <c r="O21" t="n">
-        <v>-2.99927365417222</v>
+        <v>-2.999231679165877</v>
       </c>
       <c r="P21" t="n">
-        <v>118.6162459213261</v>
+        <v>118.6161687095432</v>
       </c>
       <c r="Q21" t="n">
-        <v>-3.715726141044849</v>
+        <v>-3.715750126903662</v>
       </c>
     </row>
     <row r="22">
@@ -1586,49 +1586,49 @@
         <v>41547</v>
       </c>
       <c r="B22" t="n">
-        <v>115.2120436454482</v>
+        <v>115.2120771395144</v>
       </c>
       <c r="C22" t="n">
         <v>-0</v>
       </c>
       <c r="D22" t="n">
-        <v>100.1755274762502</v>
+        <v>100.1755084203957</v>
       </c>
       <c r="E22" t="n">
-        <v>-4.059047090968835</v>
+        <v>-4.059071421454785</v>
       </c>
       <c r="F22" t="n">
-        <v>115.1784141839407</v>
+        <v>115.1784199852158</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.71925646321246</v>
+        <v>-2.719277495438304</v>
       </c>
       <c r="H22" t="n">
-        <v>117.2517055230988</v>
+        <v>117.251666057052</v>
       </c>
       <c r="I22" t="n">
-        <v>-2.790012107892491</v>
+        <v>-2.789988905030409</v>
       </c>
       <c r="J22" t="n">
-        <v>110.6447135738183</v>
+        <v>110.644777786962</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.418699472839059</v>
+        <v>-3.418711502919038</v>
       </c>
       <c r="L22" t="n">
-        <v>120.7783191727732</v>
+        <v>120.7784102478093</v>
       </c>
       <c r="M22" t="n">
-        <v>-4.03094685251445</v>
+        <v>-4.030917998715665</v>
       </c>
       <c r="N22" t="n">
-        <v>125.6941679702657</v>
+        <v>125.6943320223853</v>
       </c>
       <c r="O22" t="n">
         <v>-0</v>
       </c>
       <c r="P22" t="n">
-        <v>127.8978905329309</v>
+        <v>127.8977865268926</v>
       </c>
       <c r="Q22" t="n">
         <v>-0</v>
@@ -1639,49 +1639,49 @@
         <v>41578</v>
       </c>
       <c r="B23" t="n">
-        <v>118.5713981391959</v>
+        <v>118.5714171093125</v>
       </c>
       <c r="C23" t="n">
         <v>-0</v>
       </c>
       <c r="D23" t="n">
-        <v>101.9926038027857</v>
+        <v>101.9926066742771</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.318781392666535</v>
+        <v>-2.318784832998173</v>
       </c>
       <c r="F23" t="n">
-        <v>118.4830276620039</v>
+        <v>118.4830349213837</v>
       </c>
       <c r="G23" t="n">
         <v>-0</v>
       </c>
       <c r="H23" t="n">
-        <v>121.0139517898342</v>
+        <v>121.0139037093087</v>
       </c>
       <c r="I23" t="n">
         <v>-0</v>
       </c>
       <c r="J23" t="n">
-        <v>114.3841184203117</v>
+        <v>114.3841915813071</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.1545888650516183</v>
+        <v>-0.1545953855095797</v>
       </c>
       <c r="L23" t="n">
-        <v>124.6537236147225</v>
+        <v>124.653810042921</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.9515953811183703</v>
+        <v>-0.9515716158501528</v>
       </c>
       <c r="N23" t="n">
-        <v>130.1859306701576</v>
+        <v>130.1861001471833</v>
       </c>
       <c r="O23" t="n">
         <v>-0</v>
       </c>
       <c r="P23" t="n">
-        <v>132.067593778958</v>
+        <v>132.0674867076815</v>
       </c>
       <c r="Q23" t="n">
         <v>-0</v>
@@ -1692,49 +1692,49 @@
         <v>41608</v>
       </c>
       <c r="B24" t="n">
-        <v>120.1010975049566</v>
+        <v>120.1011122464625</v>
       </c>
       <c r="C24" t="n">
         <v>-0</v>
       </c>
       <c r="D24" t="n">
-        <v>101.3753755967748</v>
+        <v>101.3753594638684</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.909918407253818</v>
+        <v>-2.909940011174121</v>
       </c>
       <c r="F24" t="n">
-        <v>121.8872935429357</v>
+        <v>121.8872890897374</v>
       </c>
       <c r="G24" t="n">
         <v>-0</v>
       </c>
       <c r="H24" t="n">
-        <v>124.6005699770916</v>
+        <v>124.6004693709115</v>
       </c>
       <c r="I24" t="n">
         <v>-0</v>
       </c>
       <c r="J24" t="n">
-        <v>116.7658339676446</v>
+        <v>116.7658971364911</v>
       </c>
       <c r="K24" t="n">
         <v>-0</v>
       </c>
       <c r="L24" t="n">
-        <v>129.0803358609357</v>
+        <v>129.0804382527265</v>
       </c>
       <c r="M24" t="n">
         <v>-0</v>
       </c>
       <c r="N24" t="n">
-        <v>129.5153770462362</v>
+        <v>129.5154844856208</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.5150738028830371</v>
+        <v>-0.5151207854021082</v>
       </c>
       <c r="P24" t="n">
-        <v>135.9818204180283</v>
+        <v>135.9816544051205</v>
       </c>
       <c r="Q24" t="n">
         <v>-0</v>
@@ -1745,49 +1745,49 @@
         <v>41639</v>
       </c>
       <c r="B25" t="n">
-        <v>120.8158622055007</v>
+        <v>120.815922560104</v>
       </c>
       <c r="C25" t="n">
         <v>-0</v>
       </c>
       <c r="D25" t="n">
-        <v>101.1571568557653</v>
+        <v>101.1571619582306</v>
       </c>
       <c r="E25" t="n">
-        <v>-3.118912704389177</v>
+        <v>-3.118913957346288</v>
       </c>
       <c r="F25" t="n">
-        <v>123.4017530563758</v>
+        <v>123.4017521201361</v>
       </c>
       <c r="G25" t="n">
         <v>-0</v>
       </c>
       <c r="H25" t="n">
-        <v>127.8310202407201</v>
+        <v>127.8309170261791</v>
       </c>
       <c r="I25" t="n">
         <v>-0</v>
       </c>
       <c r="J25" t="n">
-        <v>116.7658339676446</v>
+        <v>116.7658971364911</v>
       </c>
       <c r="K25" t="n">
         <v>-0</v>
       </c>
       <c r="L25" t="n">
-        <v>129.0803358609357</v>
+        <v>129.0804382527265</v>
       </c>
       <c r="M25" t="n">
         <v>-0</v>
       </c>
       <c r="N25" t="n">
-        <v>132.8732508023505</v>
+        <v>132.8733610272567</v>
       </c>
       <c r="O25" t="n">
         <v>-0</v>
       </c>
       <c r="P25" t="n">
-        <v>139.5073460853577</v>
+        <v>139.5071757683248</v>
       </c>
       <c r="Q25" t="n">
         <v>-0</v>
@@ -1798,52 +1798,52 @@
         <v>41670</v>
       </c>
       <c r="B26" t="n">
-        <v>120.5370948387777</v>
+        <v>120.5371099919274</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2307373896391245</v>
+        <v>-0.2307746878627807</v>
       </c>
       <c r="D26" t="n">
-        <v>101.9038744560688</v>
+        <v>101.9038744650039</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.403760012589705</v>
+        <v>-2.403766189087493</v>
       </c>
       <c r="F26" t="n">
-        <v>121.3920637024649</v>
+        <v>121.392042088131</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.628574395529665</v>
+        <v>-1.628591164612164</v>
       </c>
       <c r="H26" t="n">
-        <v>130.2378206332612</v>
+        <v>130.237772277182</v>
       </c>
       <c r="I26" t="n">
         <v>-0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.7658339676446</v>
+        <v>116.7658971364911</v>
       </c>
       <c r="K26" t="n">
         <v>-0</v>
       </c>
       <c r="L26" t="n">
-        <v>129.0803358609357</v>
+        <v>129.0804382527265</v>
       </c>
       <c r="M26" t="n">
         <v>-0</v>
       </c>
       <c r="N26" t="n">
-        <v>128.1897105048134</v>
+        <v>128.1898039476382</v>
       </c>
       <c r="O26" t="n">
-        <v>-3.524818027146672</v>
+        <v>-3.524827733271421</v>
       </c>
       <c r="P26" t="n">
-        <v>134.5899660013471</v>
+        <v>134.5897881469392</v>
       </c>
       <c r="Q26" t="n">
-        <v>-3.524818027146678</v>
+        <v>-3.524827733271426</v>
       </c>
     </row>
     <row r="27">
@@ -1851,49 +1851,49 @@
         <v>41698</v>
       </c>
       <c r="B27" t="n">
-        <v>123.4122260577886</v>
+        <v>123.4122330254483</v>
       </c>
       <c r="C27" t="n">
         <v>-0</v>
       </c>
       <c r="D27" t="n">
-        <v>104.7595503432551</v>
+        <v>104.7595448004468</v>
       </c>
       <c r="E27" t="n">
         <v>-0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.4839560959344</v>
+        <v>123.4839223617179</v>
       </c>
       <c r="G27" t="n">
         <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>130.7033650152937</v>
+        <v>130.7032598557989</v>
       </c>
       <c r="I27" t="n">
         <v>-0</v>
       </c>
       <c r="J27" t="n">
-        <v>117.3942622503442</v>
+        <v>117.3942937411906</v>
       </c>
       <c r="K27" t="n">
         <v>-0</v>
       </c>
       <c r="L27" t="n">
-        <v>129.775040219557</v>
+        <v>129.7751077677161</v>
       </c>
       <c r="M27" t="n">
         <v>-0</v>
       </c>
       <c r="N27" t="n">
-        <v>137.3816731876306</v>
+        <v>137.3818733827096</v>
       </c>
       <c r="O27" t="n">
         <v>-0</v>
       </c>
       <c r="P27" t="n">
-        <v>140.7158992739173</v>
+        <v>140.7157545629077</v>
       </c>
       <c r="Q27" t="n">
         <v>-0</v>
@@ -1904,49 +1904,49 @@
         <v>41729</v>
       </c>
       <c r="B28" t="n">
-        <v>123.5671175080689</v>
+        <v>123.5671347194619</v>
       </c>
       <c r="C28" t="n">
         <v>-0</v>
       </c>
       <c r="D28" t="n">
-        <v>104.6209229862388</v>
+        <v>104.6209303583316</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1323290874789723</v>
+        <v>-0.1323167663425917</v>
       </c>
       <c r="F28" t="n">
-        <v>122.3682382455024</v>
+        <v>122.3682246688504</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.9035326415726679</v>
+        <v>-0.9035165643663922</v>
       </c>
       <c r="H28" t="n">
-        <v>131.7876141297468</v>
+        <v>131.7874827347085</v>
       </c>
       <c r="I28" t="n">
         <v>-0</v>
       </c>
       <c r="J28" t="n">
-        <v>116.8334923967026</v>
+        <v>116.8335165650046</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.4776808021891936</v>
+        <v>-0.4776869116162014</v>
       </c>
       <c r="L28" t="n">
-        <v>126.2275342169819</v>
+        <v>126.2276002410507</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.733581123591507</v>
+        <v>-2.733580875166836</v>
       </c>
       <c r="N28" t="n">
-        <v>136.61467762111</v>
+        <v>136.6147796065512</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.5582954034000518</v>
+        <v>-0.5583660764484089</v>
       </c>
       <c r="P28" t="n">
-        <v>141.8832073165171</v>
+        <v>141.8830340989228</v>
       </c>
       <c r="Q28" t="n">
         <v>-0</v>
@@ -1957,49 +1957,49 @@
         <v>41759</v>
       </c>
       <c r="B29" t="n">
-        <v>124.4653328562846</v>
+        <v>124.4653609996691</v>
       </c>
       <c r="C29" t="n">
         <v>-0</v>
       </c>
       <c r="D29" t="n">
-        <v>105.4991212397655</v>
+        <v>105.4991192421243</v>
       </c>
       <c r="E29" t="n">
         <v>-0</v>
       </c>
       <c r="F29" t="n">
-        <v>124.6668767446439</v>
+        <v>124.6668289113844</v>
       </c>
       <c r="G29" t="n">
         <v>-0</v>
       </c>
       <c r="H29" t="n">
-        <v>132.7037428141548</v>
+        <v>132.7036105057169</v>
       </c>
       <c r="I29" t="n">
         <v>-0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.8467438517362</v>
+        <v>117.8467421830604</v>
       </c>
       <c r="K29" t="n">
         <v>-0</v>
       </c>
       <c r="L29" t="n">
-        <v>127.3473539265544</v>
+        <v>127.3473450565968</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.870688145343907</v>
+        <v>-1.870746056681938</v>
       </c>
       <c r="N29" t="n">
-        <v>137.5643618968768</v>
+        <v>137.5644645912754</v>
       </c>
       <c r="O29" t="n">
         <v>-0</v>
       </c>
       <c r="P29" t="n">
-        <v>142.8695160596931</v>
+        <v>142.8693416379674</v>
       </c>
       <c r="Q29" t="n">
         <v>-0</v>
@@ -2010,49 +2010,49 @@
         <v>41790</v>
       </c>
       <c r="B30" t="n">
-        <v>127.043687150324</v>
+        <v>127.043710805385</v>
       </c>
       <c r="C30" t="n">
         <v>-0</v>
       </c>
       <c r="D30" t="n">
-        <v>106.5770556200256</v>
+        <v>106.5770675747383</v>
       </c>
       <c r="E30" t="n">
         <v>-0</v>
       </c>
       <c r="F30" t="n">
-        <v>126.2208793062659</v>
+        <v>126.2208399341948</v>
       </c>
       <c r="G30" t="n">
         <v>-0</v>
       </c>
       <c r="H30" t="n">
-        <v>135.7833262403404</v>
+        <v>135.7832034387548</v>
       </c>
       <c r="I30" t="n">
         <v>-0</v>
       </c>
       <c r="J30" t="n">
-        <v>120.2864127585705</v>
+        <v>120.2864313184385</v>
       </c>
       <c r="K30" t="n">
         <v>-0</v>
       </c>
       <c r="L30" t="n">
-        <v>129.5953793730799</v>
+        <v>129.5953248017954</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.1384402163722215</v>
+        <v>-0.138534245136233</v>
       </c>
       <c r="N30" t="n">
-        <v>139.3993918452965</v>
+        <v>139.3994837697569</v>
       </c>
       <c r="O30" t="n">
         <v>-0</v>
       </c>
       <c r="P30" t="n">
-        <v>146.1850110444936</v>
+        <v>146.1848461157985</v>
       </c>
       <c r="Q30" t="n">
         <v>-0</v>
@@ -2063,49 +2063,49 @@
         <v>41820</v>
       </c>
       <c r="B31" t="n">
-        <v>128.2123115582085</v>
+        <v>128.2123241695437</v>
       </c>
       <c r="C31" t="n">
         <v>-0</v>
       </c>
       <c r="D31" t="n">
-        <v>108.4107315740023</v>
+        <v>108.4107154705668</v>
       </c>
       <c r="E31" t="n">
         <v>-0</v>
       </c>
       <c r="F31" t="n">
-        <v>128.4864729448681</v>
+        <v>128.4864000293155</v>
       </c>
       <c r="G31" t="n">
         <v>-0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5865869427967</v>
+        <v>138.5864361917766</v>
       </c>
       <c r="I31" t="n">
         <v>-0</v>
       </c>
       <c r="J31" t="n">
-        <v>121.9672851920079</v>
+        <v>121.9672768050125</v>
       </c>
       <c r="K31" t="n">
         <v>-0</v>
       </c>
       <c r="L31" t="n">
-        <v>133.6437541450694</v>
+        <v>133.6436397401924</v>
       </c>
       <c r="M31" t="n">
         <v>-0</v>
       </c>
       <c r="N31" t="n">
-        <v>142.2773065931981</v>
+        <v>142.2773743244158</v>
       </c>
       <c r="O31" t="n">
         <v>-0</v>
       </c>
       <c r="P31" t="n">
-        <v>149.20301559701</v>
+        <v>149.202819902314</v>
       </c>
       <c r="Q31" t="n">
         <v>-0</v>
@@ -2116,52 +2116,52 @@
         <v>41851</v>
       </c>
       <c r="B32" t="n">
-        <v>127.2039431417007</v>
+        <v>127.2039233400281</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.786483298095747</v>
+        <v>-0.7865085014620781</v>
       </c>
       <c r="D32" t="n">
-        <v>107.3445662900052</v>
+        <v>107.3445624072896</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.9834499486514038</v>
+        <v>-0.9834388221215076</v>
       </c>
       <c r="F32" t="n">
-        <v>125.6481139273399</v>
+        <v>125.6480593552003</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.209072248987691</v>
+        <v>-2.209059226087393</v>
       </c>
       <c r="H32" t="n">
-        <v>136.7242950421524</v>
+        <v>136.7241587251388</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.343774994194009</v>
+        <v>-1.343766040755052</v>
       </c>
       <c r="J32" t="n">
-        <v>119.9141871889111</v>
+        <v>119.9141970870266</v>
       </c>
       <c r="K32" t="n">
-        <v>-1.683318604546068</v>
+        <v>-1.683303728481291</v>
       </c>
       <c r="L32" t="n">
-        <v>135.2233369190753</v>
+        <v>135.2232799779157</v>
       </c>
       <c r="M32" t="n">
         <v>-0</v>
       </c>
       <c r="N32" t="n">
-        <v>137.9767046015317</v>
+        <v>137.9767706515194</v>
       </c>
       <c r="O32" t="n">
-        <v>-3.022690051311385</v>
+        <v>-3.022689794014771</v>
       </c>
       <c r="P32" t="n">
-        <v>147.198062782834</v>
+        <v>147.1978830766178</v>
       </c>
       <c r="Q32" t="n">
-        <v>-1.34377499419401</v>
+        <v>-1.343766040755043</v>
       </c>
     </row>
     <row r="33">
@@ -2169,49 +2169,49 @@
         <v>41882</v>
       </c>
       <c r="B33" t="n">
-        <v>130.9125644735589</v>
+        <v>130.9126069956213</v>
       </c>
       <c r="C33" t="n">
         <v>-0</v>
       </c>
       <c r="D33" t="n">
-        <v>110.1814912885093</v>
+        <v>110.1814899382455</v>
       </c>
       <c r="E33" t="n">
         <v>-0</v>
       </c>
       <c r="F33" t="n">
-        <v>130.8687905807687</v>
+        <v>130.8687272981169</v>
       </c>
       <c r="G33" t="n">
         <v>-0</v>
       </c>
       <c r="H33" t="n">
-        <v>139.4642340156529</v>
+        <v>139.4641646080534</v>
       </c>
       <c r="I33" t="n">
         <v>-0</v>
       </c>
       <c r="J33" t="n">
-        <v>122.8462223846707</v>
+        <v>122.8462559706968</v>
       </c>
       <c r="K33" t="n">
         <v>-0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5296978462454</v>
+        <v>138.5296659519677</v>
       </c>
       <c r="M33" t="n">
         <v>-0</v>
       </c>
       <c r="N33" t="n">
-        <v>143.4217167116109</v>
+        <v>143.4218361381069</v>
       </c>
       <c r="O33" t="n">
         <v>-0</v>
       </c>
       <c r="P33" t="n">
-        <v>153.0069798514609</v>
+        <v>153.0068472164116</v>
       </c>
       <c r="Q33" t="n">
         <v>-0</v>
@@ -2222,52 +2222,52 @@
         <v>41912</v>
       </c>
       <c r="B34" t="n">
-        <v>129.3199141837212</v>
+        <v>129.3199649530456</v>
       </c>
       <c r="C34" t="n">
-        <v>-1.216575579465797</v>
+        <v>-1.216568884484094</v>
       </c>
       <c r="D34" t="n">
-        <v>107.9194855463711</v>
+        <v>107.9194800087476</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.052981599436813</v>
+        <v>-2.052985425016257</v>
       </c>
       <c r="F34" t="n">
-        <v>127.1343299724598</v>
+        <v>127.1342676177568</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.853591442036043</v>
+        <v>-2.853592112845278</v>
       </c>
       <c r="H34" t="n">
-        <v>137.1190337543686</v>
+        <v>137.1189428734538</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.681578275488995</v>
+        <v>-1.68159450937851</v>
       </c>
       <c r="J34" t="n">
-        <v>120.8628948654104</v>
+        <v>120.8629547114881</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.614479860072371</v>
+        <v>-1.614458042320568</v>
       </c>
       <c r="L34" t="n">
-        <v>136.2931637742987</v>
+        <v>136.2931626190064</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.614479860072377</v>
+        <v>-1.614458042320559</v>
       </c>
       <c r="N34" t="n">
-        <v>141.4430727114422</v>
+        <v>141.443127728304</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.379598603011608</v>
+        <v>-1.379642363452619</v>
       </c>
       <c r="P34" t="n">
-        <v>150.8960976949199</v>
+        <v>150.8958999332307</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.379598603011607</v>
+        <v>-1.379642363452621</v>
       </c>
     </row>
     <row r="35">
@@ -2275,49 +2275,49 @@
         <v>41943</v>
       </c>
       <c r="B35" t="n">
-        <v>131.8416726193952</v>
+        <v>131.8416486510129</v>
       </c>
       <c r="C35" t="n">
         <v>-0</v>
       </c>
       <c r="D35" t="n">
-        <v>109.125225870185</v>
+        <v>109.1252143142598</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.9586595770050311</v>
+        <v>-0.9586688513449336</v>
       </c>
       <c r="F35" t="n">
-        <v>129.3293134129574</v>
+        <v>129.3292377894273</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.176351642725057</v>
+        <v>-1.176361641526989</v>
       </c>
       <c r="H35" t="n">
-        <v>139.2256656641707</v>
+        <v>139.225398210894</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.1710605971244337</v>
+        <v>-0.171202686962973</v>
       </c>
       <c r="J35" t="n">
-        <v>123.114624544678</v>
+        <v>123.1146373470824</v>
       </c>
       <c r="K35" t="n">
         <v>-0</v>
       </c>
       <c r="L35" t="n">
-        <v>138.8323662507379</v>
+        <v>138.8323107670225</v>
       </c>
       <c r="M35" t="n">
         <v>-0</v>
       </c>
       <c r="N35" t="n">
-        <v>144.7741643284584</v>
+        <v>144.7742336324166</v>
       </c>
       <c r="O35" t="n">
         <v>-0</v>
       </c>
       <c r="P35" t="n">
-        <v>154.4498152184175</v>
+        <v>154.4496266589258</v>
       </c>
       <c r="Q35" t="n">
         <v>-0</v>
@@ -2328,49 +2328,49 @@
         <v>41973</v>
       </c>
       <c r="B36" t="n">
-        <v>134.5160531715401</v>
+        <v>134.5161061382135</v>
       </c>
       <c r="C36" t="n">
         <v>-0</v>
       </c>
       <c r="D36" t="n">
-        <v>110.9763009428664</v>
+        <v>110.9762912962223</v>
       </c>
       <c r="E36" t="n">
         <v>-0</v>
       </c>
       <c r="F36" t="n">
-        <v>130.9364113901227</v>
+        <v>130.9363100257354</v>
       </c>
       <c r="G36" t="n">
         <v>-0</v>
       </c>
       <c r="H36" t="n">
-        <v>141.019688611576</v>
+        <v>141.0195696458326</v>
       </c>
       <c r="I36" t="n">
         <v>-0</v>
       </c>
       <c r="J36" t="n">
-        <v>125.2353662931224</v>
+        <v>125.235402125946</v>
       </c>
       <c r="K36" t="n">
         <v>-0</v>
       </c>
       <c r="L36" t="n">
-        <v>141.2238578889747</v>
+        <v>141.2238271714683</v>
       </c>
       <c r="M36" t="n">
         <v>-0</v>
       </c>
       <c r="N36" t="n">
-        <v>148.751404913411</v>
+        <v>148.7514888137798</v>
       </c>
       <c r="O36" t="n">
         <v>-0</v>
       </c>
       <c r="P36" t="n">
-        <v>158.6928656015746</v>
+        <v>158.6926854027109</v>
       </c>
       <c r="Q36" t="n">
         <v>-0</v>
@@ -2381,52 +2381,52 @@
         <v>42004</v>
       </c>
       <c r="B37" t="n">
-        <v>134.4269529030738</v>
+        <v>134.4269678911817</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.06623764700613775</v>
+        <v>-0.06626585439535866</v>
       </c>
       <c r="D37" t="n">
-        <v>111.9054876876123</v>
+        <v>111.9054907164609</v>
       </c>
       <c r="E37" t="n">
         <v>-0</v>
       </c>
       <c r="F37" t="n">
-        <v>130.9310786465947</v>
+        <v>130.9309911830809</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.004072773548160986</v>
+        <v>-0.00406216018573322</v>
       </c>
       <c r="H37" t="n">
-        <v>141.2023028010711</v>
+        <v>141.202102439282</v>
       </c>
       <c r="I37" t="n">
         <v>-0</v>
       </c>
       <c r="J37" t="n">
-        <v>126.6395139801805</v>
+        <v>126.6395286806744</v>
       </c>
       <c r="K37" t="n">
         <v>-0</v>
       </c>
       <c r="L37" t="n">
-        <v>142.8072696621961</v>
+        <v>142.8072143170011</v>
       </c>
       <c r="M37" t="n">
         <v>-0</v>
       </c>
       <c r="N37" t="n">
-        <v>148.3740700609755</v>
+        <v>148.3741537807126</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.2536680931888342</v>
+        <v>-0.2536680715441429</v>
       </c>
       <c r="P37" t="n">
-        <v>158.2903124353764</v>
+        <v>158.2901327279682</v>
       </c>
       <c r="Q37" t="n">
-        <v>-0.2536680931888372</v>
+        <v>-0.2536680715441448</v>
       </c>
     </row>
     <row r="38">
@@ -2434,52 +2434,52 @@
         <v>42035</v>
       </c>
       <c r="B38" t="n">
-        <v>135.3271732092289</v>
+        <v>135.3272386180898</v>
       </c>
       <c r="C38" t="n">
         <v>-0</v>
       </c>
       <c r="D38" t="n">
-        <v>115.0687062077137</v>
+        <v>115.0687187631752</v>
       </c>
       <c r="E38" t="n">
         <v>-0</v>
       </c>
       <c r="F38" t="n">
-        <v>142.037955008426</v>
+        <v>142.0378677779595</v>
       </c>
       <c r="G38" t="n">
         <v>-0</v>
       </c>
       <c r="H38" t="n">
-        <v>147.2772016919582</v>
+        <v>147.2770980652511</v>
       </c>
       <c r="I38" t="n">
         <v>-0</v>
       </c>
       <c r="J38" t="n">
-        <v>134.182924407458</v>
+        <v>134.183010518027</v>
       </c>
       <c r="K38" t="n">
         <v>-0</v>
       </c>
       <c r="L38" t="n">
-        <v>151.3137287696547</v>
+        <v>151.3137496671094</v>
       </c>
       <c r="M38" t="n">
         <v>-0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.977863276553</v>
+        <v>143.9779448918088</v>
       </c>
       <c r="O38" t="n">
-        <v>-3.209073312374223</v>
+        <v>-3.209073038554234</v>
       </c>
       <c r="P38" t="n">
-        <v>153.6002952029125</v>
+        <v>153.6001212212948</v>
       </c>
       <c r="Q38" t="n">
-        <v>-3.209073312374235</v>
+        <v>-3.209073038554231</v>
       </c>
     </row>
     <row r="39">
@@ -2487,49 +2487,49 @@
         <v>42063</v>
       </c>
       <c r="B39" t="n">
-        <v>137.2601623804565</v>
+        <v>137.260154732774</v>
       </c>
       <c r="C39" t="n">
         <v>-0</v>
       </c>
       <c r="D39" t="n">
-        <v>114.2781759003398</v>
+        <v>114.2781493014635</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.687007209368355</v>
+        <v>-0.6870411613244125</v>
       </c>
       <c r="F39" t="n">
-        <v>135.066226480833</v>
+        <v>135.0661465426302</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.908356028625872</v>
+        <v>-4.908353908992628</v>
       </c>
       <c r="H39" t="n">
-        <v>143.6369190250558</v>
+        <v>143.6367156084724</v>
       </c>
       <c r="I39" t="n">
-        <v>-2.471721777085647</v>
+        <v>-2.471791272778744</v>
       </c>
       <c r="J39" t="n">
-        <v>129.6965211790904</v>
+        <v>129.6965429041211</v>
       </c>
       <c r="K39" t="n">
-        <v>-3.343497876633148</v>
+        <v>-3.343543714353583</v>
       </c>
       <c r="L39" t="n">
-        <v>146.2545574611869</v>
+        <v>146.254508301162</v>
       </c>
       <c r="M39" t="n">
-        <v>-3.343497876633148</v>
+        <v>-3.343543714353585</v>
       </c>
       <c r="N39" t="n">
-        <v>152.0701213586715</v>
+        <v>152.0701560777631</v>
       </c>
       <c r="O39" t="n">
         <v>-0</v>
       </c>
       <c r="P39" t="n">
-        <v>162.2333808869531</v>
+        <v>162.2331422027022</v>
       </c>
       <c r="Q39" t="n">
         <v>-0</v>
@@ -2540,52 +2540,52 @@
         <v>42094</v>
       </c>
       <c r="B40" t="n">
-        <v>136.7635130419579</v>
+        <v>136.7635443940099</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.3618306505583315</v>
+        <v>-0.3618022577133919</v>
       </c>
       <c r="D40" t="n">
-        <v>113.6212472442537</v>
+        <v>113.6212661872744</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.257908436762271</v>
+        <v>-1.257902748426227</v>
       </c>
       <c r="F40" t="n">
-        <v>134.8291548276144</v>
+        <v>134.8290668678564</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.075263284650896</v>
+        <v>-5.075266914997768</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3809864421727</v>
+        <v>141.3807976441333</v>
       </c>
       <c r="I40" t="n">
-        <v>-4.00348131418056</v>
+        <v>-4.003541961768872</v>
       </c>
       <c r="J40" t="n">
-        <v>128.8128783269845</v>
+        <v>128.8129103449387</v>
       </c>
       <c r="K40" t="n">
-        <v>-4.002033868457704</v>
+        <v>-4.002071612759684</v>
       </c>
       <c r="L40" t="n">
-        <v>142.8044732891293</v>
+        <v>142.8043608500389</v>
       </c>
       <c r="M40" t="n">
-        <v>-5.623584554894631</v>
+        <v>-5.623671897491865</v>
       </c>
       <c r="N40" t="n">
-        <v>149.6817385947932</v>
+        <v>149.6817848630466</v>
       </c>
       <c r="O40" t="n">
-        <v>-1.570579902573355</v>
+        <v>-1.570571949367302</v>
       </c>
       <c r="P40" t="n">
-        <v>159.6853760114773</v>
+        <v>159.6851539786894</v>
       </c>
       <c r="Q40" t="n">
-        <v>-1.570579902573358</v>
+        <v>-1.570571949367304</v>
       </c>
     </row>
     <row r="41">
@@ -2593,52 +2593,52 @@
         <v>42124</v>
       </c>
       <c r="B41" t="n">
-        <v>136.993793420186</v>
+        <v>136.9938589371271</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1940613763315652</v>
+        <v>-0.1940080835296781</v>
       </c>
       <c r="D41" t="n">
-        <v>113.0030729154367</v>
+        <v>113.0030886538394</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.795130370674564</v>
+        <v>-1.795127408680963</v>
       </c>
       <c r="F41" t="n">
-        <v>132.8979911009976</v>
+        <v>132.8978693947712</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.434874331220939</v>
+        <v>-6.434902555335674</v>
       </c>
       <c r="H41" t="n">
-        <v>140.486047884855</v>
+        <v>140.4858718847153</v>
       </c>
       <c r="I41" t="n">
-        <v>-4.611137181508548</v>
+        <v>-4.611189566979983</v>
       </c>
       <c r="J41" t="n">
-        <v>126.5606655090679</v>
+        <v>126.5606921590906</v>
       </c>
       <c r="K41" t="n">
-        <v>-5.680498418147793</v>
+        <v>-5.680539085767743</v>
       </c>
       <c r="L41" t="n">
-        <v>140.3076261619253</v>
+        <v>140.3075103583948</v>
       </c>
       <c r="M41" t="n">
-        <v>-7.273697302433205</v>
+        <v>-7.273786640624709</v>
       </c>
       <c r="N41" t="n">
-        <v>151.1536605621394</v>
+        <v>151.1537709974572</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.6026567141157798</v>
+        <v>-0.602606786197563</v>
       </c>
       <c r="P41" t="n">
-        <v>161.2556705245008</v>
+        <v>161.2555142783271</v>
       </c>
       <c r="Q41" t="n">
-        <v>-0.6026567141157769</v>
+        <v>-0.6026067861975687</v>
       </c>
     </row>
     <row r="42">
@@ -2646,49 +2646,49 @@
         <v>42155</v>
       </c>
       <c r="B42" t="n">
-        <v>137.5888671470765</v>
+        <v>137.5888597040807</v>
       </c>
       <c r="C42" t="n">
         <v>-0</v>
       </c>
       <c r="D42" t="n">
-        <v>112.9752166741987</v>
+        <v>112.9751874828041</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.81933872597472</v>
+        <v>-1.819374807396487</v>
       </c>
       <c r="F42" t="n">
-        <v>131.5803347540067</v>
+        <v>131.5802198631564</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.362553377932615</v>
+        <v>-7.362577373486726</v>
       </c>
       <c r="H42" t="n">
-        <v>134.7197812845903</v>
+        <v>134.7196545142794</v>
       </c>
       <c r="I42" t="n">
-        <v>-8.52638443907477</v>
+        <v>-8.526406152712291</v>
       </c>
       <c r="J42" t="n">
-        <v>126.3533693393632</v>
+        <v>126.3533879314965</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.834986159878031</v>
+        <v>-5.835032733505857</v>
       </c>
       <c r="L42" t="n">
-        <v>135.3216967492476</v>
+        <v>135.3216446443667</v>
       </c>
       <c r="M42" t="n">
-        <v>-10.56879118004676</v>
+        <v>-10.56883796609717</v>
       </c>
       <c r="N42" t="n">
-        <v>151.4276784549079</v>
+        <v>151.4278025535053</v>
       </c>
       <c r="O42" t="n">
-        <v>-0.4224649115971319</v>
+        <v>-0.4224060399656891</v>
       </c>
       <c r="P42" t="n">
-        <v>163.3288687541849</v>
+        <v>163.3286422732522</v>
       </c>
       <c r="Q42" t="n">
         <v>-0</v>
@@ -2699,52 +2699,52 @@
         <v>42185</v>
       </c>
       <c r="B43" t="n">
-        <v>135.0672741758998</v>
+        <v>135.0673004271905</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.832701310405659</v>
+        <v>-1.832676920437778</v>
       </c>
       <c r="D43" t="n">
-        <v>110.7227652881611</v>
+        <v>110.722773437193</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.776822615618519</v>
+        <v>-3.776826032908813</v>
       </c>
       <c r="F43" t="n">
-        <v>129.4343795958584</v>
+        <v>129.4342873445074</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.873385576284827</v>
+        <v>-8.873394560635461</v>
       </c>
       <c r="H43" t="n">
-        <v>134.7625798740306</v>
+        <v>134.7625317822336</v>
       </c>
       <c r="I43" t="n">
-        <v>-8.497324551360617</v>
+        <v>-8.497292822454233</v>
       </c>
       <c r="J43" t="n">
-        <v>123.1582874301681</v>
+        <v>123.1583448069862</v>
       </c>
       <c r="K43" t="n">
-        <v>-8.216125133636677</v>
+        <v>-8.216141274874522</v>
       </c>
       <c r="L43" t="n">
-        <v>131.8998338621262</v>
+        <v>131.8998251158486</v>
       </c>
       <c r="M43" t="n">
-        <v>-12.83022701600483</v>
+        <v>-12.83024483496805</v>
       </c>
       <c r="N43" t="n">
-        <v>147.9830657262671</v>
+        <v>147.9832131732392</v>
       </c>
       <c r="O43" t="n">
-        <v>-2.687612527621198</v>
+        <v>-2.687537785148268</v>
       </c>
       <c r="P43" t="n">
-        <v>160.0112614112853</v>
+        <v>160.0110931436034</v>
       </c>
       <c r="Q43" t="n">
-        <v>-2.031243691458286</v>
+        <v>-2.031210866308675</v>
       </c>
     </row>
     <row r="44">
@@ -2752,49 +2752,49 @@
         <v>42216</v>
       </c>
       <c r="B44" t="n">
-        <v>137.6212597543812</v>
+        <v>137.6213019639216</v>
       </c>
       <c r="C44" t="n">
         <v>-0</v>
       </c>
       <c r="D44" t="n">
-        <v>111.7990553552807</v>
+        <v>111.7990663125326</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.841477027238698</v>
+        <v>-2.841478106114951</v>
       </c>
       <c r="F44" t="n">
-        <v>129.4109290102597</v>
+        <v>129.410779441004</v>
       </c>
       <c r="G44" t="n">
-        <v>-8.88989566022488</v>
+        <v>-8.889945008675275</v>
       </c>
       <c r="H44" t="n">
-        <v>134.8229805802433</v>
+        <v>134.8229586936637</v>
       </c>
       <c r="I44" t="n">
-        <v>-8.456312972162468</v>
+        <v>-8.456263421261548</v>
       </c>
       <c r="J44" t="n">
-        <v>126.0088018280951</v>
+        <v>126.0088934639934</v>
       </c>
       <c r="K44" t="n">
-        <v>-6.09177554853511</v>
+        <v>-6.091767521444491</v>
       </c>
       <c r="L44" t="n">
-        <v>134.952672476185</v>
+        <v>134.9526987959286</v>
       </c>
       <c r="M44" t="n">
-        <v>-10.81267141223928</v>
+        <v>-10.81266633546199</v>
       </c>
       <c r="N44" t="n">
-        <v>143.6562369663004</v>
+        <v>143.6563801021185</v>
       </c>
       <c r="O44" t="n">
-        <v>-5.53289779556771</v>
+        <v>-5.532825238465655</v>
       </c>
       <c r="P44" t="n">
-        <v>163.6258175561872</v>
+        <v>163.6255907127257</v>
       </c>
       <c r="Q44" t="n">
         <v>-0</v>
@@ -2805,52 +2805,52 @@
         <v>42247</v>
       </c>
       <c r="B45" t="n">
-        <v>133.4403850045544</v>
+        <v>133.440388482862</v>
       </c>
       <c r="C45" t="n">
-        <v>-3.037957040422808</v>
+        <v>-3.037984251998744</v>
       </c>
       <c r="D45" t="n">
-        <v>109.547313091205</v>
+        <v>109.547321634164</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.798344657270984</v>
+        <v>-4.798347620759418</v>
       </c>
       <c r="F45" t="n">
-        <v>127.0488414763824</v>
+        <v>127.0486898952569</v>
       </c>
       <c r="G45" t="n">
-        <v>-10.55289308491835</v>
+        <v>-10.55294487110606</v>
       </c>
       <c r="H45" t="n">
-        <v>134.9295977370072</v>
+        <v>134.9294993376281</v>
       </c>
       <c r="I45" t="n">
-        <v>-8.383920805867158</v>
+        <v>-8.383923155623521</v>
       </c>
       <c r="J45" t="n">
-        <v>125.6490064334729</v>
+        <v>125.6490777315526</v>
       </c>
       <c r="K45" t="n">
-        <v>-6.359913537188315</v>
+        <v>-6.3599204947991</v>
       </c>
       <c r="L45" t="n">
-        <v>134.567339472899</v>
+        <v>134.5673442163647</v>
       </c>
       <c r="M45" t="n">
-        <v>-11.06732973466592</v>
+        <v>-11.06733888201618</v>
       </c>
       <c r="N45" t="n">
-        <v>134.9003618799207</v>
+        <v>134.9004948424072</v>
       </c>
       <c r="O45" t="n">
-        <v>-11.29068572139446</v>
+        <v>-11.29061853962715</v>
       </c>
       <c r="P45" t="n">
-        <v>153.652792717977</v>
+        <v>153.6525780500463</v>
       </c>
       <c r="Q45" t="n">
-        <v>-6.095019103440438</v>
+        <v>-6.095020112219957</v>
       </c>
     </row>
     <row r="46">
@@ -2858,52 +2858,52 @@
         <v>42277</v>
       </c>
       <c r="B46" t="n">
-        <v>132.8525622889413</v>
+        <v>132.8525777506309</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.465087787999319</v>
+        <v>-3.465106161065743</v>
       </c>
       <c r="D46" t="n">
-        <v>108.8475019563031</v>
+        <v>108.8474932936528</v>
       </c>
       <c r="E46" t="n">
-        <v>-5.40651273177659</v>
+        <v>-5.406530581370549</v>
       </c>
       <c r="F46" t="n">
-        <v>131.0275440863694</v>
+        <v>131.0273874738972</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.751738555658191</v>
+        <v>-7.751792163815299</v>
       </c>
       <c r="H46" t="n">
-        <v>137.0604010772325</v>
+        <v>137.0602903758652</v>
       </c>
       <c r="I46" t="n">
-        <v>-6.937122988047395</v>
+        <v>-6.937132672765774</v>
       </c>
       <c r="J46" t="n">
-        <v>127.4733361013424</v>
+        <v>127.473382566497</v>
       </c>
       <c r="K46" t="n">
-        <v>-5.000329464978215</v>
+        <v>-5.000355801846144</v>
       </c>
       <c r="L46" t="n">
-        <v>136.5211566712599</v>
+        <v>136.521133779421</v>
       </c>
       <c r="M46" t="n">
-        <v>-9.776093827489778</v>
+        <v>-9.776121416746451</v>
       </c>
       <c r="N46" t="n">
-        <v>137.553717255009</v>
+        <v>137.5538722960775</v>
       </c>
       <c r="O46" t="n">
-        <v>-9.545862115427775</v>
+        <v>-9.545780813338862</v>
       </c>
       <c r="P46" t="n">
-        <v>149.7321883823384</v>
+        <v>149.7320191230847</v>
       </c>
       <c r="Q46" t="n">
-        <v>-8.491098398379528</v>
+        <v>-8.491074977405983</v>
       </c>
     </row>
     <row r="47">
@@ -2911,52 +2911,52 @@
         <v>42308</v>
       </c>
       <c r="B47" t="n">
-        <v>137.8193925518746</v>
+        <v>137.8194248208674</v>
       </c>
       <c r="C47" t="n">
         <v>-0</v>
       </c>
       <c r="D47" t="n">
-        <v>112.4036361493803</v>
+        <v>112.4036408779779</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.316068500433627</v>
+        <v>-2.316075049625176</v>
       </c>
       <c r="F47" t="n">
-        <v>131.8108804446072</v>
+        <v>131.8107164739399</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.200240642166427</v>
+        <v>-7.200299092075278</v>
       </c>
       <c r="H47" t="n">
-        <v>136.1874355668981</v>
+        <v>136.1873472725507</v>
       </c>
       <c r="I47" t="n">
-        <v>-7.529859338484195</v>
+        <v>-7.529854226070539</v>
       </c>
       <c r="J47" t="n">
-        <v>127.0414305964092</v>
+        <v>127.041513988003</v>
       </c>
       <c r="K47" t="n">
-        <v>-5.322207607700548</v>
+        <v>-5.322206218546965</v>
       </c>
       <c r="L47" t="n">
-        <v>136.0585953160029</v>
+        <v>136.058612217722</v>
       </c>
       <c r="M47" t="n">
-        <v>-10.08179071237798</v>
+        <v>-10.08179196070992</v>
       </c>
       <c r="N47" t="n">
-        <v>136.9913674065552</v>
+        <v>136.9915120491914</v>
       </c>
       <c r="O47" t="n">
-        <v>-9.915658524761515</v>
+        <v>-9.915583976162264</v>
       </c>
       <c r="P47" t="n">
-        <v>149.8349189585469</v>
+        <v>149.8346258926976</v>
       </c>
       <c r="Q47" t="n">
-        <v>-8.428314555497744</v>
+        <v>-8.4283667120509</v>
       </c>
     </row>
     <row r="48">
@@ -2964,52 +2964,52 @@
         <v>42338</v>
       </c>
       <c r="B48" t="n">
-        <v>137.7771889008388</v>
+        <v>137.7772199439943</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.03062243292060062</v>
+        <v>-0.03062331520244145</v>
       </c>
       <c r="D48" t="n">
-        <v>111.1601528432338</v>
+        <v>111.1601314760117</v>
       </c>
       <c r="E48" t="n">
-        <v>-3.396712706080566</v>
+        <v>-3.396741815825598</v>
       </c>
       <c r="F48" t="n">
-        <v>131.8728017430388</v>
+        <v>131.8725626103724</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.156645746402212</v>
+        <v>-7.156757086411628</v>
       </c>
       <c r="H48" t="n">
-        <v>135.9774220516789</v>
+        <v>135.9773450484492</v>
       </c>
       <c r="I48" t="n">
-        <v>-7.672456775702241</v>
+        <v>-7.672444097041859</v>
       </c>
       <c r="J48" t="n">
-        <v>126.3263445263068</v>
+        <v>126.3264127414893</v>
       </c>
       <c r="K48" t="n">
-        <v>-5.855126437171662</v>
+        <v>-5.855136016256067</v>
       </c>
       <c r="L48" t="n">
-        <v>135.2927537651686</v>
+        <v>135.2927548208635</v>
       </c>
       <c r="M48" t="n">
-        <v>-10.58791897784432</v>
+        <v>-10.58793062857283</v>
       </c>
       <c r="N48" t="n">
-        <v>137.4921462031331</v>
+        <v>137.4922342039686</v>
       </c>
       <c r="O48" t="n">
-        <v>-9.586350708009798</v>
+        <v>-9.586313481745767</v>
       </c>
       <c r="P48" t="n">
-        <v>150.3826480003246</v>
+        <v>150.3822913328037</v>
       </c>
       <c r="Q48" t="n">
-        <v>-8.093569678461682</v>
+        <v>-8.09366024118618</v>
       </c>
     </row>
     <row r="49">
@@ -3017,52 +3017,52 @@
         <v>42369</v>
       </c>
       <c r="B49" t="n">
-        <v>136.2700533214553</v>
+        <v>136.270029283629</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.124180858536404</v>
+        <v>-1.124221450823974</v>
       </c>
       <c r="D49" t="n">
-        <v>110.2308525243798</v>
+        <v>110.2308311696591</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.20431744022654</v>
+        <v>-4.204346450987252</v>
       </c>
       <c r="F49" t="n">
-        <v>131.2753857403377</v>
+        <v>131.2750311121032</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.577248818775137</v>
+        <v>-7.577441730314634</v>
       </c>
       <c r="H49" t="n">
-        <v>134.5074717919616</v>
+        <v>134.5073627905125</v>
       </c>
       <c r="I49" t="n">
-        <v>-8.670540825935484</v>
+        <v>-8.670550576085427</v>
       </c>
       <c r="J49" t="n">
-        <v>125.9362578807369</v>
+        <v>125.9363126364364</v>
       </c>
       <c r="K49" t="n">
-        <v>-6.14583902023131</v>
+        <v>-6.145858443444813</v>
       </c>
       <c r="L49" t="n">
-        <v>134.8749794942193</v>
+        <v>134.8749663574444</v>
       </c>
       <c r="M49" t="n">
-        <v>-10.86401703870519</v>
+        <v>-10.8640380308005</v>
       </c>
       <c r="N49" t="n">
-        <v>135.1159216419013</v>
+        <v>135.1160189472982</v>
       </c>
       <c r="O49" t="n">
-        <v>-11.14893548140345</v>
+        <v>-11.1488917797882</v>
       </c>
       <c r="P49" t="n">
-        <v>147.7836417906644</v>
+        <v>147.7833031276376</v>
       </c>
       <c r="Q49" t="n">
-        <v>-9.681953619625356</v>
+        <v>-9.682035380946054</v>
       </c>
     </row>
     <row r="50">
@@ -3070,52 +3070,52 @@
         <v>42400</v>
       </c>
       <c r="B50" t="n">
-        <v>135.1492106085258</v>
+        <v>135.1492431541599</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.937450088777409</v>
+        <v>-1.937449434416134</v>
       </c>
       <c r="D50" t="n">
-        <v>110.6600286838888</v>
+        <v>110.6600273401456</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.831343611239217</v>
+        <v>-3.83135527223792</v>
       </c>
       <c r="F50" t="n">
-        <v>131.3706211993449</v>
+        <v>131.3702953921767</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.510199515649379</v>
+        <v>-7.510372094897116</v>
       </c>
       <c r="H50" t="n">
-        <v>135.384411836639</v>
+        <v>135.3843288889486</v>
       </c>
       <c r="I50" t="n">
-        <v>-8.075105799602285</v>
+        <v>-8.075097440495044</v>
       </c>
       <c r="J50" t="n">
-        <v>130.1794006166167</v>
+        <v>130.1794588426968</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.983631343943777</v>
+        <v>-2.983650210167505</v>
       </c>
       <c r="L50" t="n">
-        <v>139.4192926183618</v>
+        <v>139.4192807798559</v>
       </c>
       <c r="M50" t="n">
-        <v>-7.860777900331755</v>
+        <v>-7.860798449196661</v>
       </c>
       <c r="N50" t="n">
-        <v>128.3889236802003</v>
+        <v>128.3890492564374</v>
       </c>
       <c r="O50" t="n">
-        <v>-15.57255131178386</v>
+        <v>-15.57248800955789</v>
       </c>
       <c r="P50" t="n">
-        <v>140.4259577737258</v>
+        <v>140.4256721916441</v>
       </c>
       <c r="Q50" t="n">
-        <v>-14.17860587586969</v>
+        <v>-14.17866143066408</v>
       </c>
     </row>
     <row r="51">
@@ -3123,52 +3123,52 @@
         <v>42429</v>
       </c>
       <c r="B51" t="n">
-        <v>136.1419715179436</v>
+        <v>136.1419768271554</v>
       </c>
       <c r="C51" t="n">
-        <v>-1.217115387661911</v>
+        <v>-1.21713466435679</v>
       </c>
       <c r="D51" t="n">
-        <v>113.2878844582462</v>
+        <v>113.2878855924171</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.547616035808091</v>
+        <v>-1.547625792569461</v>
       </c>
       <c r="F51" t="n">
-        <v>137.807346739337</v>
+        <v>137.8070182985424</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.978505476819877</v>
+        <v>-2.978677127166486</v>
       </c>
       <c r="H51" t="n">
-        <v>137.3962072484357</v>
+        <v>137.3960699154305</v>
       </c>
       <c r="I51" t="n">
-        <v>-6.709113379400974</v>
+        <v>-6.709140986362187</v>
       </c>
       <c r="J51" t="n">
-        <v>132.5325634176635</v>
+        <v>132.5326053701806</v>
       </c>
       <c r="K51" t="n">
-        <v>-1.229933687227619</v>
+        <v>-1.229965806755152</v>
       </c>
       <c r="L51" t="n">
-        <v>141.9394785431994</v>
+        <v>141.9394479348587</v>
       </c>
       <c r="M51" t="n">
-        <v>-6.195241041694134</v>
+        <v>-6.195274225160722</v>
       </c>
       <c r="N51" t="n">
-        <v>132.3509063478913</v>
+        <v>132.3510346987428</v>
       </c>
       <c r="O51" t="n">
-        <v>-12.96718568683886</v>
+        <v>-12.96712115488106</v>
       </c>
       <c r="P51" t="n">
-        <v>141.6717004415793</v>
+        <v>141.6713544659392</v>
       </c>
       <c r="Q51" t="n">
-        <v>-13.41726962315658</v>
+        <v>-13.41736103207176</v>
       </c>
     </row>
     <row r="52">
@@ -3176,52 +3176,52 @@
         <v>42460</v>
       </c>
       <c r="B52" t="n">
-        <v>140.4461334455203</v>
+        <v>140.4461106569627</v>
       </c>
       <c r="C52" t="n">
         <v>-0</v>
       </c>
       <c r="D52" t="n">
-        <v>115.836829626286</v>
+        <v>115.8368290660324</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
       </c>
       <c r="F52" t="n">
-        <v>137.2271250084247</v>
+        <v>137.2268068307351</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.387003142727519</v>
+        <v>-3.387167818335058</v>
       </c>
       <c r="H52" t="n">
-        <v>137.3053733750203</v>
+        <v>137.3052043076455</v>
       </c>
       <c r="I52" t="n">
-        <v>-6.770788827041106</v>
+        <v>-6.770838024787511</v>
       </c>
       <c r="J52" t="n">
-        <v>132.8523295004608</v>
+        <v>132.8523603489375</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.9916275955923396</v>
+        <v>-0.9916681433456692</v>
       </c>
       <c r="L52" t="n">
-        <v>142.2819410284757</v>
+        <v>142.2818983457023</v>
       </c>
       <c r="M52" t="n">
-        <v>-5.968914925709212</v>
+        <v>-5.968956120165674</v>
       </c>
       <c r="N52" t="n">
-        <v>132.2274189896441</v>
+        <v>132.2275294218942</v>
       </c>
       <c r="O52" t="n">
-        <v>-13.04838990838081</v>
+        <v>-13.04833714099829</v>
       </c>
       <c r="P52" t="n">
-        <v>142.9108474324232</v>
+        <v>142.9105446750451</v>
       </c>
       <c r="Q52" t="n">
-        <v>-12.65996432173712</v>
+        <v>-12.66002826785792</v>
       </c>
     </row>
     <row r="53">
@@ -3229,52 +3229,52 @@
         <v>42490</v>
       </c>
       <c r="B53" t="n">
-        <v>140.6067121071894</v>
+        <v>140.60678923484</v>
       </c>
       <c r="C53" t="n">
         <v>-0</v>
       </c>
       <c r="D53" t="n">
-        <v>116.6789872301488</v>
+        <v>116.6790117147584</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
       </c>
       <c r="F53" t="n">
-        <v>139.0538901688624</v>
+        <v>139.0535404069373</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.100892567332815</v>
+        <v>-2.101078689583941</v>
       </c>
       <c r="H53" t="n">
-        <v>137.8665977606073</v>
+        <v>137.8664542314554</v>
       </c>
       <c r="I53" t="n">
-        <v>-6.389722118046465</v>
+        <v>-6.389753707413651</v>
       </c>
       <c r="J53" t="n">
-        <v>133.8479549421709</v>
+        <v>133.8480037046306</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.2496364323301982</v>
+        <v>-0.2496641058380263</v>
       </c>
       <c r="L53" t="n">
-        <v>143.7221004785584</v>
+        <v>143.7219816460863</v>
       </c>
       <c r="M53" t="n">
-        <v>-5.017144414340035</v>
+        <v>-5.017236065939144</v>
       </c>
       <c r="N53" t="n">
-        <v>132.7485431196186</v>
+        <v>132.7486871108289</v>
       </c>
       <c r="O53" t="n">
-        <v>-12.70570317589289</v>
+        <v>-12.70562841867139</v>
       </c>
       <c r="P53" t="n">
-        <v>143.4740762362613</v>
+        <v>143.4738080855683</v>
       </c>
       <c r="Q53" t="n">
-        <v>-12.31574675738811</v>
+        <v>-12.31578907637832</v>
       </c>
     </row>
     <row r="54">
@@ -3282,52 +3282,52 @@
         <v>42521</v>
       </c>
       <c r="B54" t="n">
-        <v>141.7151102393991</v>
+        <v>141.7151262133756</v>
       </c>
       <c r="C54" t="n">
         <v>-0</v>
       </c>
       <c r="D54" t="n">
-        <v>116.4985465287873</v>
+        <v>116.4985555159876</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1546471268263586</v>
+        <v>-0.1546603764625002</v>
       </c>
       <c r="F54" t="n">
-        <v>137.2578009958408</v>
+        <v>137.2574333303725</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.365406107333518</v>
+        <v>-3.365605610934691</v>
       </c>
       <c r="H54" t="n">
-        <v>132.775283779925</v>
+        <v>132.7751287336853</v>
       </c>
       <c r="I54" t="n">
-        <v>-9.846682137786114</v>
+        <v>-9.846723979542773</v>
       </c>
       <c r="J54" t="n">
-        <v>132.3738287606912</v>
+        <v>132.3738662962467</v>
       </c>
       <c r="K54" t="n">
-        <v>-1.348230898048749</v>
+        <v>-1.348266233404608</v>
       </c>
       <c r="L54" t="n">
-        <v>139.0726086861476</v>
+        <v>139.0725212704087</v>
       </c>
       <c r="M54" t="n">
-        <v>-8.089893880113001</v>
+        <v>-8.089964344701881</v>
       </c>
       <c r="N54" t="n">
-        <v>132.2655661216668</v>
+        <v>132.2656847497381</v>
       </c>
       <c r="O54" t="n">
-        <v>-13.02330468343204</v>
+        <v>-13.02324653227666</v>
       </c>
       <c r="P54" t="n">
-        <v>145.9147900019919</v>
+        <v>145.9144930488907</v>
       </c>
       <c r="Q54" t="n">
-        <v>-10.8241033222728</v>
+        <v>-10.82416117594341</v>
       </c>
     </row>
     <row r="55">
@@ -3335,52 +3335,52 @@
         <v>42551</v>
       </c>
       <c r="B55" t="n">
-        <v>144.1592494298794</v>
+        <v>144.1592382760117</v>
       </c>
       <c r="C55" t="n">
         <v>-0</v>
       </c>
       <c r="D55" t="n">
-        <v>120.4395468130741</v>
+        <v>120.4395218436874</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
       </c>
       <c r="F55" t="n">
-        <v>143.0395166957112</v>
+        <v>143.0390900914835</v>
       </c>
       <c r="G55" t="n">
         <v>-0</v>
       </c>
       <c r="H55" t="n">
-        <v>136.8838170371326</v>
+        <v>136.8836772493634</v>
       </c>
       <c r="I55" t="n">
-        <v>-7.057022088567559</v>
+        <v>-7.057051607088888</v>
       </c>
       <c r="J55" t="n">
-        <v>138.1612846173458</v>
+        <v>138.1613039805726</v>
       </c>
       <c r="K55" t="n">
         <v>-0</v>
       </c>
       <c r="L55" t="n">
-        <v>145.1529388479046</v>
+        <v>145.1528267942598</v>
       </c>
       <c r="M55" t="n">
-        <v>-4.071534005436321</v>
+        <v>-4.071621307649582</v>
       </c>
       <c r="N55" t="n">
-        <v>132.7253141023425</v>
+        <v>132.7254223398921</v>
       </c>
       <c r="O55" t="n">
-        <v>-12.72097837727268</v>
+        <v>-12.72092712785722</v>
       </c>
       <c r="P55" t="n">
-        <v>146.4219819493838</v>
+        <v>146.4216720464498</v>
       </c>
       <c r="Q55" t="n">
-        <v>-10.51413271068657</v>
+        <v>-10.51419804893503</v>
       </c>
     </row>
     <row r="56">
@@ -3388,52 +3388,52 @@
         <v>42582</v>
       </c>
       <c r="B56" t="n">
-        <v>146.9200771992109</v>
+        <v>146.9200883756973</v>
       </c>
       <c r="C56" t="n">
         <v>-0</v>
       </c>
       <c r="D56" t="n">
-        <v>123.0732125222447</v>
+        <v>123.0732139788457</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
       </c>
       <c r="F56" t="n">
-        <v>146.4873655822332</v>
+        <v>146.4869308587858</v>
       </c>
       <c r="G56" t="n">
         <v>-0</v>
       </c>
       <c r="H56" t="n">
-        <v>138.6517514172374</v>
+        <v>138.6515885928412</v>
       </c>
       <c r="I56" t="n">
-        <v>-5.8566092888984</v>
+        <v>-5.85665360447851</v>
       </c>
       <c r="J56" t="n">
-        <v>139.8378663355317</v>
+        <v>139.8378833399768</v>
       </c>
       <c r="K56" t="n">
         <v>-0</v>
       </c>
       <c r="L56" t="n">
-        <v>146.9143640133362</v>
+        <v>146.9142478749167</v>
       </c>
       <c r="M56" t="n">
-        <v>-2.907445868983713</v>
+        <v>-2.907536031505119</v>
       </c>
       <c r="N56" t="n">
-        <v>137.5659770190437</v>
+        <v>137.5661004010169</v>
       </c>
       <c r="O56" t="n">
-        <v>-9.537800200355189</v>
+        <v>-9.537739718850133</v>
       </c>
       <c r="P56" t="n">
-        <v>151.76217995913</v>
+        <v>151.7618711059289</v>
       </c>
       <c r="Q56" t="n">
-        <v>-7.250468033862298</v>
+        <v>-7.250528205961156</v>
       </c>
     </row>
     <row r="57">
@@ -3441,52 +3441,52 @@
         <v>42613</v>
       </c>
       <c r="B57" t="n">
-        <v>146.2634257326658</v>
+        <v>146.2634910623226</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.4469446784013986</v>
+        <v>-0.4469077854729321</v>
       </c>
       <c r="D57" t="n">
-        <v>122.1125060070554</v>
+        <v>122.112475947924</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7805975772474475</v>
+        <v>-0.7806231753132581</v>
       </c>
       <c r="F57" t="n">
-        <v>146.4334992663061</v>
+        <v>146.4330756383252</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.03677198761338705</v>
+        <v>-0.03676452236721091</v>
       </c>
       <c r="H57" t="n">
-        <v>139.8770819185873</v>
+        <v>139.8768343247259</v>
       </c>
       <c r="I57" t="n">
-        <v>-5.024620028325151</v>
+        <v>-5.024721316308427</v>
       </c>
       <c r="J57" t="n">
-        <v>139.6188198706026</v>
+        <v>139.6188027202611</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.1566431687419878</v>
+        <v>-0.1566675742532</v>
       </c>
       <c r="L57" t="n">
-        <v>148.4570694214415</v>
+        <v>148.4569826367037</v>
       </c>
       <c r="M57" t="n">
-        <v>-1.887904931985346</v>
+        <v>-1.887975836095875</v>
       </c>
       <c r="N57" t="n">
-        <v>137.7307313884522</v>
+        <v>137.7308225095929</v>
       </c>
       <c r="O57" t="n">
-        <v>-9.429459148256026</v>
+        <v>-9.429419905926579</v>
       </c>
       <c r="P57" t="n">
-        <v>151.9439362538261</v>
+        <v>151.9435912778109</v>
       </c>
       <c r="Q57" t="n">
-        <v>-7.139387583716574</v>
+        <v>-7.139469678324728</v>
       </c>
     </row>
     <row r="58">
@@ -3494,52 +3494,52 @@
         <v>42643</v>
       </c>
       <c r="B58" t="n">
-        <v>146.4406696494106</v>
+        <v>146.4406804031904</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.3263049944836774</v>
+        <v>-0.3263052573729544</v>
       </c>
       <c r="D58" t="n">
-        <v>121.781868377525</v>
+        <v>121.7818734454618</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.049248750605509</v>
+        <v>-1.049245803888678</v>
       </c>
       <c r="F58" t="n">
-        <v>148.7715206532749</v>
+        <v>148.7710553896435</v>
       </c>
       <c r="G58" t="n">
         <v>-0</v>
       </c>
       <c r="H58" t="n">
-        <v>143.3998615998674</v>
+        <v>143.3996247362847</v>
       </c>
       <c r="I58" t="n">
-        <v>-2.632681805158503</v>
+        <v>-2.63277412435738</v>
       </c>
       <c r="J58" t="n">
-        <v>141.3624301010594</v>
+        <v>141.3624325219391</v>
       </c>
       <c r="K58" t="n">
         <v>-0</v>
       </c>
       <c r="L58" t="n">
-        <v>151.4570236959191</v>
+        <v>151.4569171192654</v>
       </c>
       <c r="M58" t="n">
         <v>-0</v>
       </c>
       <c r="N58" t="n">
-        <v>137.7387146996444</v>
+        <v>137.7388274336783</v>
       </c>
       <c r="O58" t="n">
-        <v>-9.424209391682595</v>
+        <v>-9.424155938102846</v>
       </c>
       <c r="P58" t="n">
-        <v>151.9527434075721</v>
+        <v>151.952422248913</v>
       </c>
       <c r="Q58" t="n">
-        <v>-7.134005087312557</v>
+        <v>-7.13407261844942</v>
       </c>
     </row>
     <row r="59">
@@ -3547,52 +3547,52 @@
         <v>42674</v>
       </c>
       <c r="B59" t="n">
-        <v>144.0763818683002</v>
+        <v>144.0764090757026</v>
       </c>
       <c r="C59" t="n">
-        <v>-1.935538957725179</v>
+        <v>-1.935527899168546</v>
       </c>
       <c r="D59" t="n">
-        <v>119.0252454525184</v>
+        <v>119.0252538742528</v>
       </c>
       <c r="E59" t="n">
-        <v>-3.289072403951983</v>
+        <v>-3.289066705683609</v>
       </c>
       <c r="F59" t="n">
-        <v>146.9052992454139</v>
+        <v>146.9048374473635</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.254421141671601</v>
+        <v>-1.254422735250686</v>
       </c>
       <c r="H59" t="n">
-        <v>142.2128092305186</v>
+        <v>142.2126239749739</v>
       </c>
       <c r="I59" t="n">
-        <v>-3.438680531174244</v>
+        <v>-3.438738376032732</v>
       </c>
       <c r="J59" t="n">
-        <v>139.2700149791754</v>
+        <v>139.2700245016997</v>
       </c>
       <c r="K59" t="n">
-        <v>-1.480177668414532</v>
+        <v>-1.480172619351827</v>
       </c>
       <c r="L59" t="n">
-        <v>149.2499542776685</v>
+        <v>149.2498695977781</v>
       </c>
       <c r="M59" t="n">
-        <v>-1.457224871051066</v>
+        <v>-1.457211439045321</v>
       </c>
       <c r="N59" t="n">
-        <v>133.6701026204972</v>
+        <v>133.6701753126343</v>
       </c>
       <c r="O59" t="n">
-        <v>-12.09969359778187</v>
+        <v>-12.09966586456302</v>
       </c>
       <c r="P59" t="n">
-        <v>149.3183318477496</v>
+        <v>149.3180279680558</v>
       </c>
       <c r="Q59" t="n">
-        <v>-8.744027025884593</v>
+        <v>-8.744086229023541</v>
       </c>
     </row>
     <row r="60">
@@ -3600,52 +3600,52 @@
         <v>42704</v>
       </c>
       <c r="B60" t="n">
-        <v>143.6926666883915</v>
+        <v>143.6927214783446</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.196711690018605</v>
+        <v>-2.196681837748311</v>
       </c>
       <c r="D60" t="n">
-        <v>116.5125692802754</v>
+        <v>116.5125736521123</v>
       </c>
       <c r="E60" t="n">
-        <v>-5.330683344910256</v>
+        <v>-5.330680913119836</v>
       </c>
       <c r="F60" t="n">
-        <v>144.9095664109183</v>
+        <v>144.9091121772701</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.595896193974669</v>
+        <v>-2.595896898263396</v>
       </c>
       <c r="H60" t="n">
-        <v>141.5445177192719</v>
+        <v>141.5442784968082</v>
       </c>
       <c r="I60" t="n">
-        <v>-3.89244493161723</v>
+        <v>-3.892539738868936</v>
       </c>
       <c r="J60" t="n">
-        <v>133.0248064377697</v>
+        <v>133.0248008105439</v>
       </c>
       <c r="K60" t="n">
-        <v>-5.898047775019939</v>
+        <v>-5.898053367255994</v>
       </c>
       <c r="L60" t="n">
-        <v>142.5572208174282</v>
+        <v>142.5571241570492</v>
       </c>
       <c r="M60" t="n">
-        <v>-5.876124237301229</v>
+        <v>-5.87612182493326</v>
       </c>
       <c r="N60" t="n">
-        <v>138.5942713820524</v>
+        <v>138.5943894269391</v>
       </c>
       <c r="O60" t="n">
-        <v>-8.861602697636481</v>
+        <v>-8.861545880135035</v>
       </c>
       <c r="P60" t="n">
-        <v>154.8189535335107</v>
+        <v>154.8186861299889</v>
       </c>
       <c r="Q60" t="n">
-        <v>-5.382319339460195</v>
+        <v>-5.382351589610978</v>
       </c>
     </row>
     <row r="61">
@@ -3653,52 +3653,52 @@
         <v>42735</v>
       </c>
       <c r="B61" t="n">
-        <v>145.1272668918276</v>
+        <v>145.1272710553938</v>
       </c>
       <c r="C61" t="n">
-        <v>-1.220262296045739</v>
+        <v>-1.220266976506976</v>
       </c>
       <c r="D61" t="n">
-        <v>117.0214216423162</v>
+        <v>117.0214269005561</v>
       </c>
       <c r="E61" t="n">
-        <v>-4.917228335804346</v>
+        <v>-4.917225188683052</v>
       </c>
       <c r="F61" t="n">
-        <v>145.0238275075002</v>
+        <v>145.0234049660003</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.519093123010467</v>
+        <v>-2.519072284476229</v>
       </c>
       <c r="H61" t="n">
-        <v>141.6468034592233</v>
+        <v>141.6466600691029</v>
       </c>
       <c r="I61" t="n">
-        <v>-3.82299376145895</v>
+        <v>-3.823023450430524</v>
       </c>
       <c r="J61" t="n">
-        <v>135.2155394595544</v>
+        <v>135.215523640993</v>
       </c>
       <c r="K61" t="n">
-        <v>-4.348319873328839</v>
+        <v>-4.348332701470797</v>
       </c>
       <c r="L61" t="n">
-        <v>144.9049394084316</v>
+        <v>144.9048303338757</v>
       </c>
       <c r="M61" t="n">
-        <v>-4.326035285522412</v>
+        <v>-4.326039978900612</v>
       </c>
       <c r="N61" t="n">
-        <v>141.4038466213521</v>
+        <v>141.4039235192343</v>
       </c>
       <c r="O61" t="n">
-        <v>-7.014050256566813</v>
+        <v>-7.014020918788594</v>
       </c>
       <c r="P61" t="n">
-        <v>157.9574346127393</v>
+        <v>157.9571131514943</v>
       </c>
       <c r="Q61" t="n">
-        <v>-3.464235062722551</v>
+        <v>-3.464297691174349</v>
       </c>
     </row>
     <row r="62">
@@ -3706,52 +3706,52 @@
         <v>42766</v>
       </c>
       <c r="B62" t="n">
-        <v>146.5849670697582</v>
+        <v>146.5850058485767</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.2280900853314328</v>
+        <v>-0.2280712806704369</v>
       </c>
       <c r="D62" t="n">
-        <v>118.9989459200451</v>
+        <v>118.9989579518703</v>
       </c>
       <c r="E62" t="n">
-        <v>-3.310441418325015</v>
+        <v>-3.310432786516618</v>
       </c>
       <c r="F62" t="n">
-        <v>145.1026860107703</v>
+        <v>145.1023165899878</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.466086671961326</v>
+        <v>-2.466029961303336</v>
       </c>
       <c r="H62" t="n">
-        <v>141.7977712340987</v>
+        <v>141.7976687754268</v>
       </c>
       <c r="I62" t="n">
-        <v>-3.720487892837739</v>
+        <v>-3.720489717550366</v>
       </c>
       <c r="J62" t="n">
-        <v>135.427089559297</v>
+        <v>135.4270699454713</v>
       </c>
       <c r="K62" t="n">
-        <v>-4.198669008108603</v>
+        <v>-4.198684523589161</v>
       </c>
       <c r="L62" t="n">
-        <v>145.131648960511</v>
+        <v>145.1315356745994</v>
       </c>
       <c r="M62" t="n">
-        <v>-4.176349555176529</v>
+        <v>-4.176356923787798</v>
       </c>
       <c r="N62" t="n">
-        <v>143.9342321435211</v>
+        <v>143.9343210861963</v>
       </c>
       <c r="O62" t="n">
-        <v>-5.350090565102618</v>
+        <v>-5.35005368667235</v>
       </c>
       <c r="P62" t="n">
-        <v>160.7840423409811</v>
+        <v>160.7837270449095</v>
       </c>
       <c r="Q62" t="n">
-        <v>-1.736752339972429</v>
+        <v>-1.736808805662671</v>
       </c>
     </row>
     <row r="63">
@@ -3759,49 +3759,49 @@
         <v>42794</v>
       </c>
       <c r="B63" t="n">
-        <v>150.013363741953</v>
+        <v>150.0133630728238</v>
       </c>
       <c r="C63" t="n">
         <v>-0</v>
       </c>
       <c r="D63" t="n">
-        <v>121.8878057700669</v>
+        <v>121.887799331503</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.9631720241019146</v>
+        <v>-0.9631784277174175</v>
       </c>
       <c r="F63" t="n">
-        <v>146.5358641611288</v>
+        <v>146.5354599365501</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.502744935542127</v>
+        <v>-1.502708606346989</v>
       </c>
       <c r="H63" t="n">
-        <v>141.849839487729</v>
+        <v>141.8496272862727</v>
       </c>
       <c r="I63" t="n">
-        <v>-3.685133979922438</v>
+        <v>-3.685210294253421</v>
       </c>
       <c r="J63" t="n">
-        <v>136.1232426040366</v>
+        <v>136.1232263867007</v>
       </c>
       <c r="K63" t="n">
-        <v>-3.706209275885636</v>
+        <v>-3.706222397117647</v>
       </c>
       <c r="L63" t="n">
-        <v>145.8776875827742</v>
+        <v>145.8775774624493</v>
       </c>
       <c r="M63" t="n">
-        <v>-3.683775091438872</v>
+        <v>-3.683780023346601</v>
       </c>
       <c r="N63" t="n">
-        <v>149.5896242618123</v>
+        <v>149.589684273813</v>
       </c>
       <c r="O63" t="n">
-        <v>-1.631153493333957</v>
+        <v>-1.631136488530722</v>
       </c>
       <c r="P63" t="n">
-        <v>167.1014888042762</v>
+        <v>167.1011248985671</v>
       </c>
       <c r="Q63" t="n">
         <v>-0</v>
@@ -3812,49 +3812,49 @@
         <v>42825</v>
       </c>
       <c r="B64" t="n">
-        <v>150.1683083368694</v>
+        <v>150.1683415470459</v>
       </c>
       <c r="C64" t="n">
         <v>-0</v>
       </c>
       <c r="D64" t="n">
-        <v>121.7023890429546</v>
+        <v>121.702381036762</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.113827656885402</v>
+        <v>-1.113835332454518</v>
       </c>
       <c r="F64" t="n">
-        <v>148.3759361254415</v>
+        <v>148.3755273431618</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2659007087487928</v>
+        <v>-0.2658635750387427</v>
       </c>
       <c r="H64" t="n">
-        <v>142.0271349806899</v>
+        <v>142.026952889411</v>
       </c>
       <c r="I64" t="n">
-        <v>-3.564751808802869</v>
+        <v>-3.5648075938555</v>
       </c>
       <c r="J64" t="n">
-        <v>136.8065074593315</v>
+        <v>136.8064962877332</v>
       </c>
       <c r="K64" t="n">
-        <v>-3.222866668655068</v>
+        <v>-3.222876228802051</v>
       </c>
       <c r="L64" t="n">
-        <v>148.834509659818</v>
+        <v>148.8343161298189</v>
       </c>
       <c r="M64" t="n">
-        <v>-1.731523551767645</v>
+        <v>-1.731582181473662</v>
       </c>
       <c r="N64" t="n">
-        <v>149.7765935687295</v>
+        <v>149.7766856885829</v>
       </c>
       <c r="O64" t="n">
-        <v>-1.508204089962184</v>
+        <v>-1.508165999387371</v>
       </c>
       <c r="P64" t="n">
-        <v>167.3103458670622</v>
+        <v>167.3100172892247</v>
       </c>
       <c r="Q64" t="n">
         <v>-0</v>
@@ -3865,49 +3865,49 @@
         <v>42855</v>
       </c>
       <c r="B65" t="n">
-        <v>151.744087704662</v>
+        <v>151.7441221671056</v>
       </c>
       <c r="C65" t="n">
         <v>-0</v>
       </c>
       <c r="D65" t="n">
-        <v>122.9993278502425</v>
+        <v>122.9993165128969</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.06003310589526178</v>
+        <v>-0.06004350057965594</v>
       </c>
       <c r="F65" t="n">
-        <v>151.7804957226879</v>
+        <v>151.7800710982692</v>
       </c>
       <c r="G65" t="n">
         <v>-0</v>
       </c>
       <c r="H65" t="n">
-        <v>144.4429355227309</v>
+        <v>144.4427657414477</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.924443251682223</v>
+        <v>-1.924489524194436</v>
       </c>
       <c r="J65" t="n">
-        <v>139.4552429858252</v>
+        <v>139.4552299744</v>
       </c>
       <c r="K65" t="n">
-        <v>-1.349147092244204</v>
+        <v>-1.349157985975585</v>
       </c>
       <c r="L65" t="n">
-        <v>152.893267688659</v>
+        <v>152.8930341767749</v>
       </c>
       <c r="M65" t="n">
         <v>-0</v>
       </c>
       <c r="N65" t="n">
-        <v>153.9058452610189</v>
+        <v>153.9059399205619</v>
       </c>
       <c r="O65" t="n">
         <v>-0</v>
       </c>
       <c r="P65" t="n">
-        <v>168.9711319432123</v>
+        <v>168.9707642325679</v>
       </c>
       <c r="Q65" t="n">
         <v>-0</v>
@@ -3918,49 +3918,49 @@
         <v>42886</v>
       </c>
       <c r="B66" t="n">
-        <v>153.452362532153</v>
+        <v>153.4523913787818</v>
       </c>
       <c r="C66" t="n">
         <v>-0</v>
       </c>
       <c r="D66" t="n">
-        <v>124.2571352892629</v>
+        <v>124.2571164412306</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
       </c>
       <c r="F66" t="n">
-        <v>154.9097298188749</v>
+        <v>154.9093061788397</v>
       </c>
       <c r="G66" t="n">
         <v>-0</v>
       </c>
       <c r="H66" t="n">
-        <v>149.3692291126972</v>
+        <v>149.3690207562121</v>
       </c>
       <c r="I66" t="n">
         <v>-0</v>
       </c>
       <c r="J66" t="n">
-        <v>142.2731458017921</v>
+        <v>142.2731277563289</v>
       </c>
       <c r="K66" t="n">
         <v>-0</v>
       </c>
       <c r="L66" t="n">
-        <v>158.85191867275</v>
+        <v>158.8517680341528</v>
       </c>
       <c r="M66" t="n">
         <v>-0</v>
       </c>
       <c r="N66" t="n">
-        <v>157.1013110744308</v>
+        <v>157.1013692397323</v>
       </c>
       <c r="O66" t="n">
         <v>-0</v>
       </c>
       <c r="P66" t="n">
-        <v>171.3557850171686</v>
+        <v>171.3554124534855</v>
       </c>
       <c r="Q66" t="n">
         <v>-0</v>
@@ -3971,49 +3971,49 @@
         <v>42916</v>
       </c>
       <c r="B67" t="n">
-        <v>153.5734012490445</v>
+        <v>153.573405747618</v>
       </c>
       <c r="C67" t="n">
         <v>-0</v>
       </c>
       <c r="D67" t="n">
-        <v>124.4140799604776</v>
+        <v>124.4140685233912</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
       </c>
       <c r="F67" t="n">
-        <v>154.655232772721</v>
+        <v>154.6547997475363</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1642873216882573</v>
+        <v>-0.1642938294550248</v>
       </c>
       <c r="H67" t="n">
-        <v>150.753352782917</v>
+        <v>150.7531268602753</v>
       </c>
       <c r="I67" t="n">
         <v>-0</v>
       </c>
       <c r="J67" t="n">
-        <v>142.4743313105995</v>
+        <v>142.4743030385037</v>
       </c>
       <c r="K67" t="n">
         <v>-0</v>
       </c>
       <c r="L67" t="n">
-        <v>155.1698676326512</v>
+        <v>155.1696673834173</v>
       </c>
       <c r="M67" t="n">
-        <v>-2.31791411200023</v>
+        <v>-2.317947540844436</v>
       </c>
       <c r="N67" t="n">
-        <v>158.9727159707211</v>
+        <v>158.9728137466349</v>
       </c>
       <c r="O67" t="n">
         <v>-0</v>
       </c>
       <c r="P67" t="n">
-        <v>172.4481581056112</v>
+        <v>172.4478190717447</v>
       </c>
       <c r="Q67" t="n">
         <v>-0</v>
@@ -4024,49 +4024,49 @@
         <v>42947</v>
       </c>
       <c r="B68" t="n">
-        <v>155.4803892997872</v>
+        <v>155.480422643142</v>
       </c>
       <c r="C68" t="n">
         <v>-0</v>
       </c>
       <c r="D68" t="n">
-        <v>125.7266546243195</v>
+        <v>125.7266649553181</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
       </c>
       <c r="F68" t="n">
-        <v>158.9429659655699</v>
+        <v>158.9425315039014</v>
       </c>
       <c r="G68" t="n">
         <v>-0</v>
       </c>
       <c r="H68" t="n">
-        <v>159.5312328758932</v>
+        <v>159.5309937985068</v>
       </c>
       <c r="I68" t="n">
         <v>-0</v>
       </c>
       <c r="J68" t="n">
-        <v>146.6749572309585</v>
+        <v>146.6749285692297</v>
       </c>
       <c r="K68" t="n">
         <v>-0</v>
       </c>
       <c r="L68" t="n">
-        <v>159.6387315767682</v>
+        <v>159.6384746898657</v>
       </c>
       <c r="M68" t="n">
         <v>-0</v>
       </c>
       <c r="N68" t="n">
-        <v>164.721718681538</v>
+        <v>164.7218071734974</v>
       </c>
       <c r="O68" t="n">
         <v>-0</v>
       </c>
       <c r="P68" t="n">
-        <v>177.0238576524728</v>
+        <v>177.0235331142226</v>
       </c>
       <c r="Q68" t="n">
         <v>-0</v>
@@ -4077,52 +4077,52 @@
         <v>42978</v>
       </c>
       <c r="B69" t="n">
-        <v>156.8041099968275</v>
+        <v>156.8041268778307</v>
       </c>
       <c r="C69" t="n">
         <v>-0</v>
       </c>
       <c r="D69" t="n">
-        <v>127.6919655324099</v>
+        <v>127.6919716303871</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
       </c>
       <c r="F69" t="n">
-        <v>160.9504747436893</v>
+        <v>160.9500103541946</v>
       </c>
       <c r="G69" t="n">
         <v>-0</v>
       </c>
       <c r="H69" t="n">
-        <v>163.282751013231</v>
+        <v>163.2825063137283</v>
       </c>
       <c r="I69" t="n">
         <v>-0</v>
       </c>
       <c r="J69" t="n">
-        <v>147.5719970439646</v>
+        <v>147.5719600602565</v>
       </c>
       <c r="K69" t="n">
         <v>-0</v>
       </c>
       <c r="L69" t="n">
-        <v>164.4268237960263</v>
+        <v>164.4264925313237</v>
       </c>
       <c r="M69" t="n">
         <v>-0</v>
       </c>
       <c r="N69" t="n">
-        <v>166.2655633011744</v>
+        <v>166.2656783824114</v>
       </c>
       <c r="O69" t="n">
         <v>-0</v>
       </c>
       <c r="P69" t="n">
-        <v>176.9445150819987</v>
+        <v>176.9441672082738</v>
       </c>
       <c r="Q69" t="n">
-        <v>-0.04482026972314251</v>
+        <v>-0.04483353402372749</v>
       </c>
     </row>
     <row r="70">
@@ -4130,49 +4130,49 @@
         <v>43008</v>
       </c>
       <c r="B70" t="n">
-        <v>157.3464051245059</v>
+        <v>157.346399522248</v>
       </c>
       <c r="C70" t="n">
         <v>-0</v>
       </c>
       <c r="D70" t="n">
-        <v>127.3671613228242</v>
+        <v>127.3671526246099</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.2543654240353995</v>
+        <v>-0.2543769992974943</v>
       </c>
       <c r="F70" t="n">
-        <v>158.3417888669836</v>
+        <v>158.3413395316578</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.620800361639189</v>
+        <v>-1.620795684819172</v>
       </c>
       <c r="H70" t="n">
-        <v>163.2099081065505</v>
+        <v>163.2096635162119</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.04461151360356825</v>
+        <v>-0.04461151360355929</v>
       </c>
       <c r="J70" t="n">
-        <v>147.3734089407567</v>
+        <v>147.3733654292755</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.1345703163105762</v>
+        <v>-0.1345747734867762</v>
       </c>
       <c r="L70" t="n">
-        <v>163.6126382457955</v>
+        <v>163.6123905685424</v>
       </c>
       <c r="M70" t="n">
-        <v>-0.4951658929085769</v>
+        <v>-0.4951160547478076</v>
       </c>
       <c r="N70" t="n">
-        <v>169.6781719256686</v>
+        <v>169.6782891058251</v>
       </c>
       <c r="O70" t="n">
         <v>-0</v>
       </c>
       <c r="P70" t="n">
-        <v>181.1234430477179</v>
+        <v>181.1231339411265</v>
       </c>
       <c r="Q70" t="n">
         <v>-0</v>
@@ -4183,49 +4183,49 @@
         <v>43039</v>
       </c>
       <c r="B71" t="n">
-        <v>159.1545265599432</v>
+        <v>159.1545312508181</v>
       </c>
       <c r="C71" t="n">
         <v>-0</v>
       </c>
       <c r="D71" t="n">
-        <v>128.4648454688881</v>
+        <v>128.4648211785723</v>
       </c>
       <c r="E71" t="n">
         <v>-0</v>
       </c>
       <c r="F71" t="n">
-        <v>161.2872284333812</v>
+        <v>161.2867745255424</v>
       </c>
       <c r="G71" t="n">
         <v>-0</v>
       </c>
       <c r="H71" t="n">
-        <v>166.1049393553155</v>
+        <v>166.1046234838861</v>
       </c>
       <c r="I71" t="n">
         <v>-0</v>
       </c>
       <c r="J71" t="n">
-        <v>151.1382067614059</v>
+        <v>151.1381791458242</v>
       </c>
       <c r="K71" t="n">
         <v>-0</v>
       </c>
       <c r="L71" t="n">
-        <v>166.5148131560664</v>
+        <v>166.514493977783</v>
       </c>
       <c r="M71" t="n">
         <v>-0</v>
       </c>
       <c r="N71" t="n">
-        <v>172.1879802761022</v>
+        <v>172.1880477204354</v>
       </c>
       <c r="O71" t="n">
         <v>-0</v>
       </c>
       <c r="P71" t="n">
-        <v>184.1650648592846</v>
+        <v>184.1647380271196</v>
       </c>
       <c r="Q71" t="n">
         <v>-0</v>
@@ -4236,49 +4236,49 @@
         <v>43069</v>
       </c>
       <c r="B72" t="n">
-        <v>161.5344953068706</v>
+        <v>161.5344719674329</v>
       </c>
       <c r="C72" t="n">
         <v>-0</v>
       </c>
       <c r="D72" t="n">
-        <v>130.3777985955367</v>
+        <v>130.3777780910249</v>
       </c>
       <c r="E72" t="n">
         <v>-0</v>
       </c>
       <c r="F72" t="n">
-        <v>163.2627768507712</v>
+        <v>163.2622682948363</v>
       </c>
       <c r="G72" t="n">
         <v>-0</v>
       </c>
       <c r="H72" t="n">
-        <v>165.4589475536446</v>
+        <v>165.4585720846777</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.3889058351774835</v>
+        <v>-0.3889424542544543</v>
       </c>
       <c r="J72" t="n">
-        <v>153.8698785140874</v>
+        <v>153.8698288941492</v>
       </c>
       <c r="K72" t="n">
         <v>-0</v>
       </c>
       <c r="L72" t="n">
-        <v>169.7980989444475</v>
+        <v>169.7977209530456</v>
       </c>
       <c r="M72" t="n">
         <v>-0</v>
       </c>
       <c r="N72" t="n">
-        <v>173.6791096259799</v>
+        <v>173.6792164470375</v>
       </c>
       <c r="O72" t="n">
         <v>-0</v>
       </c>
       <c r="P72" t="n">
-        <v>185.4346516986599</v>
+        <v>185.4343106247501</v>
       </c>
       <c r="Q72" t="n">
         <v>-0</v>
@@ -4289,49 +4289,49 @@
         <v>43100</v>
       </c>
       <c r="B73" t="n">
-        <v>162.7299252640249</v>
+        <v>162.7299468021878</v>
       </c>
       <c r="C73" t="n">
         <v>-0</v>
       </c>
       <c r="D73" t="n">
-        <v>131.9840722323167</v>
+        <v>131.9840846767386</v>
       </c>
       <c r="E73" t="n">
         <v>-0</v>
       </c>
       <c r="F73" t="n">
-        <v>164.1254283842918</v>
+        <v>164.1249326843709</v>
       </c>
       <c r="G73" t="n">
         <v>-0</v>
       </c>
       <c r="H73" t="n">
-        <v>167.4655669040335</v>
+        <v>167.465239041533</v>
       </c>
       <c r="I73" t="n">
         <v>-0</v>
       </c>
       <c r="J73" t="n">
-        <v>156.357854098461</v>
+        <v>156.3578158082679</v>
       </c>
       <c r="K73" t="n">
         <v>-0</v>
       </c>
       <c r="L73" t="n">
-        <v>170.8221310566769</v>
+        <v>170.8217681692784</v>
       </c>
       <c r="M73" t="n">
         <v>-0</v>
       </c>
       <c r="N73" t="n">
-        <v>175.7854197850048</v>
+        <v>175.7855826530653</v>
       </c>
       <c r="O73" t="n">
         <v>-0</v>
       </c>
       <c r="P73" t="n">
-        <v>187.9359218281996</v>
+        <v>187.9355405995876</v>
       </c>
       <c r="Q73" t="n">
         <v>-0</v>
@@ -4342,49 +4342,49 @@
         <v>43131</v>
       </c>
       <c r="B74" t="n">
-        <v>165.5660471399014</v>
+        <v>165.5661162064957</v>
       </c>
       <c r="C74" t="n">
         <v>-0</v>
       </c>
       <c r="D74" t="n">
-        <v>134.7365284149926</v>
+        <v>134.736521126346</v>
       </c>
       <c r="E74" t="n">
         <v>-0</v>
       </c>
       <c r="F74" t="n">
-        <v>175.0808721866921</v>
+        <v>175.0803148888365</v>
       </c>
       <c r="G74" t="n">
         <v>-0</v>
       </c>
       <c r="H74" t="n">
-        <v>181.3617935333675</v>
+        <v>181.3614670110851</v>
       </c>
       <c r="I74" t="n">
         <v>-0</v>
       </c>
       <c r="J74" t="n">
-        <v>166.0234247177587</v>
+        <v>166.0233814991253</v>
       </c>
       <c r="K74" t="n">
         <v>-0</v>
       </c>
       <c r="L74" t="n">
-        <v>185.4448964425024</v>
+        <v>185.4444173586011</v>
       </c>
       <c r="M74" t="n">
         <v>-0</v>
       </c>
       <c r="N74" t="n">
-        <v>183.5699119996528</v>
+        <v>183.5701078076883</v>
       </c>
       <c r="O74" t="n">
         <v>-0</v>
       </c>
       <c r="P74" t="n">
-        <v>197.3714742105846</v>
+        <v>197.3710391944398</v>
       </c>
       <c r="Q74" t="n">
         <v>-0</v>
@@ -4395,52 +4395,52 @@
         <v>43159</v>
       </c>
       <c r="B75" t="n">
-        <v>161.6982115189438</v>
+        <v>161.6982055340335</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.336128504468855</v>
+        <v>-2.336172860175158</v>
       </c>
       <c r="D75" t="n">
-        <v>131.2104305791095</v>
+        <v>131.2104248686404</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.617031830464398</v>
+        <v>-2.617030800727869</v>
       </c>
       <c r="F75" t="n">
-        <v>172.1781104046642</v>
+        <v>172.1775721482568</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.657954832971482</v>
+        <v>-1.657949234568585</v>
       </c>
       <c r="H75" t="n">
-        <v>181.1793537102761</v>
+        <v>181.1789748794315</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.1005944083023547</v>
+        <v>-0.1006234315707458</v>
       </c>
       <c r="J75" t="n">
-        <v>162.5951358463589</v>
+        <v>162.5950578363373</v>
       </c>
       <c r="K75" t="n">
-        <v>-2.0649428700967</v>
+        <v>-2.064964363351474</v>
       </c>
       <c r="L75" t="n">
-        <v>181.6155652754547</v>
+        <v>181.6150562263212</v>
       </c>
       <c r="M75" t="n">
-        <v>-2.064942870096703</v>
+        <v>-2.064964363351478</v>
       </c>
       <c r="N75" t="n">
-        <v>176.8952191143112</v>
+        <v>176.8953970297962</v>
       </c>
       <c r="O75" t="n">
-        <v>-3.636049509766186</v>
+        <v>-3.636055378299762</v>
       </c>
       <c r="P75" t="n">
-        <v>187.8289884808129</v>
+        <v>187.8286426996261</v>
       </c>
       <c r="Q75" t="n">
-        <v>-4.834784645520945</v>
+        <v>-4.834750089861482</v>
       </c>
     </row>
     <row r="76">
@@ -4448,52 +4448,52 @@
         <v>43190</v>
       </c>
       <c r="B76" t="n">
-        <v>160.3395170246798</v>
+        <v>160.3395342934306</v>
       </c>
       <c r="C76" t="n">
-        <v>-3.156764448694738</v>
+        <v>-3.156794417129702</v>
       </c>
       <c r="D76" t="n">
-        <v>130.6125412712953</v>
+        <v>130.6125367942991</v>
       </c>
       <c r="E76" t="n">
-        <v>-3.060778834226221</v>
+        <v>-3.06077691302403</v>
       </c>
       <c r="F76" t="n">
-        <v>172.4656774640126</v>
+        <v>172.4651383296057</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.493706702517949</v>
+        <v>-1.493701082780899</v>
       </c>
       <c r="H76" t="n">
-        <v>181.6271397990187</v>
+        <v>181.6267600752843</v>
       </c>
       <c r="I76" t="n">
         <v>-0</v>
       </c>
       <c r="J76" t="n">
-        <v>164.2081156284381</v>
+        <v>164.2080695935745</v>
       </c>
       <c r="K76" t="n">
-        <v>-1.093405398910768</v>
+        <v>-1.093407379827632</v>
       </c>
       <c r="L76" t="n">
-        <v>183.4172319327955</v>
+        <v>183.4167544137238</v>
       </c>
       <c r="M76" t="n">
-        <v>-1.093405398910775</v>
+        <v>-1.093407379827648</v>
       </c>
       <c r="N76" t="n">
-        <v>172.0464401430189</v>
+        <v>172.0466344322165</v>
       </c>
       <c r="O76" t="n">
-        <v>-6.277429525953942</v>
+        <v>-6.277423657420359</v>
       </c>
       <c r="P76" t="n">
-        <v>186.2519565219467</v>
+        <v>186.2515786040183</v>
       </c>
       <c r="Q76" t="n">
-        <v>-5.633801811083369</v>
+        <v>-5.633785298899525</v>
       </c>
     </row>
     <row r="77">
@@ -4501,52 +4501,52 @@
         <v>43220</v>
       </c>
       <c r="B77" t="n">
-        <v>159.737373510455</v>
+        <v>159.7373993597513</v>
       </c>
       <c r="C77" t="n">
-        <v>-3.520452248594912</v>
+        <v>-3.520476882766749</v>
       </c>
       <c r="D77" t="n">
-        <v>130.0499931515259</v>
+        <v>130.0499909597931</v>
       </c>
       <c r="E77" t="n">
-        <v>-3.47829598891849</v>
+        <v>-3.478292394204145</v>
       </c>
       <c r="F77" t="n">
-        <v>171.6621634028347</v>
+        <v>171.6616188066803</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.952645506707287</v>
+        <v>-1.952644467384492</v>
       </c>
       <c r="H77" t="n">
-        <v>179.917928971965</v>
+        <v>179.917481380686</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.9410547503776314</v>
+        <v>-0.9410940843132228</v>
       </c>
       <c r="J77" t="n">
-        <v>164.8629817718773</v>
+        <v>164.8629306733616</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.6989633829407765</v>
+        <v>-0.6989683111410395</v>
       </c>
       <c r="L77" t="n">
-        <v>184.1487045208368</v>
+        <v>184.1482196464843</v>
       </c>
       <c r="M77" t="n">
-        <v>-0.6989633829407829</v>
+        <v>-0.6989683111410506</v>
       </c>
       <c r="N77" t="n">
-        <v>172.5802947056161</v>
+        <v>172.580464973371</v>
       </c>
       <c r="O77" t="n">
-        <v>-5.98661140833223</v>
+        <v>-5.986618935709434</v>
       </c>
       <c r="P77" t="n">
-        <v>189.0852673805365</v>
+        <v>189.0849073837684</v>
       </c>
       <c r="Q77" t="n">
-        <v>-4.198279849299361</v>
+        <v>-4.198251093215515</v>
       </c>
     </row>
     <row r="78">
@@ -4554,52 +4554,52 @@
         <v>43251</v>
       </c>
       <c r="B78" t="n">
-        <v>162.4824603933047</v>
+        <v>162.4824634252065</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.862451148568565</v>
+        <v>-1.862490255822159</v>
       </c>
       <c r="D78" t="n">
-        <v>131.8904192536933</v>
+        <v>131.8904243325003</v>
       </c>
       <c r="E78" t="n">
-        <v>-2.112351561065306</v>
+        <v>-2.112342496342843</v>
       </c>
       <c r="F78" t="n">
-        <v>175.8351227160884</v>
+        <v>175.8345972217238</v>
       </c>
       <c r="G78" t="n">
         <v>-0</v>
       </c>
       <c r="H78" t="n">
-        <v>180.5517651363581</v>
+        <v>180.5513507117204</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.5920781794232465</v>
+        <v>-0.5920985228818364</v>
       </c>
       <c r="J78" t="n">
-        <v>166.5970524636996</v>
+        <v>166.5969973834026</v>
       </c>
       <c r="K78" t="n">
         <v>-0</v>
       </c>
       <c r="L78" t="n">
-        <v>186.0856273401055</v>
+        <v>186.0851335184993</v>
       </c>
       <c r="M78" t="n">
         <v>-0</v>
       </c>
       <c r="N78" t="n">
-        <v>172.3494296940096</v>
+        <v>172.3496366375261</v>
       </c>
       <c r="O78" t="n">
-        <v>-6.112375488671822</v>
+        <v>-6.11236290274289</v>
       </c>
       <c r="P78" t="n">
-        <v>185.5035053105207</v>
+        <v>185.5031641012444</v>
       </c>
       <c r="Q78" t="n">
-        <v>-6.013011225422304</v>
+        <v>-6.012976950232209</v>
       </c>
     </row>
     <row r="79">
@@ -4607,52 +4607,52 @@
         <v>43281</v>
       </c>
       <c r="B79" t="n">
-        <v>163.1164634077275</v>
+        <v>163.1164804919755</v>
       </c>
       <c r="C79" t="n">
-        <v>-1.479520574713033</v>
+        <v>-1.479551354254775</v>
       </c>
       <c r="D79" t="n">
-        <v>131.7721315928964</v>
+        <v>131.7721362831691</v>
       </c>
       <c r="E79" t="n">
-        <v>-2.200143388707331</v>
+        <v>-2.200134617099952</v>
       </c>
       <c r="F79" t="n">
-        <v>176.8506570896146</v>
+        <v>176.8500981870247</v>
       </c>
       <c r="G79" t="n">
         <v>-0</v>
       </c>
       <c r="H79" t="n">
-        <v>180.9082109407944</v>
+        <v>180.9078391140423</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.3958267795329385</v>
+        <v>-0.3958232591629147</v>
       </c>
       <c r="J79" t="n">
-        <v>165.9611609936897</v>
+        <v>165.9611131768485</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.3816943100769302</v>
+        <v>-0.3816900763767306</v>
       </c>
       <c r="L79" t="n">
-        <v>185.3753490886774</v>
+        <v>185.3748650302468</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.3816943100769359</v>
+        <v>-0.3816900763767342</v>
       </c>
       <c r="N79" t="n">
-        <v>173.3405755024429</v>
+        <v>173.3407730339331</v>
       </c>
       <c r="O79" t="n">
-        <v>-5.572447241369939</v>
+        <v>-5.572440358574945</v>
       </c>
       <c r="P79" t="n">
-        <v>186.5702974784126</v>
+        <v>186.5699428956558</v>
       </c>
       <c r="Q79" t="n">
-        <v>-5.472511554860119</v>
+        <v>-5.472482864187254</v>
       </c>
     </row>
     <row r="80">
@@ -4660,52 +4660,52 @@
         <v>43312</v>
       </c>
       <c r="B80" t="n">
-        <v>165.786159423315</v>
+        <v>165.7861674102946</v>
       </c>
       <c r="C80" t="n">
         <v>-0</v>
       </c>
       <c r="D80" t="n">
-        <v>133.1161435442816</v>
+        <v>133.116143364608</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.202632196162977</v>
+        <v>-1.202626985016629</v>
       </c>
       <c r="F80" t="n">
-        <v>177.0767366678926</v>
+        <v>177.076164187939</v>
       </c>
       <c r="G80" t="n">
         <v>-0</v>
       </c>
       <c r="H80" t="n">
-        <v>180.7995569202156</v>
+        <v>180.7991853377568</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.4556493482850847</v>
+        <v>-0.4556458184820504</v>
       </c>
       <c r="J80" t="n">
-        <v>163.5261099482827</v>
+        <v>163.5260464736185</v>
       </c>
       <c r="K80" t="n">
-        <v>-1.843335443216215</v>
+        <v>-1.843341091386328</v>
       </c>
       <c r="L80" t="n">
-        <v>182.6554450166141</v>
+        <v>182.6549497873917</v>
       </c>
       <c r="M80" t="n">
-        <v>-1.843335443216219</v>
+        <v>-1.843341091386331</v>
       </c>
       <c r="N80" t="n">
-        <v>179.7622645483457</v>
+        <v>179.7624375647281</v>
       </c>
       <c r="O80" t="n">
-        <v>-2.074221973432273</v>
+        <v>-2.07423217670561</v>
       </c>
       <c r="P80" t="n">
-        <v>193.4821035119114</v>
+        <v>193.4817015306016</v>
       </c>
       <c r="Q80" t="n">
-        <v>-1.970584003706341</v>
+        <v>-1.970571609549391</v>
       </c>
     </row>
     <row r="81">
@@ -4713,49 +4713,49 @@
         <v>43343</v>
       </c>
       <c r="B81" t="n">
-        <v>169.351328686901</v>
+        <v>169.3513532634398</v>
       </c>
       <c r="C81" t="n">
         <v>-0</v>
       </c>
       <c r="D81" t="n">
-        <v>135.1722921988127</v>
+        <v>135.1722660064099</v>
       </c>
       <c r="E81" t="n">
         <v>-0</v>
       </c>
       <c r="F81" t="n">
-        <v>184.0970859101757</v>
+        <v>184.0965252773344</v>
       </c>
       <c r="G81" t="n">
         <v>-0</v>
       </c>
       <c r="H81" t="n">
-        <v>186.5706657488442</v>
+        <v>186.5703040625235</v>
       </c>
       <c r="I81" t="n">
         <v>-0</v>
       </c>
       <c r="J81" t="n">
-        <v>167.2710063485005</v>
+        <v>167.2709628028813</v>
       </c>
       <c r="K81" t="n">
         <v>-0</v>
       </c>
       <c r="L81" t="n">
-        <v>193.2141453631089</v>
+        <v>193.2136721310476</v>
       </c>
       <c r="M81" t="n">
         <v>-0</v>
       </c>
       <c r="N81" t="n">
-        <v>185.5002630792106</v>
+        <v>185.5004632505266</v>
       </c>
       <c r="O81" t="n">
         <v>-0</v>
       </c>
       <c r="P81" t="n">
-        <v>199.6580383138533</v>
+        <v>199.6576467845418</v>
       </c>
       <c r="Q81" t="n">
         <v>-0</v>
@@ -4766,49 +4766,49 @@
         <v>43373</v>
       </c>
       <c r="B82" t="n">
-        <v>168.9169947870172</v>
+        <v>168.9170671981051</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.2564691421387066</v>
+        <v>-0.2564408591758219</v>
       </c>
       <c r="D82" t="n">
-        <v>134.5468998381318</v>
+        <v>134.5469074498203</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.4626631319983306</v>
+        <v>-0.4626382134927142</v>
       </c>
       <c r="F82" t="n">
-        <v>180.5498003256067</v>
+        <v>180.5492426022388</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.926855912482909</v>
+        <v>-1.926860199969389</v>
       </c>
       <c r="H82" t="n">
-        <v>184.3223522895753</v>
+        <v>184.3220837909467</v>
       </c>
       <c r="I82" t="n">
-        <v>-1.205073396851966</v>
+        <v>-1.20502578525217</v>
       </c>
       <c r="J82" t="n">
-        <v>168.7007681300844</v>
+        <v>168.7006806036343</v>
       </c>
       <c r="K82" t="n">
         <v>-0</v>
       </c>
       <c r="L82" t="n">
-        <v>194.865658119157</v>
+        <v>194.865130470055</v>
       </c>
       <c r="M82" t="n">
         <v>-0</v>
       </c>
       <c r="N82" t="n">
-        <v>186.6031107613601</v>
+        <v>186.6033330858688</v>
       </c>
       <c r="O82" t="n">
         <v>-0</v>
       </c>
       <c r="P82" t="n">
-        <v>200.845057680413</v>
+        <v>200.8446863863604</v>
       </c>
       <c r="Q82" t="n">
         <v>-0</v>
@@ -4819,52 +4819,52 @@
         <v>43404</v>
       </c>
       <c r="B83" t="n">
-        <v>162.4717219318507</v>
+        <v>162.4717742126492</v>
       </c>
       <c r="C83" t="n">
-        <v>-4.062328183896</v>
+        <v>-4.062311235322003</v>
       </c>
       <c r="D83" t="n">
-        <v>129.7136459433705</v>
+        <v>129.7136548397062</v>
       </c>
       <c r="E83" t="n">
-        <v>-4.038287852227608</v>
+        <v>-4.038262676194907</v>
       </c>
       <c r="F83" t="n">
-        <v>180.8641955500171</v>
+        <v>180.8636629138337</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.756079051536922</v>
+        <v>-1.756069191762621</v>
       </c>
       <c r="H83" t="n">
-        <v>184.6045893559711</v>
+        <v>184.604284863539</v>
       </c>
       <c r="I83" t="n">
-        <v>-1.053797168478666</v>
+        <v>-1.053768555967821</v>
       </c>
       <c r="J83" t="n">
-        <v>164.7817924266398</v>
+        <v>164.781759450058</v>
       </c>
       <c r="K83" t="n">
-        <v>-2.323033704519169</v>
+        <v>-2.323002574473241</v>
       </c>
       <c r="L83" t="n">
-        <v>190.3388632025159</v>
+        <v>190.338408472485</v>
       </c>
       <c r="M83" t="n">
-        <v>-2.323033704519173</v>
+        <v>-2.323002574473246</v>
       </c>
       <c r="N83" t="n">
-        <v>173.7080062224504</v>
+        <v>173.7082251135529</v>
       </c>
       <c r="O83" t="n">
-        <v>-6.91044457206332</v>
+        <v>-6.910438178712472</v>
       </c>
       <c r="P83" t="n">
-        <v>186.9657712936795</v>
+        <v>186.965438498402</v>
       </c>
       <c r="Q83" t="n">
-        <v>-6.910444572063319</v>
+        <v>-6.910438178712472</v>
       </c>
     </row>
     <row r="84">
@@ -4872,52 +4872,52 @@
         <v>43434</v>
       </c>
       <c r="B84" t="n">
-        <v>165.0715137914577</v>
+        <v>165.0715411535809</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.527181173379446</v>
+        <v>-2.527179161775713</v>
       </c>
       <c r="D84" t="n">
-        <v>131.4645798049026</v>
+        <v>131.4645777413232</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.742952962916999</v>
+        <v>-2.742935643995839</v>
       </c>
       <c r="F84" t="n">
-        <v>181.2021029312824</v>
+        <v>181.2015692268876</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.572530583295487</v>
+        <v>-1.572520744802579</v>
       </c>
       <c r="H84" t="n">
-        <v>185.3080503220633</v>
+        <v>185.3077801975943</v>
       </c>
       <c r="I84" t="n">
-        <v>-0.6767491672461492</v>
+        <v>-0.6767014028695775</v>
       </c>
       <c r="J84" t="n">
-        <v>159.4754000423578</v>
+        <v>159.4753443709128</v>
       </c>
       <c r="K84" t="n">
-        <v>-5.468480191277473</v>
+        <v>-5.468464145913355</v>
       </c>
       <c r="L84" t="n">
-        <v>184.2094682053084</v>
+        <v>184.2090006774127</v>
       </c>
       <c r="M84" t="n">
-        <v>-5.468480191277472</v>
+        <v>-5.468464145913353</v>
       </c>
       <c r="N84" t="n">
-        <v>176.8124977350382</v>
+        <v>176.8127327127454</v>
       </c>
       <c r="O84" t="n">
-        <v>-5.246757669995564</v>
+        <v>-5.246744638059647</v>
       </c>
       <c r="P84" t="n">
-        <v>190.433926045228</v>
+        <v>190.4335300413926</v>
       </c>
       <c r="Q84" t="n">
-        <v>-5.183663344980792</v>
+        <v>-5.18368523075592</v>
       </c>
     </row>
     <row r="85">
@@ -4925,52 +4925,52 @@
         <v>43465</v>
       </c>
       <c r="B85" t="n">
-        <v>159.816033979992</v>
+        <v>159.8160713432709</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.630481190105127</v>
+        <v>-5.630472822579673</v>
       </c>
       <c r="D85" t="n">
-        <v>128.8859444293248</v>
+        <v>128.8859481270201</v>
       </c>
       <c r="E85" t="n">
-        <v>-4.650618604766921</v>
+        <v>-4.65059739332305</v>
       </c>
       <c r="F85" t="n">
-        <v>174.3346626875385</v>
+        <v>174.3341660024662</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.302866785952522</v>
+        <v>-5.302848198879156</v>
       </c>
       <c r="H85" t="n">
-        <v>190.5045380813129</v>
+        <v>190.504244822282</v>
       </c>
       <c r="I85" t="n">
         <v>-0</v>
       </c>
       <c r="J85" t="n">
-        <v>159.5725597385183</v>
+        <v>159.5724994585289</v>
       </c>
       <c r="K85" t="n">
-        <v>-5.410887272621899</v>
+        <v>-5.410873929164682</v>
       </c>
       <c r="L85" t="n">
-        <v>184.3216970252766</v>
+        <v>184.321223928418</v>
       </c>
       <c r="M85" t="n">
-        <v>-5.410887272621896</v>
+        <v>-5.410873929164683</v>
       </c>
       <c r="N85" t="n">
-        <v>187.1623052578114</v>
+        <v>187.1625012692519</v>
       </c>
       <c r="O85" t="n">
         <v>-0</v>
       </c>
       <c r="P85" t="n">
-        <v>173.6664793247661</v>
+        <v>173.6661500463901</v>
       </c>
       <c r="Q85" t="n">
-        <v>-13.53211210150553</v>
+        <v>-13.53211619832826</v>
       </c>
     </row>
     <row r="86">
@@ -4978,52 +4978,52 @@
         <v>43496</v>
       </c>
       <c r="B86" t="n">
-        <v>166.7354224156491</v>
+        <v>166.7354745352089</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.544662384130597</v>
+        <v>-1.544645896133862</v>
       </c>
       <c r="D86" t="n">
-        <v>133.9687185476973</v>
+        <v>133.9687324412726</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.8903996755083656</v>
+        <v>-0.8903701925661857</v>
       </c>
       <c r="F86" t="n">
-        <v>176.6170491748587</v>
+        <v>176.6165613952355</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.063093502178827</v>
+        <v>-4.063066302218712</v>
       </c>
       <c r="H86" t="n">
-        <v>191.7478391378386</v>
+        <v>191.7475144021377</v>
       </c>
       <c r="I86" t="n">
         <v>-0</v>
       </c>
       <c r="J86" t="n">
-        <v>160.2141213555439</v>
+        <v>160.2140581751871</v>
       </c>
       <c r="K86" t="n">
-        <v>-5.030591661560448</v>
+        <v>-5.030579840034409</v>
       </c>
       <c r="L86" t="n">
-        <v>185.0627625705698</v>
+        <v>185.0622845013717</v>
       </c>
       <c r="M86" t="n">
-        <v>-5.030591661560447</v>
+        <v>-5.030579840034406</v>
       </c>
       <c r="N86" t="n">
-        <v>187.8708449075773</v>
+        <v>187.8710290829522</v>
       </c>
       <c r="O86" t="n">
         <v>-0</v>
       </c>
       <c r="P86" t="n">
-        <v>175.2482911158757</v>
+        <v>175.2480130121763</v>
       </c>
       <c r="Q86" t="n">
-        <v>-12.74453395077673</v>
+        <v>-12.74451111190682</v>
       </c>
     </row>
     <row r="87">
@@ -5031,52 +5031,52 @@
         <v>43524</v>
       </c>
       <c r="B87" t="n">
-        <v>169.1104434487163</v>
+        <v>169.1104297274736</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1422399458288852</v>
+        <v>-0.142262539580317</v>
       </c>
       <c r="D87" t="n">
-        <v>135.3792770862405</v>
+        <v>135.3792539654185</v>
       </c>
       <c r="E87" t="n">
         <v>-0</v>
       </c>
       <c r="F87" t="n">
-        <v>180.3625114082239</v>
+        <v>180.3620368805003</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.028589688689547</v>
+        <v>-2.028549094670994</v>
       </c>
       <c r="H87" t="n">
-        <v>188.8115344500993</v>
+        <v>188.811250898307</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.531336520370673</v>
+        <v>-1.531317635582314</v>
       </c>
       <c r="J87" t="n">
-        <v>162.87545882405</v>
+        <v>162.8754034544478</v>
       </c>
       <c r="K87" t="n">
-        <v>-3.453042550193064</v>
+        <v>-3.453025280243639</v>
       </c>
       <c r="L87" t="n">
-        <v>184.3540625156301</v>
+        <v>184.3535675072213</v>
       </c>
       <c r="M87" t="n">
-        <v>-5.394278142688048</v>
+        <v>-5.394275998726733</v>
       </c>
       <c r="N87" t="n">
-        <v>193.960882662818</v>
+        <v>193.9609802142819</v>
       </c>
       <c r="O87" t="n">
         <v>-0</v>
       </c>
       <c r="P87" t="n">
-        <v>175.0489038716553</v>
+        <v>175.0485719721488</v>
       </c>
       <c r="Q87" t="n">
-        <v>-12.84380811092939</v>
+        <v>-12.84381224036376</v>
       </c>
     </row>
     <row r="88">
@@ -5084,52 +5084,52 @@
         <v>43555</v>
       </c>
       <c r="B88" t="n">
-        <v>172.8475582788207</v>
+        <v>172.8475968256062</v>
       </c>
       <c r="C88" t="n">
         <v>-0</v>
       </c>
       <c r="D88" t="n">
-        <v>138.0235177002764</v>
+        <v>138.023520163579</v>
       </c>
       <c r="E88" t="n">
         <v>-0</v>
       </c>
       <c r="F88" t="n">
-        <v>181.1921306699475</v>
+        <v>181.1916791044652</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.577947432391989</v>
+        <v>-1.577892993087799</v>
       </c>
       <c r="H88" t="n">
-        <v>192.229120450977</v>
+        <v>192.2288761631344</v>
       </c>
       <c r="I88" t="n">
         <v>-0</v>
       </c>
       <c r="J88" t="n">
-        <v>167.1993799367741</v>
+        <v>167.1993407403156</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.8899711660782468</v>
+        <v>-0.8899429794514002</v>
       </c>
       <c r="L88" t="n">
-        <v>191.5891974676629</v>
+        <v>191.5887169467585</v>
       </c>
       <c r="M88" t="n">
-        <v>-1.681394599293915</v>
+        <v>-1.681374967082667</v>
       </c>
       <c r="N88" t="n">
-        <v>197.471674517971</v>
+        <v>197.4718194424381</v>
       </c>
       <c r="O88" t="n">
         <v>-0</v>
       </c>
       <c r="P88" t="n">
-        <v>178.2173791720818</v>
+        <v>178.2170824253007</v>
       </c>
       <c r="Q88" t="n">
-        <v>-11.2662361571957</v>
+        <v>-11.26621986778951</v>
       </c>
     </row>
     <row r="89">
@@ -5137,52 +5137,52 @@
         <v>43585</v>
       </c>
       <c r="B89" t="n">
-        <v>176.1276299552732</v>
+        <v>176.1276999609129</v>
       </c>
       <c r="C89" t="n">
         <v>-0</v>
       </c>
       <c r="D89" t="n">
-        <v>139.8636454595829</v>
+        <v>139.863645957401</v>
       </c>
       <c r="E89" t="n">
         <v>-0</v>
       </c>
       <c r="F89" t="n">
-        <v>184.558820382953</v>
+        <v>184.5583379999238</v>
       </c>
       <c r="G89" t="n">
         <v>-0</v>
       </c>
       <c r="H89" t="n">
-        <v>200.0821259491542</v>
+        <v>200.0818707828726</v>
       </c>
       <c r="I89" t="n">
         <v>-0</v>
       </c>
       <c r="J89" t="n">
-        <v>170.6369004496502</v>
+        <v>170.6368629678977</v>
       </c>
       <c r="K89" t="n">
         <v>-0</v>
       </c>
       <c r="L89" t="n">
-        <v>202.125213062877</v>
+        <v>202.1246553094646</v>
       </c>
       <c r="M89" t="n">
         <v>-0</v>
       </c>
       <c r="N89" t="n">
-        <v>205.5388505113156</v>
+        <v>205.5390004330574</v>
       </c>
       <c r="O89" t="n">
         <v>-0</v>
       </c>
       <c r="P89" t="n">
-        <v>185.4979725349693</v>
+        <v>185.4976628321882</v>
       </c>
       <c r="Q89" t="n">
-        <v>-7.641256062105445</v>
+        <v>-7.641239522089975</v>
       </c>
     </row>
     <row r="90">
@@ -5190,52 +5190,52 @@
         <v>43616</v>
       </c>
       <c r="B90" t="n">
-        <v>172.5970703573813</v>
+        <v>172.5971192181066</v>
       </c>
       <c r="C90" t="n">
-        <v>-2.00454613440743</v>
+        <v>-2.004557343103799</v>
       </c>
       <c r="D90" t="n">
-        <v>138.3574691334805</v>
+        <v>138.3574782171776</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.07688908089962</v>
+        <v>-1.076882938317052</v>
       </c>
       <c r="F90" t="n">
-        <v>171.5810121252979</v>
+        <v>171.5805694779017</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.031800610085498</v>
+        <v>-7.031797459092514</v>
       </c>
       <c r="H90" t="n">
-        <v>187.3226336992872</v>
+        <v>187.322418207289</v>
       </c>
       <c r="I90" t="n">
-        <v>-6.377127486694893</v>
+        <v>-6.377115790480597</v>
       </c>
       <c r="J90" t="n">
-        <v>160.5924346203269</v>
+        <v>160.5924001045159</v>
       </c>
       <c r="K90" t="n">
-        <v>-5.886455862040845</v>
+        <v>-5.886455416888178</v>
       </c>
       <c r="L90" t="n">
-        <v>185.5000524111333</v>
+        <v>185.4995710599349</v>
       </c>
       <c r="M90" t="n">
-        <v>-8.22517903621058</v>
+        <v>-8.225163933650638</v>
       </c>
       <c r="N90" t="n">
-        <v>192.4313759795218</v>
+        <v>192.4315403808449</v>
       </c>
       <c r="O90" t="n">
-        <v>-6.377127486694895</v>
+        <v>-6.377115790480606</v>
       </c>
       <c r="P90" t="n">
-        <v>173.66853034118</v>
+        <v>173.6682620847442</v>
       </c>
       <c r="Q90" t="n">
-        <v>-13.53109090813507</v>
+        <v>-13.53106462041893</v>
       </c>
     </row>
     <row r="91">
@@ -5243,52 +5243,52 @@
         <v>43646</v>
       </c>
       <c r="B91" t="n">
-        <v>179.77337652917</v>
+        <v>179.7733892634468</v>
       </c>
       <c r="C91" t="n">
         <v>-0</v>
       </c>
       <c r="D91" t="n">
-        <v>144.4685644369893</v>
+        <v>144.4685524413051</v>
       </c>
       <c r="E91" t="n">
         <v>-0</v>
       </c>
       <c r="F91" t="n">
-        <v>175.2195306465067</v>
+        <v>175.2190728947248</v>
       </c>
       <c r="G91" t="n">
-        <v>-5.060332373748159</v>
+        <v>-5.060332253968844</v>
       </c>
       <c r="H91" t="n">
-        <v>189.6026155057668</v>
+        <v>189.6023836415337</v>
       </c>
       <c r="I91" t="n">
-        <v>-5.237604505487149</v>
+        <v>-5.237599538796337</v>
       </c>
       <c r="J91" t="n">
-        <v>163.4906068254215</v>
+        <v>163.4905536468217</v>
       </c>
       <c r="K91" t="n">
-        <v>-4.188011857574327</v>
+        <v>-4.188021976482595</v>
       </c>
       <c r="L91" t="n">
-        <v>188.8477262739311</v>
+        <v>188.8472153981083</v>
       </c>
       <c r="M91" t="n">
-        <v>-6.568941394172115</v>
+        <v>-6.568936328439405</v>
       </c>
       <c r="N91" t="n">
-        <v>194.2596845880033</v>
+        <v>194.2598270529188</v>
       </c>
       <c r="O91" t="n">
-        <v>-5.487607766246288</v>
+        <v>-5.487607391480003</v>
       </c>
       <c r="P91" t="n">
-        <v>185.7535292775351</v>
+        <v>185.7531783288769</v>
       </c>
       <c r="Q91" t="n">
-        <v>-7.514015319655871</v>
+        <v>-7.514019080620485</v>
       </c>
     </row>
     <row r="92">
@@ -5296,52 +5296,52 @@
         <v>43677</v>
       </c>
       <c r="B92" t="n">
-        <v>181.235582987929</v>
+        <v>181.2355878105647</v>
       </c>
       <c r="C92" t="n">
         <v>-0</v>
       </c>
       <c r="D92" t="n">
-        <v>145.5188575894233</v>
+        <v>145.5188508464952</v>
       </c>
       <c r="E92" t="n">
         <v>-0</v>
       </c>
       <c r="F92" t="n">
-        <v>175.7668798674217</v>
+        <v>175.7664221984506</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.763760679271992</v>
+        <v>-4.7637597394688</v>
       </c>
       <c r="H92" t="n">
-        <v>192.4693047498322</v>
+        <v>192.4690905128903</v>
       </c>
       <c r="I92" t="n">
-        <v>-3.804848215805449</v>
+        <v>-3.804832611867981</v>
       </c>
       <c r="J92" t="n">
-        <v>163.2929122471713</v>
+        <v>163.2928575390126</v>
       </c>
       <c r="K92" t="n">
-        <v>-4.303868731280575</v>
+        <v>-4.303879772020188</v>
       </c>
       <c r="L92" t="n">
-        <v>193.256938994013</v>
+        <v>193.256416557691</v>
       </c>
       <c r="M92" t="n">
-        <v>-4.387515013332489</v>
+        <v>-4.387509647546898</v>
       </c>
       <c r="N92" t="n">
-        <v>197.1967862038142</v>
+        <v>197.1969524747911</v>
       </c>
       <c r="O92" t="n">
-        <v>-4.058631390974991</v>
+        <v>-4.058620476255172</v>
       </c>
       <c r="P92" t="n">
-        <v>188.5620224146506</v>
+        <v>188.5616868637615</v>
       </c>
       <c r="Q92" t="n">
-        <v>-6.115677133219442</v>
+        <v>-6.115670642623025</v>
       </c>
     </row>
     <row r="93">
@@ -5349,52 +5349,52 @@
         <v>43708</v>
       </c>
       <c r="B93" t="n">
-        <v>182.9974083913639</v>
+        <v>182.997432009635</v>
       </c>
       <c r="C93" t="n">
         <v>-0</v>
       </c>
       <c r="D93" t="n">
-        <v>149.8808943537624</v>
+        <v>149.8809024954088</v>
       </c>
       <c r="E93" t="n">
         <v>-0</v>
       </c>
       <c r="F93" t="n">
-        <v>190.8460150370034</v>
+        <v>190.8455510698073</v>
       </c>
       <c r="G93" t="n">
         <v>-0</v>
       </c>
       <c r="H93" t="n">
-        <v>199.9487552842232</v>
+        <v>199.9485591134818</v>
       </c>
       <c r="I93" t="n">
-        <v>-0.0666579607240446</v>
+        <v>-0.06662856003352575</v>
       </c>
       <c r="J93" t="n">
-        <v>173.57316980216</v>
+        <v>173.573151465037</v>
       </c>
       <c r="K93" t="n">
         <v>-0</v>
       </c>
       <c r="L93" t="n">
-        <v>205.4236097931713</v>
+        <v>205.4231015875528</v>
       </c>
       <c r="M93" t="n">
         <v>-0</v>
       </c>
       <c r="N93" t="n">
-        <v>193.8950344458555</v>
+        <v>193.8951979328849</v>
       </c>
       <c r="O93" t="n">
-        <v>-5.66501955055895</v>
+        <v>-5.665008818589043</v>
       </c>
       <c r="P93" t="n">
-        <v>185.4048462710782</v>
+        <v>185.4045163384639</v>
       </c>
       <c r="Q93" t="n">
-        <v>-7.687623279186419</v>
+        <v>-7.687616897264895</v>
       </c>
     </row>
     <row r="94">
@@ -5402,52 +5402,52 @@
         <v>43738</v>
       </c>
       <c r="B94" t="n">
-        <v>183.782601539014</v>
+        <v>183.7826418646099</v>
       </c>
       <c r="C94" t="n">
         <v>-0</v>
       </c>
       <c r="D94" t="n">
-        <v>149.386837841885</v>
+        <v>149.3868414282865</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.329632748728696</v>
+        <v>-0.3296357700657467</v>
       </c>
       <c r="F94" t="n">
-        <v>185.47870667103</v>
+        <v>185.4782401437737</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.812376441254323</v>
+        <v>-2.812384619891105</v>
       </c>
       <c r="H94" t="n">
-        <v>198.4373035647424</v>
+        <v>198.4370183648817</v>
       </c>
       <c r="I94" t="n">
-        <v>-0.8220736243225689</v>
+        <v>-0.8220896833656096</v>
       </c>
       <c r="J94" t="n">
-        <v>170.8990479154726</v>
+        <v>170.8990018205333</v>
       </c>
       <c r="K94" t="n">
-        <v>-1.540630899196751</v>
+        <v>-1.540647053955448</v>
       </c>
       <c r="L94" t="n">
-        <v>202.2587901864524</v>
+        <v>202.2582566248003</v>
       </c>
       <c r="M94" t="n">
-        <v>-1.540630899196756</v>
+        <v>-1.540647053955456</v>
       </c>
       <c r="N94" t="n">
-        <v>197.6678068571279</v>
+        <v>197.6679948548338</v>
       </c>
       <c r="O94" t="n">
-        <v>-3.829467584647392</v>
+        <v>-3.829446266470082</v>
       </c>
       <c r="P94" t="n">
-        <v>189.0124182283842</v>
+        <v>189.0121022715579</v>
       </c>
       <c r="Q94" t="n">
-        <v>-5.891426748900694</v>
+        <v>-5.891410087912587</v>
       </c>
     </row>
     <row r="95">
@@ -5455,52 +5455,52 @@
         <v>43769</v>
       </c>
       <c r="B95" t="n">
-        <v>186.0738604736289</v>
+        <v>186.0739073639807</v>
       </c>
       <c r="C95" t="n">
         <v>-0</v>
       </c>
       <c r="D95" t="n">
-        <v>151.0513489730896</v>
+        <v>151.0513434556098</v>
       </c>
       <c r="E95" t="n">
         <v>-0</v>
       </c>
       <c r="F95" t="n">
-        <v>189.6362368360087</v>
+        <v>189.6357739770378</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.6339027832255962</v>
+        <v>-0.6339037436230616</v>
       </c>
       <c r="H95" t="n">
-        <v>199.3206341300533</v>
+        <v>199.3204386162279</v>
       </c>
       <c r="I95" t="n">
-        <v>-0.3805896281282425</v>
+        <v>-0.380560299474067</v>
       </c>
       <c r="J95" t="n">
-        <v>170.6255076569743</v>
+        <v>170.6254662268013</v>
       </c>
       <c r="K95" t="n">
-        <v>-1.698224528909313</v>
+        <v>-1.698238012823933</v>
       </c>
       <c r="L95" t="n">
-        <v>201.9350556634927</v>
+        <v>201.9345283892711</v>
       </c>
       <c r="M95" t="n">
-        <v>-1.698224528909324</v>
+        <v>-1.698238012823936</v>
       </c>
       <c r="N95" t="n">
-        <v>202.0372096951763</v>
+        <v>202.0374013770439</v>
       </c>
       <c r="O95" t="n">
-        <v>-1.703639388577098</v>
+        <v>-1.703617828556059</v>
       </c>
       <c r="P95" t="n">
-        <v>193.1904956288706</v>
+        <v>193.1901722370499</v>
       </c>
       <c r="Q95" t="n">
-        <v>-3.811177700833692</v>
+        <v>-3.811160896029706</v>
       </c>
     </row>
     <row r="96">
@@ -5508,52 +5508,52 @@
         <v>43799</v>
       </c>
       <c r="B96" t="n">
-        <v>189.0306255461655</v>
+        <v>189.0306086742971</v>
       </c>
       <c r="C96" t="n">
         <v>-0</v>
       </c>
       <c r="D96" t="n">
-        <v>152.6586837444739</v>
+        <v>152.6586603295937</v>
       </c>
       <c r="E96" t="n">
         <v>-0</v>
       </c>
       <c r="F96" t="n">
-        <v>191.2706789748141</v>
+        <v>191.2702193639155</v>
       </c>
       <c r="G96" t="n">
         <v>-0</v>
       </c>
       <c r="H96" t="n">
-        <v>202.0001805654615</v>
+        <v>201.9999824232661</v>
       </c>
       <c r="I96" t="n">
         <v>-0</v>
       </c>
       <c r="J96" t="n">
-        <v>171.2082604750892</v>
+        <v>171.2082206942385</v>
       </c>
       <c r="K96" t="n">
-        <v>-1.362485532623693</v>
+        <v>-1.362498030851784</v>
       </c>
       <c r="L96" t="n">
-        <v>210.1526452617196</v>
+        <v>210.1520965304847</v>
       </c>
       <c r="M96" t="n">
         <v>-0</v>
       </c>
       <c r="N96" t="n">
-        <v>209.3506249261796</v>
+        <v>209.3507161266351</v>
       </c>
       <c r="O96" t="n">
         <v>-0</v>
       </c>
       <c r="P96" t="n">
-        <v>200.183674337629</v>
+        <v>200.1832365235014</v>
       </c>
       <c r="Q96" t="n">
-        <v>-0.3293002827266123</v>
+        <v>-0.3293340116484468</v>
       </c>
     </row>
     <row r="97">
@@ -5561,49 +5561,49 @@
         <v>43830</v>
       </c>
       <c r="B97" t="n">
-        <v>191.1826182288294</v>
+        <v>191.1826949208331</v>
       </c>
       <c r="C97" t="n">
         <v>-0</v>
       </c>
       <c r="D97" t="n">
-        <v>154.3346378275269</v>
+        <v>154.3346166757991</v>
       </c>
       <c r="E97" t="n">
         <v>-0</v>
       </c>
       <c r="F97" t="n">
-        <v>196.2666374353522</v>
+        <v>196.2662044019836</v>
       </c>
       <c r="G97" t="n">
         <v>-0</v>
       </c>
       <c r="H97" t="n">
-        <v>207.8693124700888</v>
+        <v>207.8692344466566</v>
       </c>
       <c r="I97" t="n">
         <v>-0</v>
       </c>
       <c r="J97" t="n">
-        <v>174.5649647415287</v>
+        <v>174.5649329987087</v>
       </c>
       <c r="K97" t="n">
         <v>-0</v>
       </c>
       <c r="L97" t="n">
-        <v>218.3199360765295</v>
+        <v>218.3193978441358</v>
       </c>
       <c r="M97" t="n">
         <v>-0</v>
       </c>
       <c r="N97" t="n">
-        <v>215.4333245978748</v>
+        <v>215.43354890456</v>
       </c>
       <c r="O97" t="n">
         <v>-0</v>
       </c>
       <c r="P97" t="n">
-        <v>206.0000275040053</v>
+        <v>205.9997017128523</v>
       </c>
       <c r="Q97" t="n">
         <v>-0</v>
@@ -5614,52 +5614,52 @@
         <v>43861</v>
       </c>
       <c r="B98" t="n">
-        <v>194.4570783579326</v>
+        <v>194.4570696615263</v>
       </c>
       <c r="C98" t="n">
         <v>-0</v>
       </c>
       <c r="D98" t="n">
-        <v>158.0639728120961</v>
+        <v>158.0639625052968</v>
       </c>
       <c r="E98" t="n">
         <v>-0</v>
       </c>
       <c r="F98" t="n">
-        <v>188.3213374371324</v>
+        <v>188.3209170281076</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.048217313977707</v>
+        <v>-4.04821981353592</v>
       </c>
       <c r="H98" t="n">
-        <v>195.0830810790778</v>
+        <v>195.0830067193893</v>
       </c>
       <c r="I98" t="n">
-        <v>-6.151091394431214</v>
+        <v>-6.151091940711648</v>
       </c>
       <c r="J98" t="n">
-        <v>168.7592124661799</v>
+        <v>168.7591776473959</v>
       </c>
       <c r="K98" t="n">
-        <v>-3.325840488064216</v>
+        <v>-3.32584285490814</v>
       </c>
       <c r="L98" t="n">
-        <v>224.9534242869928</v>
+        <v>224.9528687338457</v>
       </c>
       <c r="M98" t="n">
         <v>-0</v>
       </c>
       <c r="N98" t="n">
-        <v>207.308544583774</v>
+        <v>207.3087604310322</v>
       </c>
       <c r="O98" t="n">
-        <v>-3.771366398056759</v>
+        <v>-3.771366398056771</v>
       </c>
       <c r="P98" t="n">
-        <v>205.916895079209</v>
+        <v>205.9164878537775</v>
       </c>
       <c r="Q98" t="n">
-        <v>-0.04035554062958708</v>
+        <v>-0.04039513571279515</v>
       </c>
     </row>
     <row r="99">
@@ -5667,52 +5667,52 @@
         <v>43890</v>
       </c>
       <c r="B99" t="n">
-        <v>189.8218049365015</v>
+        <v>189.8218302759761</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.383700022942352</v>
+        <v>-2.38368262651407</v>
       </c>
       <c r="D99" t="n">
-        <v>154.9335007587248</v>
+        <v>154.9335069505705</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.980509535270736</v>
+        <v>-1.980499226458037</v>
       </c>
       <c r="F99" t="n">
-        <v>194.1447794977812</v>
+        <v>194.1443391424311</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.081109843882597</v>
+        <v>-1.081115959835145</v>
       </c>
       <c r="H99" t="n">
-        <v>197.2120881658094</v>
+        <v>197.2120007510595</v>
       </c>
       <c r="I99" t="n">
-        <v>-5.126886781719111</v>
+        <v>-5.126893223985926</v>
       </c>
       <c r="J99" t="n">
-        <v>174.7667713845403</v>
+        <v>174.7667232733085</v>
       </c>
       <c r="K99" t="n">
         <v>-0</v>
       </c>
       <c r="L99" t="n">
-        <v>232.9614075581985</v>
+        <v>232.960816161879</v>
       </c>
       <c r="M99" t="n">
         <v>-0</v>
       </c>
       <c r="N99" t="n">
-        <v>190.8967902761437</v>
+        <v>190.8970473849422</v>
       </c>
       <c r="O99" t="n">
-        <v>-11.38938665479479</v>
+        <v>-11.38935957021617</v>
       </c>
       <c r="P99" t="n">
-        <v>189.6153118684677</v>
+        <v>189.614994838777</v>
       </c>
       <c r="Q99" t="n">
-        <v>-7.953744392203567</v>
+        <v>-7.953752718008484</v>
       </c>
     </row>
     <row r="100">
@@ -5720,52 +5720,52 @@
         <v>43921</v>
       </c>
       <c r="B100" t="n">
-        <v>182.6255232400185</v>
+        <v>182.6255399394119</v>
       </c>
       <c r="C100" t="n">
-        <v>-6.084404444324754</v>
+        <v>-6.084391656579275</v>
       </c>
       <c r="D100" t="n">
-        <v>149.4868447088262</v>
+        <v>149.4868503867244</v>
       </c>
       <c r="E100" t="n">
-        <v>-5.426365003153662</v>
+        <v>-5.426355244184731</v>
       </c>
       <c r="F100" t="n">
-        <v>201.1205685585862</v>
+        <v>201.120128530554</v>
       </c>
       <c r="G100" t="n">
         <v>-0</v>
       </c>
       <c r="H100" t="n">
-        <v>204.5536355934085</v>
+        <v>204.5535326582413</v>
       </c>
       <c r="I100" t="n">
-        <v>-1.595077617412822</v>
+        <v>-1.595090200453001</v>
       </c>
       <c r="J100" t="n">
-        <v>176.9731769637086</v>
+        <v>176.9731440053608</v>
       </c>
       <c r="K100" t="n">
         <v>-0</v>
       </c>
       <c r="L100" t="n">
-        <v>235.9025121245599</v>
+        <v>235.9019342701104</v>
       </c>
       <c r="M100" t="n">
         <v>-0</v>
       </c>
       <c r="N100" t="n">
-        <v>203.0696136249922</v>
+        <v>203.0699276919501</v>
       </c>
       <c r="O100" t="n">
-        <v>-5.738996506673493</v>
+        <v>-5.738948866356545</v>
       </c>
       <c r="P100" t="n">
-        <v>165.9377961094339</v>
+        <v>165.9375212144815</v>
       </c>
       <c r="Q100" t="n">
-        <v>-19.44768254644648</v>
+        <v>-19.44768859627497</v>
       </c>
     </row>
     <row r="101">
@@ -5773,52 +5773,52 @@
         <v>43951</v>
       </c>
       <c r="B101" t="n">
-        <v>192.6941281049475</v>
+        <v>192.6941715765747</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.9066012242249381</v>
+        <v>-0.9065744372370517</v>
       </c>
       <c r="D101" t="n">
-        <v>159.0165311947642</v>
+        <v>159.0165368735469</v>
       </c>
       <c r="E101" t="n">
         <v>-0</v>
       </c>
       <c r="F101" t="n">
-        <v>205.8785863153034</v>
+        <v>205.8781352999214</v>
       </c>
       <c r="G101" t="n">
         <v>-0</v>
       </c>
       <c r="H101" t="n">
-        <v>205.116675666978</v>
+        <v>205.1166388228514</v>
       </c>
       <c r="I101" t="n">
-        <v>-1.324215089953169</v>
+        <v>-1.324195776798141</v>
       </c>
       <c r="J101" t="n">
-        <v>179.6412336975897</v>
+        <v>179.6412312513309</v>
       </c>
       <c r="K101" t="n">
         <v>-0</v>
       </c>
       <c r="L101" t="n">
-        <v>239.4589905514713</v>
+        <v>239.4584453196441</v>
       </c>
       <c r="M101" t="n">
         <v>-0</v>
       </c>
       <c r="N101" t="n">
-        <v>205.5449543941723</v>
+        <v>205.545311359799</v>
       </c>
       <c r="O101" t="n">
-        <v>-4.589990997056761</v>
+        <v>-4.589924640354725</v>
       </c>
       <c r="P101" t="n">
-        <v>168.7904038904807</v>
+        <v>168.7901013226392</v>
       </c>
       <c r="Q101" t="n">
-        <v>-18.0629216725717</v>
+        <v>-18.06293896584394</v>
       </c>
     </row>
     <row r="102">
@@ -5826,52 +5826,52 @@
         <v>43982</v>
       </c>
       <c r="B102" t="n">
-        <v>197.175586953731</v>
+        <v>197.1756081539698</v>
       </c>
       <c r="C102" t="n">
         <v>-0</v>
       </c>
       <c r="D102" t="n">
-        <v>161.9596010848034</v>
+        <v>161.9595926518364</v>
       </c>
       <c r="E102" t="n">
         <v>-0</v>
       </c>
       <c r="F102" t="n">
-        <v>211.0027814221568</v>
+        <v>211.0023182767051</v>
       </c>
       <c r="G102" t="n">
         <v>-0</v>
       </c>
       <c r="H102" t="n">
-        <v>210.1630204126497</v>
+        <v>210.1629434511062</v>
       </c>
       <c r="I102" t="n">
         <v>-0</v>
       </c>
       <c r="J102" t="n">
-        <v>180.2554910812946</v>
+        <v>180.2554639930452</v>
       </c>
       <c r="K102" t="n">
         <v>-0</v>
       </c>
       <c r="L102" t="n">
-        <v>240.277786158767</v>
+        <v>240.2772062264291</v>
       </c>
       <c r="M102" t="n">
         <v>-0</v>
       </c>
       <c r="N102" t="n">
-        <v>201.9234368983388</v>
+        <v>201.9237689585098</v>
       </c>
       <c r="O102" t="n">
-        <v>-6.271029667649347</v>
+        <v>-6.270973121291934</v>
       </c>
       <c r="P102" t="n">
-        <v>169.9256211030228</v>
+        <v>169.9253283068224</v>
       </c>
       <c r="Q102" t="n">
-        <v>-17.51184542938041</v>
+        <v>-17.51185710759659</v>
       </c>
     </row>
     <row r="103">
@@ -5879,52 +5879,52 @@
         <v>44012</v>
       </c>
       <c r="B103" t="n">
-        <v>198.8332411823307</v>
+        <v>198.8332653361668</v>
       </c>
       <c r="C103" t="n">
         <v>-0</v>
       </c>
       <c r="D103" t="n">
-        <v>163.9781241002469</v>
+        <v>163.9781406523883</v>
       </c>
       <c r="E103" t="n">
         <v>-0</v>
       </c>
       <c r="F103" t="n">
-        <v>215.641967862643</v>
+        <v>215.6414947540469</v>
       </c>
       <c r="G103" t="n">
         <v>-0</v>
       </c>
       <c r="H103" t="n">
-        <v>210.2527285437854</v>
+        <v>210.2526380146747</v>
       </c>
       <c r="I103" t="n">
         <v>-0</v>
       </c>
       <c r="J103" t="n">
-        <v>181.7617670178251</v>
+        <v>181.7617439428193</v>
       </c>
       <c r="K103" t="n">
         <v>-0</v>
       </c>
       <c r="L103" t="n">
-        <v>242.2856287226896</v>
+        <v>242.285049595552</v>
       </c>
       <c r="M103" t="n">
         <v>-0</v>
       </c>
       <c r="N103" t="n">
-        <v>205.5044281030991</v>
+        <v>205.5047874456186</v>
       </c>
       <c r="O103" t="n">
-        <v>-4.608802520830443</v>
+        <v>-4.60873504123539</v>
       </c>
       <c r="P103" t="n">
-        <v>172.9391502107891</v>
+        <v>172.9388702253065</v>
       </c>
       <c r="Q103" t="n">
-        <v>-16.04896741704239</v>
+        <v>-16.04897056289434</v>
       </c>
     </row>
     <row r="104">
@@ -5932,52 +5932,52 @@
         <v>44043</v>
       </c>
       <c r="B104" t="n">
-        <v>205.1902836205845</v>
+        <v>205.1903184497868</v>
       </c>
       <c r="C104" t="n">
         <v>-0</v>
       </c>
       <c r="D104" t="n">
-        <v>172.6334742253098</v>
+        <v>172.6334711169584</v>
       </c>
       <c r="E104" t="n">
         <v>-0</v>
       </c>
       <c r="F104" t="n">
-        <v>231.6210853712946</v>
+        <v>231.6205742150115</v>
       </c>
       <c r="G104" t="n">
         <v>-0</v>
       </c>
       <c r="H104" t="n">
-        <v>227.6028899114709</v>
+        <v>227.602835291522</v>
       </c>
       <c r="I104" t="n">
         <v>-0</v>
       </c>
       <c r="J104" t="n">
-        <v>193.5319104002808</v>
+        <v>193.5318978173489</v>
       </c>
       <c r="K104" t="n">
         <v>-0</v>
       </c>
       <c r="L104" t="n">
-        <v>260.0852118634522</v>
+        <v>260.0846064052448</v>
       </c>
       <c r="M104" t="n">
         <v>-0</v>
       </c>
       <c r="N104" t="n">
-        <v>217.6070373751504</v>
+        <v>217.6074389008151</v>
       </c>
       <c r="O104" t="n">
         <v>-0</v>
       </c>
       <c r="P104" t="n">
-        <v>183.1239184036756</v>
+        <v>183.1236396187991</v>
       </c>
       <c r="Q104" t="n">
-        <v>-11.10490584759021</v>
+        <v>-11.10490059152642</v>
       </c>
     </row>
     <row r="105">
@@ -5985,52 +5985,52 @@
         <v>44074</v>
       </c>
       <c r="B105" t="n">
-        <v>210.9887825450458</v>
+        <v>210.9888091796809</v>
       </c>
       <c r="C105" t="n">
         <v>-0</v>
       </c>
       <c r="D105" t="n">
-        <v>175.4652984429823</v>
+        <v>175.4652834053322</v>
       </c>
       <c r="E105" t="n">
         <v>-0</v>
       </c>
       <c r="F105" t="n">
-        <v>243.4015631272514</v>
+        <v>243.4010021510639</v>
       </c>
       <c r="G105" t="n">
         <v>-0</v>
       </c>
       <c r="H105" t="n">
-        <v>234.1749358819279</v>
+        <v>234.1748582529784</v>
       </c>
       <c r="I105" t="n">
         <v>-0</v>
       </c>
       <c r="J105" t="n">
-        <v>200.2791350811096</v>
+        <v>200.2791089460585</v>
       </c>
       <c r="K105" t="n">
         <v>-0</v>
       </c>
       <c r="L105" t="n">
-        <v>288.5508537033689</v>
+        <v>288.5501517693952</v>
       </c>
       <c r="M105" t="n">
         <v>-0</v>
       </c>
       <c r="N105" t="n">
-        <v>232.7952866008164</v>
+        <v>232.7956936637959</v>
       </c>
       <c r="O105" t="n">
         <v>-0</v>
       </c>
       <c r="P105" t="n">
-        <v>195.9053603342533</v>
+        <v>195.9050431668751</v>
       </c>
       <c r="Q105" t="n">
-        <v>-4.900323214547023</v>
+        <v>-4.900326778166102</v>
       </c>
     </row>
     <row r="106">
@@ -6038,52 +6038,52 @@
         <v>44104</v>
       </c>
       <c r="B106" t="n">
-        <v>207.4122302937511</v>
+        <v>207.4122724788059</v>
       </c>
       <c r="C106" t="n">
-        <v>-1.695138579479306</v>
+        <v>-1.6951309952317</v>
       </c>
       <c r="D106" t="n">
-        <v>171.6975106334302</v>
+        <v>171.6975022716969</v>
       </c>
       <c r="E106" t="n">
-        <v>-2.147312228107849</v>
+        <v>-2.147308607442064</v>
       </c>
       <c r="F106" t="n">
-        <v>236.7234940317249</v>
+        <v>236.7229493591142</v>
       </c>
       <c r="G106" t="n">
-        <v>-2.743642649507237</v>
+        <v>-2.743642274654686</v>
       </c>
       <c r="H106" t="n">
-        <v>225.4065873149206</v>
+        <v>225.4065337378823</v>
       </c>
       <c r="I106" t="n">
-        <v>-3.744358265321903</v>
+        <v>-3.744349235656915</v>
       </c>
       <c r="J106" t="n">
-        <v>195.1899690947326</v>
+        <v>195.1899470934949</v>
       </c>
       <c r="K106" t="n">
-        <v>-2.541036530997581</v>
+        <v>-2.541034798559217</v>
       </c>
       <c r="L106" t="n">
-        <v>271.8765790510626</v>
+        <v>271.8759159335075</v>
       </c>
       <c r="M106" t="n">
-        <v>-5.778625998953886</v>
+        <v>-5.778626603951151</v>
       </c>
       <c r="N106" t="n">
-        <v>224.0785970456989</v>
+        <v>224.0790098874533</v>
       </c>
       <c r="O106" t="n">
-        <v>-3.744358265321905</v>
+        <v>-3.744349235656918</v>
       </c>
       <c r="P106" t="n">
-        <v>188.569961782369</v>
+        <v>188.5696741804429</v>
       </c>
       <c r="Q106" t="n">
-        <v>-8.461195822557551</v>
+        <v>-8.461190665560073</v>
       </c>
     </row>
     <row r="107">
@@ -6091,52 +6091,52 @@
         <v>44135</v>
       </c>
       <c r="B107" t="n">
-        <v>203.4258522297372</v>
+        <v>203.4258800481994</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.584517728421849</v>
+        <v>-3.584516714837178</v>
       </c>
       <c r="D107" t="n">
-        <v>168.2347113143701</v>
+        <v>168.2347114936914</v>
       </c>
       <c r="E107" t="n">
-        <v>-4.120807471775797</v>
+        <v>-4.120799152581024</v>
       </c>
       <c r="F107" t="n">
-        <v>233.3944758097243</v>
+        <v>233.3939485843845</v>
       </c>
       <c r="G107" t="n">
-        <v>-4.111348829873958</v>
+        <v>-4.111344439111494</v>
       </c>
       <c r="H107" t="n">
-        <v>228.5762804788981</v>
+        <v>228.5762056085771</v>
       </c>
       <c r="I107" t="n">
-        <v>-2.390800442389216</v>
+        <v>-2.390800056918624</v>
       </c>
       <c r="J107" t="n">
-        <v>192.7087322424369</v>
+        <v>192.7087166681515</v>
       </c>
       <c r="K107" t="n">
-        <v>-3.779925869765134</v>
+        <v>-3.779921089995474</v>
       </c>
       <c r="L107" t="n">
-        <v>263.5981549169608</v>
+        <v>263.5975412808942</v>
       </c>
       <c r="M107" t="n">
-        <v>-8.647591392004514</v>
+        <v>-8.647581827800503</v>
       </c>
       <c r="N107" t="n">
-        <v>217.991927345708</v>
+        <v>217.9923626210243</v>
       </c>
       <c r="O107" t="n">
-        <v>-6.3589600422161</v>
+        <v>-6.358936804110538</v>
       </c>
       <c r="P107" t="n">
-        <v>183.8682612961865</v>
+        <v>183.8679813062318</v>
       </c>
       <c r="Q107" t="n">
-        <v>-10.74357439461434</v>
+        <v>-10.74356915209053</v>
       </c>
     </row>
     <row r="108">
@@ -6144,52 +6144,52 @@
         <v>44165</v>
       </c>
       <c r="B108" t="n">
-        <v>214.4820129575068</v>
+        <v>214.4820677430872</v>
       </c>
       <c r="C108" t="n">
         <v>-0</v>
       </c>
       <c r="D108" t="n">
-        <v>175.556573217885</v>
+        <v>175.5565561148616</v>
       </c>
       <c r="E108" t="n">
         <v>-0</v>
       </c>
       <c r="F108" t="n">
-        <v>249.0099139474199</v>
+        <v>249.009377336352</v>
       </c>
       <c r="G108" t="n">
         <v>-0</v>
       </c>
       <c r="H108" t="n">
-        <v>228.6265764609684</v>
+        <v>228.6264607073786</v>
       </c>
       <c r="I108" t="n">
-        <v>-2.369322489643816</v>
+        <v>-2.369339555489698</v>
       </c>
       <c r="J108" t="n">
-        <v>196.975775306495</v>
+        <v>196.9757195803966</v>
       </c>
       <c r="K108" t="n">
-        <v>-1.649377891150156</v>
+        <v>-1.649392881287299</v>
       </c>
       <c r="L108" t="n">
-        <v>269.4348633294364</v>
+        <v>269.434181655824</v>
       </c>
       <c r="M108" t="n">
-        <v>-6.624825443623103</v>
+        <v>-6.624834537896341</v>
       </c>
       <c r="N108" t="n">
-        <v>246.4885818554723</v>
+        <v>246.4890376910244</v>
       </c>
       <c r="O108" t="n">
         <v>-0</v>
       </c>
       <c r="P108" t="n">
-        <v>203.8688634320852</v>
+        <v>203.8685333719337</v>
       </c>
       <c r="Q108" t="n">
-        <v>-1.034545527853715</v>
+        <v>-1.034549236333013</v>
       </c>
     </row>
     <row r="109">
@@ -6197,49 +6197,49 @@
         <v>44196</v>
       </c>
       <c r="B109" t="n">
-        <v>218.2716550221074</v>
+        <v>218.2717037562907</v>
       </c>
       <c r="C109" t="n">
         <v>-0</v>
       </c>
       <c r="D109" t="n">
-        <v>179.8262823786895</v>
+        <v>179.8262730020369</v>
       </c>
       <c r="E109" t="n">
         <v>-0</v>
       </c>
       <c r="F109" t="n">
-        <v>264.3001178412018</v>
+        <v>264.2995906386099</v>
       </c>
       <c r="G109" t="n">
         <v>-0</v>
       </c>
       <c r="H109" t="n">
-        <v>241.4983105456789</v>
+        <v>241.4982521122422</v>
       </c>
       <c r="I109" t="n">
         <v>-0</v>
       </c>
       <c r="J109" t="n">
-        <v>208.595996690302</v>
+        <v>208.5959571554317</v>
       </c>
       <c r="K109" t="n">
         <v>-0</v>
       </c>
       <c r="L109" t="n">
-        <v>284.6041142870953</v>
+        <v>284.6034694665326</v>
       </c>
       <c r="M109" t="n">
-        <v>-1.367779497312043</v>
+        <v>-1.367763031369583</v>
       </c>
       <c r="N109" t="n">
-        <v>263.535421948759</v>
+        <v>263.5359275443095</v>
       </c>
       <c r="O109" t="n">
         <v>-0</v>
       </c>
       <c r="P109" t="n">
-        <v>211.4218617254205</v>
+        <v>211.4215194370959</v>
       </c>
       <c r="Q109" t="n">
         <v>-0</v>
@@ -6250,52 +6250,52 @@
         <v>44227</v>
       </c>
       <c r="B110" t="n">
-        <v>215.9676180012258</v>
+        <v>215.9676755074723</v>
       </c>
       <c r="C110" t="n">
-        <v>-1.055582329573775</v>
+        <v>-1.055578075017422</v>
       </c>
       <c r="D110" t="n">
-        <v>176.6359177228478</v>
+        <v>176.6359237457512</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.774137024710997</v>
+        <v>-1.774128553645538</v>
       </c>
       <c r="F110" t="n">
-        <v>272.8528071489691</v>
+        <v>272.8522570898128</v>
       </c>
       <c r="G110" t="n">
         <v>-0</v>
       </c>
       <c r="H110" t="n">
-        <v>249.1634573368415</v>
+        <v>249.1633970487298</v>
       </c>
       <c r="I110" t="n">
         <v>-0</v>
       </c>
       <c r="J110" t="n">
-        <v>212.5053319277279</v>
+        <v>212.5052736442567</v>
       </c>
       <c r="K110" t="n">
         <v>-0</v>
       </c>
       <c r="L110" t="n">
-        <v>285.3479679793483</v>
+        <v>285.3473214734545</v>
       </c>
       <c r="M110" t="n">
-        <v>-1.109990035695101</v>
+        <v>-1.10997352671654</v>
       </c>
       <c r="N110" t="n">
-        <v>261.8483340151807</v>
+        <v>261.848819318583</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.6401750174996802</v>
+        <v>-0.6401814892744589</v>
       </c>
       <c r="P110" t="n">
-        <v>209.2673748617275</v>
+        <v>209.2670537510487</v>
       </c>
       <c r="Q110" t="n">
-        <v>-1.019046396673553</v>
+        <v>-1.01903802970641</v>
       </c>
     </row>
     <row r="111">
@@ -6303,49 +6303,49 @@
         <v>44255</v>
       </c>
       <c r="B111" t="n">
-        <v>216.4201959432365</v>
+        <v>216.4202447512078</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.8482361480620796</v>
+        <v>-0.8482359248682627</v>
       </c>
       <c r="D111" t="n">
-        <v>175.114400763243</v>
+        <v>175.1143830178785</v>
       </c>
       <c r="E111" t="n">
-        <v>-2.620240797462454</v>
+        <v>-2.620245587865289</v>
       </c>
       <c r="F111" t="n">
-        <v>284.1111656824356</v>
+        <v>284.1105874451759</v>
       </c>
       <c r="G111" t="n">
         <v>-0</v>
       </c>
       <c r="H111" t="n">
-        <v>249.0191895396817</v>
+        <v>249.0191292864774</v>
       </c>
       <c r="I111" t="n">
-        <v>-0.05790086503929103</v>
+        <v>-0.05790086503927989</v>
       </c>
       <c r="J111" t="n">
-        <v>208.6104272458507</v>
+        <v>208.6102992616615</v>
       </c>
       <c r="K111" t="n">
-        <v>-1.8328503320575</v>
+        <v>-1.83288363427421</v>
       </c>
       <c r="L111" t="n">
-        <v>280.1179668007195</v>
+        <v>280.1172371173278</v>
       </c>
       <c r="M111" t="n">
-        <v>-2.922495911697559</v>
+        <v>-2.922512637874788</v>
       </c>
       <c r="N111" t="n">
-        <v>272.3170866217219</v>
+        <v>272.3176261204424</v>
       </c>
       <c r="O111" t="n">
         <v>-0</v>
       </c>
       <c r="P111" t="n">
-        <v>215.0861557538032</v>
+        <v>215.0858075330501</v>
       </c>
       <c r="Q111" t="n">
         <v>-0</v>
@@ -6356,49 +6356,49 @@
         <v>44286</v>
       </c>
       <c r="B112" t="n">
-        <v>218.9464282087152</v>
+        <v>218.9464779079813</v>
       </c>
       <c r="C112" t="n">
         <v>-0</v>
       </c>
       <c r="D112" t="n">
-        <v>176.8124915556804</v>
+        <v>176.8124700323975</v>
       </c>
       <c r="E112" t="n">
-        <v>-1.675945686661356</v>
+        <v>-1.675952528697099</v>
       </c>
       <c r="F112" t="n">
-        <v>283.7424465194183</v>
+        <v>283.7418989304797</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.129779891660262</v>
+        <v>-0.129769368333485</v>
       </c>
       <c r="H112" t="n">
-        <v>248.8807066942895</v>
+        <v>248.880690974211</v>
       </c>
       <c r="I112" t="n">
-        <v>-0.1134799804008651</v>
+        <v>-0.1134621207879504</v>
       </c>
       <c r="J112" t="n">
-        <v>206.9015195212445</v>
+        <v>206.9014116369183</v>
       </c>
       <c r="K112" t="n">
-        <v>-2.637022024647</v>
+        <v>-2.637046088898284</v>
       </c>
       <c r="L112" t="n">
-        <v>277.8232792168502</v>
+        <v>277.8225810927628</v>
       </c>
       <c r="M112" t="n">
-        <v>-3.717741378629439</v>
+        <v>-3.717749102140734</v>
       </c>
       <c r="N112" t="n">
-        <v>277.6595772258372</v>
+        <v>277.6601440296352</v>
       </c>
       <c r="O112" t="n">
         <v>-0</v>
       </c>
       <c r="P112" t="n">
-        <v>224.8509198282219</v>
+        <v>224.8505557984852</v>
       </c>
       <c r="Q112" t="n">
         <v>-0</v>
@@ -6409,49 +6409,49 @@
         <v>44316</v>
       </c>
       <c r="B113" t="n">
-        <v>226.1177050147885</v>
+        <v>226.1177348741351</v>
       </c>
       <c r="C113" t="n">
         <v>-0</v>
       </c>
       <c r="D113" t="n">
-        <v>183.332219623557</v>
+        <v>183.3322202854916</v>
       </c>
       <c r="E113" t="n">
         <v>-0</v>
       </c>
       <c r="F113" t="n">
-        <v>290.7484588729851</v>
+        <v>290.7478826313121</v>
       </c>
       <c r="G113" t="n">
         <v>-0</v>
       </c>
       <c r="H113" t="n">
-        <v>249.0220820155655</v>
+        <v>249.0220885110887</v>
       </c>
       <c r="I113" t="n">
-        <v>-0.05673999020042362</v>
+        <v>-0.05671320078106184</v>
       </c>
       <c r="J113" t="n">
-        <v>214.0047750649723</v>
+        <v>214.0046617094349</v>
       </c>
       <c r="K113" t="n">
         <v>-0</v>
       </c>
       <c r="L113" t="n">
-        <v>287.3613906470618</v>
+        <v>287.3606661820856</v>
       </c>
       <c r="M113" t="n">
-        <v>-0.4122195588892159</v>
+        <v>-0.4122283700132109</v>
       </c>
       <c r="N113" t="n">
-        <v>289.5126670238375</v>
+        <v>289.5131883461094</v>
       </c>
       <c r="O113" t="n">
         <v>-0</v>
       </c>
       <c r="P113" t="n">
-        <v>236.7478818732169</v>
+        <v>236.7474985825052</v>
       </c>
       <c r="Q113" t="n">
         <v>-0</v>
@@ -6462,49 +6462,49 @@
         <v>44347</v>
       </c>
       <c r="B114" t="n">
-        <v>227.3616082814748</v>
+        <v>227.3616454634262</v>
       </c>
       <c r="C114" t="n">
         <v>-0</v>
       </c>
       <c r="D114" t="n">
-        <v>185.85336397177</v>
+        <v>185.853357135139</v>
       </c>
       <c r="E114" t="n">
         <v>-0</v>
       </c>
       <c r="F114" t="n">
-        <v>293.0682839849933</v>
+        <v>293.0677031928821</v>
       </c>
       <c r="G114" t="n">
         <v>-0</v>
       </c>
       <c r="H114" t="n">
-        <v>250.5725950673961</v>
+        <v>250.5725560976104</v>
       </c>
       <c r="I114" t="n">
         <v>-0</v>
       </c>
       <c r="J114" t="n">
-        <v>217.92759730973</v>
+        <v>217.9274594231192</v>
       </c>
       <c r="K114" t="n">
         <v>-0</v>
       </c>
       <c r="L114" t="n">
-        <v>292.628878978444</v>
+        <v>292.6281110839748</v>
       </c>
       <c r="M114" t="n">
         <v>-0</v>
       </c>
       <c r="N114" t="n">
-        <v>296.7802198224059</v>
+        <v>296.7807891984597</v>
       </c>
       <c r="O114" t="n">
         <v>-0</v>
       </c>
       <c r="P114" t="n">
-        <v>238.3023906513238</v>
+        <v>238.3020048438894</v>
       </c>
       <c r="Q114" t="n">
         <v>-0</v>
@@ -6515,49 +6515,49 @@
         <v>44377</v>
       </c>
       <c r="B115" t="n">
-        <v>231.1874878453585</v>
+        <v>231.1875145822566</v>
       </c>
       <c r="C115" t="n">
         <v>-0</v>
       </c>
       <c r="D115" t="n">
-        <v>187.6630269958766</v>
+        <v>187.6630064750036</v>
       </c>
       <c r="E115" t="n">
         <v>-0</v>
       </c>
       <c r="F115" t="n">
-        <v>295.0216853437887</v>
+        <v>295.0211092349687</v>
       </c>
       <c r="G115" t="n">
         <v>-0</v>
       </c>
       <c r="H115" t="n">
-        <v>256.1139159936075</v>
+        <v>256.1138613901997</v>
       </c>
       <c r="I115" t="n">
         <v>-0</v>
       </c>
       <c r="J115" t="n">
-        <v>222.5990688927731</v>
+        <v>222.5989334136279</v>
       </c>
       <c r="K115" t="n">
         <v>-0</v>
       </c>
       <c r="L115" t="n">
-        <v>298.9016388739367</v>
+        <v>298.9008617205358</v>
       </c>
       <c r="M115" t="n">
         <v>-0</v>
       </c>
       <c r="N115" t="n">
-        <v>296.3623961685027</v>
+        <v>296.3629647429572</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.1407855463390601</v>
+        <v>-0.1407855463390598</v>
       </c>
       <c r="P115" t="n">
-        <v>243.6469134287501</v>
+        <v>243.646483589488</v>
       </c>
       <c r="Q115" t="n">
         <v>-0</v>
@@ -6568,49 +6568,49 @@
         <v>44408</v>
       </c>
       <c r="B116" t="n">
-        <v>236.3559010625844</v>
+        <v>236.3559560744581</v>
       </c>
       <c r="C116" t="n">
         <v>-0</v>
       </c>
       <c r="D116" t="n">
-        <v>192.1165436766894</v>
+        <v>192.1165539390031</v>
       </c>
       <c r="E116" t="n">
         <v>-0</v>
       </c>
       <c r="F116" t="n">
-        <v>298.6796869122683</v>
+        <v>298.679119437205</v>
       </c>
       <c r="G116" t="n">
         <v>-0</v>
       </c>
       <c r="H116" t="n">
-        <v>262.3662687221519</v>
+        <v>262.3662694778589</v>
       </c>
       <c r="I116" t="n">
         <v>-0</v>
       </c>
       <c r="J116" t="n">
-        <v>222.9566674154665</v>
+        <v>222.9565476978688</v>
       </c>
       <c r="K116" t="n">
         <v>-0</v>
       </c>
       <c r="L116" t="n">
-        <v>307.4530642067795</v>
+        <v>307.4522374101315</v>
       </c>
       <c r="M116" t="n">
         <v>-0</v>
       </c>
       <c r="N116" t="n">
-        <v>303.5973104804932</v>
+        <v>303.5979585366684</v>
       </c>
       <c r="O116" t="n">
         <v>-0</v>
       </c>
       <c r="P116" t="n">
-        <v>249.5949168321094</v>
+        <v>249.5945304318402</v>
       </c>
       <c r="Q116" t="n">
         <v>-0</v>
@@ -6621,49 +6621,49 @@
         <v>44439</v>
       </c>
       <c r="B117" t="n">
-        <v>239.7661056966624</v>
+        <v>239.7661523937786</v>
       </c>
       <c r="C117" t="n">
         <v>-0</v>
       </c>
       <c r="D117" t="n">
-        <v>194.9446039074518</v>
+        <v>194.9445853692428</v>
       </c>
       <c r="E117" t="n">
         <v>-0</v>
       </c>
       <c r="F117" t="n">
-        <v>295.86460044903</v>
+        <v>295.8640214987062</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.9425101828451783</v>
+        <v>-0.9425158155693043</v>
       </c>
       <c r="H117" t="n">
-        <v>261.4638108148002</v>
+        <v>261.4638116728743</v>
       </c>
       <c r="I117" t="n">
-        <v>-0.3439687242369537</v>
+        <v>-0.3439686842293383</v>
       </c>
       <c r="J117" t="n">
-        <v>221.3594824417381</v>
+        <v>221.3593777471873</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.7163656472996118</v>
+        <v>-0.7163592938503222</v>
       </c>
       <c r="L117" t="n">
-        <v>305.2505760732321</v>
+        <v>305.2497747332933</v>
       </c>
       <c r="M117" t="n">
-        <v>-0.7163656472996154</v>
+        <v>-0.7163592938503153</v>
       </c>
       <c r="N117" t="n">
-        <v>312.6323304640996</v>
+        <v>312.6329756490413</v>
       </c>
       <c r="O117" t="n">
         <v>-0</v>
       </c>
       <c r="P117" t="n">
-        <v>257.0228319800257</v>
+        <v>257.0224158645217</v>
       </c>
       <c r="Q117" t="n">
         <v>-0</v>
@@ -6674,52 +6674,52 @@
         <v>44469</v>
       </c>
       <c r="B118" t="n">
-        <v>231.8724109472643</v>
+        <v>231.8724347975358</v>
       </c>
       <c r="C118" t="n">
-        <v>-3.292247970772282</v>
+        <v>-3.292256858373662</v>
       </c>
       <c r="D118" t="n">
-        <v>188.1608263117899</v>
+        <v>188.1608150062647</v>
       </c>
       <c r="E118" t="n">
-        <v>-3.479848869724227</v>
+        <v>-3.47984549051675</v>
       </c>
       <c r="F118" t="n">
-        <v>280.0243265972639</v>
+        <v>280.0237805011462</v>
       </c>
       <c r="G118" t="n">
-        <v>-6.245942102009782</v>
+        <v>-6.245946811149937</v>
       </c>
       <c r="H118" t="n">
-        <v>249.2781666050073</v>
+        <v>249.2781674230904</v>
       </c>
       <c r="I118" t="n">
-        <v>-4.988485059794391</v>
+        <v>-4.988485021651349</v>
       </c>
       <c r="J118" t="n">
-        <v>213.3937697006691</v>
+        <v>213.39366783528</v>
       </c>
       <c r="K118" t="n">
-        <v>-4.289128387884235</v>
+        <v>-4.289122683917562</v>
       </c>
       <c r="L118" t="n">
-        <v>287.9027057832194</v>
+        <v>287.9019485810534</v>
       </c>
       <c r="M118" t="n">
-        <v>-6.358810725793047</v>
+        <v>-6.358805189958225</v>
       </c>
       <c r="N118" t="n">
-        <v>298.0619532648919</v>
+        <v>298.0625683806851</v>
       </c>
       <c r="O118" t="n">
+        <v>-4.660547160166725</v>
+      </c>
+      <c r="P118" t="n">
+        <v>245.0437649609558</v>
+      </c>
+      <c r="Q118" t="n">
         <v>-4.660547160166731</v>
-      </c>
-      <c r="P118" t="n">
-        <v>245.0441616832005</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>-4.660547160166733</v>
       </c>
     </row>
     <row r="119">
@@ -6727,49 +6727,49 @@
         <v>44500</v>
       </c>
       <c r="B119" t="n">
-        <v>240.2807348653658</v>
+        <v>240.2807910921063</v>
       </c>
       <c r="C119" t="n">
         <v>-0</v>
       </c>
       <c r="D119" t="n">
-        <v>196.2738682051767</v>
+        <v>196.2738605529576</v>
       </c>
       <c r="E119" t="n">
         <v>-0</v>
       </c>
       <c r="F119" t="n">
-        <v>279.9483086526514</v>
+        <v>279.9477432030383</v>
       </c>
       <c r="G119" t="n">
-        <v>-6.271393429282281</v>
+        <v>-6.271404666473448</v>
       </c>
       <c r="H119" t="n">
-        <v>248.4418132617693</v>
+        <v>248.4417917868344</v>
       </c>
       <c r="I119" t="n">
-        <v>-5.307258257016525</v>
+        <v>-5.307266714862355</v>
       </c>
       <c r="J119" t="n">
-        <v>218.6847779189452</v>
+        <v>218.6846429385827</v>
       </c>
       <c r="K119" t="n">
-        <v>-1.916017828056659</v>
+        <v>-1.916025702494742</v>
       </c>
       <c r="L119" t="n">
-        <v>295.0411315418518</v>
+        <v>295.040314295403</v>
       </c>
       <c r="M119" t="n">
-        <v>-4.037017063710224</v>
+        <v>-4.037024813766883</v>
       </c>
       <c r="N119" t="n">
-        <v>318.9750240997905</v>
+        <v>318.9757038912288</v>
       </c>
       <c r="O119" t="n">
         <v>-0</v>
       </c>
       <c r="P119" t="n">
-        <v>262.2373185246736</v>
+        <v>262.2369116565755</v>
       </c>
       <c r="Q119" t="n">
         <v>-0</v>
@@ -6780,52 +6780,52 @@
         <v>44530</v>
       </c>
       <c r="B120" t="n">
-        <v>240.3388664350345</v>
+        <v>240.3389296279587</v>
       </c>
       <c r="C120" t="n">
         <v>-0</v>
       </c>
       <c r="D120" t="n">
-        <v>196.3108354300379</v>
+        <v>196.3108344462828</v>
       </c>
       <c r="E120" t="n">
         <v>-0</v>
       </c>
       <c r="F120" t="n">
-        <v>273.8720519322002</v>
+        <v>273.8715198568312</v>
       </c>
       <c r="G120" t="n">
-        <v>-8.305765697201529</v>
+        <v>-8.305769625649837</v>
       </c>
       <c r="H120" t="n">
-        <v>248.1471796236864</v>
+        <v>248.1471873894914</v>
       </c>
       <c r="I120" t="n">
-        <v>-5.419556853752269</v>
+        <v>-5.419554166267311</v>
       </c>
       <c r="J120" t="n">
-        <v>212.8441896285136</v>
+        <v>212.8440900151366</v>
       </c>
       <c r="K120" t="n">
-        <v>-4.535624749049967</v>
+        <v>-4.535618167373022</v>
       </c>
       <c r="L120" t="n">
-        <v>287.1612333867195</v>
+        <v>287.1604808190467</v>
       </c>
       <c r="M120" t="n">
-        <v>-6.599976771222749</v>
+        <v>-6.599970376542183</v>
       </c>
       <c r="N120" t="n">
-        <v>316.4121220360583</v>
+        <v>316.4127965383897</v>
       </c>
       <c r="O120" t="n">
-        <v>-0.8034804828262666</v>
+        <v>-0.8034804286263252</v>
       </c>
       <c r="P120" t="n">
-        <v>260.1302928516409</v>
+        <v>260.1298893947808</v>
       </c>
       <c r="Q120" t="n">
-        <v>-0.8034804828262713</v>
+        <v>-0.8034804286263161</v>
       </c>
     </row>
     <row r="121">
@@ -6833,49 +6833,49 @@
         <v>44561</v>
       </c>
       <c r="B121" t="n">
-        <v>245.9931988631059</v>
+        <v>245.9932380257732</v>
       </c>
       <c r="C121" t="n">
         <v>-0</v>
       </c>
       <c r="D121" t="n">
-        <v>201.1000072018868</v>
+        <v>201.0999888176177</v>
       </c>
       <c r="E121" t="n">
         <v>-0</v>
       </c>
       <c r="F121" t="n">
-        <v>268.8702068576162</v>
+        <v>268.8696844997724</v>
       </c>
       <c r="G121" t="n">
-        <v>-9.98041760483301</v>
+        <v>-9.980421461534348</v>
       </c>
       <c r="H121" t="n">
-        <v>246.8468117363543</v>
+        <v>246.8468030183546</v>
       </c>
       <c r="I121" t="n">
-        <v>-5.915187596860179</v>
+        <v>-5.915191190693045</v>
       </c>
       <c r="J121" t="n">
-        <v>216.4360353971651</v>
+        <v>216.4359341956937</v>
       </c>
       <c r="K121" t="n">
-        <v>-2.924618534125561</v>
+        <v>-2.924611799699762</v>
       </c>
       <c r="L121" t="n">
-        <v>292.0072142089399</v>
+        <v>292.0064490667087</v>
       </c>
       <c r="M121" t="n">
-        <v>-5.023807467227373</v>
+        <v>-5.023800923854898</v>
       </c>
       <c r="N121" t="n">
-        <v>331.0455007820804</v>
+        <v>331.0461624496454</v>
       </c>
       <c r="O121" t="n">
         <v>-0</v>
       </c>
       <c r="P121" t="n">
-        <v>272.1607582905658</v>
+        <v>272.1602999774528</v>
       </c>
       <c r="Q121" t="n">
         <v>-0</v>
@@ -6886,52 +6886,52 @@
         <v>44592</v>
       </c>
       <c r="B122" t="n">
-        <v>236.9072168354567</v>
+        <v>236.9072622993347</v>
       </c>
       <c r="C122" t="n">
-        <v>-3.69359074545209</v>
+        <v>-3.693587595886092</v>
       </c>
       <c r="D122" t="n">
-        <v>193.1892039710077</v>
+        <v>193.1891821328489</v>
       </c>
       <c r="E122" t="n">
-        <v>-3.933765762095339</v>
+        <v>-3.933767839213193</v>
       </c>
       <c r="F122" t="n">
-        <v>259.5546351373574</v>
+        <v>259.5541350161953</v>
       </c>
       <c r="G122" t="n">
-        <v>-13.09933466831415</v>
+        <v>-13.09933700579142</v>
       </c>
       <c r="H122" t="n">
-        <v>237.9803326621597</v>
+        <v>237.9802961628059</v>
       </c>
       <c r="I122" t="n">
-        <v>-9.294615568824156</v>
+        <v>-9.294629741690521</v>
       </c>
       <c r="J122" t="n">
-        <v>218.0531721038639</v>
+        <v>218.0530441459853</v>
       </c>
       <c r="K122" t="n">
-        <v>-2.199304182487271</v>
+        <v>-2.199309059327691</v>
       </c>
       <c r="L122" t="n">
-        <v>294.1889931527818</v>
+        <v>294.1881872151816</v>
       </c>
       <c r="M122" t="n">
-        <v>-4.314177543885808</v>
+        <v>-4.314182361033235</v>
       </c>
       <c r="N122" t="n">
-        <v>313.5857237488668</v>
+        <v>313.5863709013433</v>
       </c>
       <c r="O122" t="n">
-        <v>-5.274132103280553</v>
+        <v>-5.274125946395118</v>
       </c>
       <c r="P122" t="n">
-        <v>257.8066403650313</v>
+        <v>257.8062229805552</v>
       </c>
       <c r="Q122" t="n">
-        <v>-5.274132103280551</v>
+        <v>-5.274125946395122</v>
       </c>
     </row>
     <row r="123">
@@ -6939,52 +6939,52 @@
         <v>44620</v>
       </c>
       <c r="B123" t="n">
-        <v>233.10206703459</v>
+        <v>233.1021116938022</v>
       </c>
       <c r="C123" t="n">
-        <v>-5.240442373242102</v>
+        <v>-5.240439304522827</v>
       </c>
       <c r="D123" t="n">
-        <v>190.918702915896</v>
+        <v>190.9186887979935</v>
       </c>
       <c r="E123" t="n">
-        <v>-5.062806524800183</v>
+        <v>-5.062804866119521</v>
       </c>
       <c r="F123" t="n">
-        <v>259.4605195865675</v>
+        <v>259.4600377458609</v>
       </c>
       <c r="G123" t="n">
-        <v>-13.13084519779235</v>
+        <v>-13.13084147470499</v>
       </c>
       <c r="H123" t="n">
-        <v>236.951929750274</v>
+        <v>236.9518503858151</v>
       </c>
       <c r="I123" t="n">
-        <v>-9.686587797912322</v>
+        <v>-9.68661830753685</v>
       </c>
       <c r="J123" t="n">
-        <v>223.3759258326228</v>
+        <v>223.375799437454</v>
       </c>
       <c r="K123" t="n">
         <v>-0</v>
       </c>
       <c r="L123" t="n">
-        <v>301.3702487390015</v>
+        <v>301.3694294506205</v>
       </c>
       <c r="M123" t="n">
-        <v>-1.978453356277819</v>
+        <v>-1.978456234617242</v>
       </c>
       <c r="N123" t="n">
-        <v>308.4648051330849</v>
+        <v>308.4655427335802</v>
       </c>
       <c r="O123" t="n">
-        <v>-6.821024782288108</v>
+        <v>-6.820988211727089</v>
       </c>
       <c r="P123" t="n">
-        <v>250.1969646006279</v>
+        <v>250.1965595360847</v>
       </c>
       <c r="Q123" t="n">
-        <v>-8.070154502762239</v>
+        <v>-8.070148527609527</v>
       </c>
     </row>
     <row r="124">
@@ -6992,52 +6992,52 @@
         <v>44651</v>
       </c>
       <c r="B124" t="n">
-        <v>232.4780676824151</v>
+        <v>232.4780882924754</v>
       </c>
       <c r="C124" t="n">
-        <v>-5.494107659542204</v>
+        <v>-5.49411432678557</v>
       </c>
       <c r="D124" t="n">
-        <v>192.6563308669333</v>
+        <v>192.6563049761453</v>
       </c>
       <c r="E124" t="n">
-        <v>-4.198744919226574</v>
+        <v>-4.198749035799356</v>
       </c>
       <c r="F124" t="n">
-        <v>259.3664402340664</v>
+        <v>259.3659404755265</v>
       </c>
       <c r="G124" t="n">
-        <v>-13.16234360783612</v>
+        <v>-13.16234594361855</v>
       </c>
       <c r="H124" t="n">
-        <v>233.6303806422582</v>
+        <v>233.6303020881198</v>
       </c>
       <c r="I124" t="n">
-        <v>-10.95258480438473</v>
+        <v>-10.95261500151189</v>
       </c>
       <c r="J124" t="n">
-        <v>228.8107833864563</v>
+        <v>228.8106539160243</v>
       </c>
       <c r="K124" t="n">
         <v>-0</v>
       </c>
       <c r="L124" t="n">
-        <v>308.702750514896</v>
+        <v>308.701911292784</v>
       </c>
       <c r="M124" t="n">
         <v>-0</v>
       </c>
       <c r="N124" t="n">
-        <v>291.6708525041709</v>
+        <v>291.6715157159464</v>
       </c>
       <c r="O124" t="n">
-        <v>-11.89402912436164</v>
+        <v>-11.89400488510064</v>
       </c>
       <c r="P124" t="n">
-        <v>259.6019753263847</v>
+        <v>259.6015373457233</v>
       </c>
       <c r="Q124" t="n">
-        <v>-4.614472359300631</v>
+        <v>-4.614472659226902</v>
       </c>
     </row>
     <row r="125">
@@ -7045,52 +7045,52 @@
         <v>44681</v>
       </c>
       <c r="B125" t="n">
-        <v>217.3117577918247</v>
+        <v>217.31178364027</v>
       </c>
       <c r="C125" t="n">
-        <v>-11.65944473417831</v>
+        <v>-11.65944829040307</v>
       </c>
       <c r="D125" t="n">
-        <v>179.5279024524212</v>
+        <v>179.5278874415859</v>
       </c>
       <c r="E125" t="n">
-        <v>-10.72705319588034</v>
+        <v>-10.72705249904119</v>
       </c>
       <c r="F125" t="n">
-        <v>259.2911115951457</v>
+        <v>259.2906300808618</v>
       </c>
       <c r="G125" t="n">
-        <v>-13.18756415085309</v>
+        <v>-13.18756042624008</v>
       </c>
       <c r="H125" t="n">
-        <v>232.4694391360771</v>
+        <v>232.4693824231567</v>
       </c>
       <c r="I125" t="n">
-        <v>-11.39507366236009</v>
+        <v>-11.39509553350765</v>
       </c>
       <c r="J125" t="n">
-        <v>231.4480427688034</v>
+        <v>231.4479118061031</v>
       </c>
       <c r="K125" t="n">
         <v>-0</v>
       </c>
       <c r="L125" t="n">
-        <v>312.2608399244181</v>
+        <v>312.2599910294823</v>
       </c>
       <c r="M125" t="n">
         <v>-0</v>
       </c>
       <c r="N125" t="n">
-        <v>266.0711625634286</v>
+        <v>266.071785696158</v>
       </c>
       <c r="O125" t="n">
-        <v>-19.62701141237467</v>
+        <v>-19.62698382385583</v>
       </c>
       <c r="P125" t="n">
-        <v>236.8169420626832</v>
+        <v>236.8165586601644</v>
       </c>
       <c r="Q125" t="n">
-        <v>-12.98637483591541</v>
+        <v>-12.98636918030166</v>
       </c>
     </row>
     <row r="126">
@@ -7098,52 +7098,52 @@
         <v>44712</v>
       </c>
       <c r="B126" t="n">
-        <v>218.2353560339558</v>
+        <v>218.2353902791342</v>
       </c>
       <c r="C126" t="n">
-        <v>-11.28398791407125</v>
+        <v>-11.28398811666957</v>
       </c>
       <c r="D126" t="n">
-        <v>178.3404890928859</v>
+        <v>178.3404777151462</v>
       </c>
       <c r="E126" t="n">
-        <v>-11.3175123291529</v>
+        <v>-11.31750987968111</v>
       </c>
       <c r="F126" t="n">
-        <v>259.4629629710591</v>
+        <v>259.462426828316</v>
       </c>
       <c r="G126" t="n">
-        <v>-13.13002713596937</v>
+        <v>-13.13004159205513</v>
       </c>
       <c r="H126" t="n">
-        <v>233.8554677377429</v>
+        <v>233.8553891286925</v>
       </c>
       <c r="I126" t="n">
-        <v>-10.86679363291254</v>
+        <v>-10.86682385121629</v>
       </c>
       <c r="J126" t="n">
-        <v>235.0070531996236</v>
+        <v>235.0069202230907</v>
       </c>
       <c r="K126" t="n">
         <v>-0</v>
       </c>
       <c r="L126" t="n">
-        <v>317.0625205657093</v>
+        <v>317.0616586171918</v>
       </c>
       <c r="M126" t="n">
         <v>-0</v>
       </c>
       <c r="N126" t="n">
-        <v>260.0757568867006</v>
+        <v>260.0764169148223</v>
       </c>
       <c r="O126" t="n">
-        <v>-21.43806326553808</v>
+        <v>-21.43802091214941</v>
       </c>
       <c r="P126" t="n">
-        <v>238.6180533794536</v>
+        <v>238.617685004302</v>
       </c>
       <c r="Q126" t="n">
-        <v>-12.32459268624656</v>
+        <v>-12.32458039469008</v>
       </c>
     </row>
     <row r="127">
@@ -7151,52 +7151,52 @@
         <v>44742</v>
       </c>
       <c r="B127" t="n">
-        <v>208.4320395079387</v>
+        <v>208.4320551221938</v>
       </c>
       <c r="C127" t="n">
-        <v>-15.26918611114521</v>
+        <v>-15.26919325304546</v>
       </c>
       <c r="D127" t="n">
-        <v>169.5182073138418</v>
+        <v>169.5181974723254</v>
       </c>
       <c r="E127" t="n">
-        <v>-15.70452449379557</v>
+        <v>-15.70452168146788</v>
       </c>
       <c r="F127" t="n">
-        <v>259.2674922117263</v>
+        <v>259.2669745447342</v>
       </c>
       <c r="G127" t="n">
-        <v>-13.19547208180869</v>
+        <v>-13.19548047641706</v>
       </c>
       <c r="H127" t="n">
-        <v>232.465537137774</v>
+        <v>232.4654804258055</v>
       </c>
       <c r="I127" t="n">
-        <v>-11.39656089557879</v>
+        <v>-11.39658276635925</v>
       </c>
       <c r="J127" t="n">
-        <v>229.1927159145226</v>
+        <v>229.1925993914238</v>
       </c>
       <c r="K127" t="n">
-        <v>-2.474111821725694</v>
+        <v>-2.474106220424217</v>
       </c>
       <c r="L127" t="n">
-        <v>309.2180392621316</v>
+        <v>309.2172163987636</v>
       </c>
       <c r="M127" t="n">
-        <v>-2.474111821725705</v>
+        <v>-2.474106220424221</v>
       </c>
       <c r="N127" t="n">
-        <v>256.7609227774375</v>
+        <v>256.7615573749999</v>
       </c>
       <c r="O127" t="n">
-        <v>-22.43938607507089</v>
+        <v>-22.43934940219849</v>
       </c>
       <c r="P127" t="n">
-        <v>234.9123132793623</v>
+        <v>234.9119328171822</v>
       </c>
       <c r="Q127" t="n">
-        <v>-13.68619239789012</v>
+        <v>-13.6861868403865</v>
       </c>
     </row>
     <row r="128">
@@ -7204,52 +7204,52 @@
         <v>44773</v>
       </c>
       <c r="B128" t="n">
-        <v>220.7532679430829</v>
+        <v>220.7533024484778</v>
       </c>
       <c r="C128" t="n">
-        <v>-10.26041818906908</v>
+        <v>-10.26041844884001</v>
       </c>
       <c r="D128" t="n">
-        <v>177.7913965724775</v>
+        <v>177.7913855930647</v>
       </c>
       <c r="E128" t="n">
-        <v>-11.59055683474415</v>
+        <v>-11.59055421215965</v>
       </c>
       <c r="F128" t="n">
-        <v>259.4960844052794</v>
+        <v>259.4955662978259</v>
       </c>
       <c r="G128" t="n">
-        <v>-13.11893785347993</v>
+        <v>-13.11894625014694</v>
       </c>
       <c r="H128" t="n">
-        <v>233.4183361377868</v>
+        <v>233.4182791933748</v>
       </c>
       <c r="I128" t="n">
-        <v>-11.03340483719772</v>
+        <v>-11.03342679761926</v>
       </c>
       <c r="J128" t="n">
-        <v>227.700381812299</v>
+        <v>227.7002467917823</v>
       </c>
       <c r="K128" t="n">
-        <v>-3.10912855075805</v>
+        <v>-3.109131179784907</v>
       </c>
       <c r="L128" t="n">
-        <v>307.2046392150477</v>
+        <v>307.2037957299815</v>
       </c>
       <c r="M128" t="n">
-        <v>-3.10912855075806</v>
+        <v>-3.109131179784914</v>
       </c>
       <c r="N128" t="n">
-        <v>263.0028280967178</v>
+        <v>263.0034781214638</v>
       </c>
       <c r="O128" t="n">
-        <v>-20.55387326654938</v>
+        <v>-20.5538357021527</v>
       </c>
       <c r="P128" t="n">
-        <v>240.8745845636871</v>
+        <v>240.8742127049348</v>
       </c>
       <c r="Q128" t="n">
-        <v>-11.49547566055678</v>
+        <v>-11.49546325276314</v>
       </c>
     </row>
     <row r="129">
@@ -7257,52 +7257,52 @@
         <v>44804</v>
       </c>
       <c r="B129" t="n">
-        <v>212.0025041503966</v>
+        <v>212.0025289915584</v>
       </c>
       <c r="C129" t="n">
-        <v>-13.81773759185308</v>
+        <v>-13.81774121394892</v>
       </c>
       <c r="D129" t="n">
-        <v>171.5401839304959</v>
+        <v>171.5401734855002</v>
       </c>
       <c r="E129" t="n">
-        <v>-14.69906624205904</v>
+        <v>-14.69906363790303</v>
       </c>
       <c r="F129" t="n">
-        <v>243.8356551408549</v>
+        <v>243.835168300868</v>
       </c>
       <c r="G129" t="n">
-        <v>-18.36215657595851</v>
+        <v>-18.36216446589182</v>
       </c>
       <c r="H129" t="n">
-        <v>223.0799136677113</v>
+        <v>223.0798742679374</v>
       </c>
       <c r="I129" t="n">
-        <v>-14.97385896662088</v>
+        <v>-14.97387422861414</v>
       </c>
       <c r="J129" t="n">
-        <v>226.7137011150028</v>
+        <v>226.7135666795626</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.528980076004838</v>
+        <v>-3.528982693639487</v>
       </c>
       <c r="L129" t="n">
-        <v>305.8734473864666</v>
+        <v>305.8726075564247</v>
       </c>
       <c r="M129" t="n">
-        <v>-3.528980076004846</v>
+        <v>-3.528982693639504</v>
       </c>
       <c r="N129" t="n">
-        <v>252.2717893830494</v>
+        <v>252.2724128854923</v>
       </c>
       <c r="O129" t="n">
-        <v>-23.79543332047454</v>
+        <v>-23.79539728877999</v>
       </c>
       <c r="P129" t="n">
-        <v>233.5465166830164</v>
+        <v>233.546156137231</v>
       </c>
       <c r="Q129" t="n">
-        <v>-14.18802690368899</v>
+        <v>-14.18801487337458</v>
       </c>
     </row>
     <row r="130">
@@ -7310,52 +7310,52 @@
         <v>44834</v>
       </c>
       <c r="B130" t="n">
-        <v>197.3149238693375</v>
+        <v>197.3149543797566</v>
       </c>
       <c r="C130" t="n">
-        <v>-19.78846375377136</v>
+        <v>-19.78846412067491</v>
       </c>
       <c r="D130" t="n">
-        <v>159.6130582766649</v>
+        <v>159.6130485774513</v>
       </c>
       <c r="E130" t="n">
-        <v>-20.63000867203978</v>
+        <v>-20.63000623923053</v>
       </c>
       <c r="F130" t="n">
-        <v>243.9043938372877</v>
+        <v>243.9039068600577</v>
       </c>
       <c r="G130" t="n">
-        <v>-18.33914239071431</v>
+        <v>-18.33915028287185</v>
       </c>
       <c r="H130" t="n">
-        <v>220.420008786786</v>
+        <v>220.4199490853816</v>
       </c>
       <c r="I130" t="n">
-        <v>-15.98767255396971</v>
+        <v>-15.98769555093938</v>
       </c>
       <c r="J130" t="n">
-        <v>221.5517557938235</v>
+        <v>221.5516244192852</v>
       </c>
       <c r="K130" t="n">
-        <v>-5.725486627999516</v>
+        <v>-5.725489186034376</v>
       </c>
       <c r="L130" t="n">
-        <v>298.9091483483214</v>
+        <v>298.9083276400032</v>
       </c>
       <c r="M130" t="n">
-        <v>-5.725486627999511</v>
+        <v>-5.725489186034389</v>
       </c>
       <c r="N130" t="n">
-        <v>231.4969406132311</v>
+        <v>231.4975300927741</v>
       </c>
       <c r="O130" t="n">
-        <v>-30.07096001415824</v>
+        <v>-30.07092171685072</v>
       </c>
       <c r="P130" t="n">
-        <v>223.8659507116541</v>
+        <v>223.8656051105886</v>
       </c>
       <c r="Q130" t="n">
-        <v>-17.74495628328273</v>
+        <v>-17.74494475162808</v>
       </c>
     </row>
     <row r="131">
@@ -7363,52 +7363,52 @@
         <v>44865</v>
       </c>
       <c r="B131" t="n">
-        <v>203.4111156333112</v>
+        <v>203.4111477100904</v>
       </c>
       <c r="C131" t="n">
-        <v>-17.31026850603763</v>
+        <v>-17.31026863072607</v>
       </c>
       <c r="D131" t="n">
-        <v>164.3176784393384</v>
+        <v>164.3176682039619</v>
       </c>
       <c r="E131" t="n">
-        <v>-18.2905656117765</v>
+        <v>-18.29056323171384</v>
       </c>
       <c r="F131" t="n">
-        <v>244.2842655807319</v>
+        <v>244.2837778450535</v>
       </c>
       <c r="G131" t="n">
-        <v>-18.21195873541747</v>
+        <v>-18.21196663986674</v>
       </c>
       <c r="H131" t="n">
-        <v>220.1427934236571</v>
+        <v>220.1427545426295</v>
       </c>
       <c r="I131" t="n">
-        <v>-16.09333223517761</v>
+        <v>-16.09334729622805</v>
       </c>
       <c r="J131" t="n">
-        <v>225.4061738050052</v>
+        <v>225.4060401448954</v>
       </c>
       <c r="K131" t="n">
-        <v>-4.085357977091472</v>
+        <v>-4.085360579629402</v>
       </c>
       <c r="L131" t="n">
-        <v>304.1093815894108</v>
+        <v>304.1085466029259</v>
       </c>
       <c r="M131" t="n">
-        <v>-4.085357977091462</v>
+        <v>-4.085360579629415</v>
       </c>
       <c r="N131" t="n">
-        <v>217.6894946829434</v>
+        <v>217.6900327135018</v>
       </c>
       <c r="O131" t="n">
-        <v>-34.24182048429549</v>
+        <v>-34.241789391951</v>
       </c>
       <c r="P131" t="n">
-        <v>221.0038610464211</v>
+        <v>221.0035198638088</v>
       </c>
       <c r="Q131" t="n">
-        <v>-18.79657360063947</v>
+        <v>-18.79656221641515</v>
       </c>
     </row>
     <row r="132">
@@ -7416,52 +7416,52 @@
         <v>44895</v>
       </c>
       <c r="B132" t="n">
-        <v>199.0587372476937</v>
+        <v>199.9741088303372</v>
       </c>
       <c r="C132" t="n">
-        <v>-19.07957692827556</v>
+        <v>-18.70747731310179</v>
       </c>
       <c r="D132" t="n">
-        <v>160.978003121609</v>
+        <v>162.1912339317018</v>
       </c>
       <c r="E132" t="n">
-        <v>-19.95126934033311</v>
+        <v>-19.34796471878632</v>
       </c>
       <c r="F132" t="n">
-        <v>244.4445539618131</v>
+        <v>244.4885837622044</v>
       </c>
       <c r="G132" t="n">
-        <v>-18.15829309021129</v>
+        <v>-18.14339608912426</v>
       </c>
       <c r="H132" t="n">
-        <v>219.4104139475174</v>
+        <v>219.6554155870618</v>
       </c>
       <c r="I132" t="n">
-        <v>-16.37247615093581</v>
+        <v>-16.27909486070633</v>
       </c>
       <c r="J132" t="n">
-        <v>227.4042204858152</v>
+        <v>229.8453389778867</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.235150864748869</v>
+        <v>-2.196352873483098</v>
       </c>
       <c r="L132" t="n">
-        <v>306.8050696898332</v>
+        <v>310.0978657674399</v>
       </c>
       <c r="M132" t="n">
-        <v>-3.235150864748856</v>
+        <v>-2.196352873483111</v>
       </c>
       <c r="N132" t="n">
-        <v>217.385230995857</v>
+        <v>213.9344872487152</v>
       </c>
       <c r="O132" t="n">
-        <v>-34.33373041400834</v>
+        <v>-35.37623705840232</v>
       </c>
       <c r="P132" t="n">
-        <v>219.8974724898553</v>
+        <v>220.2005617765932</v>
       </c>
       <c r="Q132" t="n">
-        <v>-19.20309383651589</v>
+        <v>-19.09159352233382</v>
       </c>
     </row>
   </sheetData>
